--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v4.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brookingsinstitution.sharepoint.com/sites/hutchinscenterteam/Shared Documents/Projects/Fiscal Impact/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C584BE-2FEF-EA44-8A35-0864C9EF290F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C23F3E8-FFE5-4F6C-9146-6CE603862918}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13240" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1714,6 +1711,9 @@
     <t>date</t>
   </si>
   <si>
+    <t>add_federal_grants</t>
+  </si>
+  <si>
     <t>Noncorporate Taxes</t>
   </si>
   <si>
@@ -1817,9 +1817,6 @@
   </si>
   <si>
     <t>cbo projected growth rate</t>
-  </si>
-  <si>
-    <t>add_federal_cgrants</t>
   </si>
 </sst>
 </file>
@@ -3144,21 +3141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3180,14 +3162,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3688,45 +3685,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AP95"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Q67" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="S81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q87" sqref="Q87"/>
+      <selection pane="bottomRight" activeCell="U87" sqref="U87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="4" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="286" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="22" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1640625" style="35" customWidth="1"/>
-    <col min="24" max="25" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="8.83203125" customWidth="1"/>
-    <col min="32" max="32" width="15.5" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="8.6640625" style="146"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="4" max="11" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" style="286" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="22" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" style="35" customWidth="1"/>
+    <col min="24" max="25" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="8.81640625" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="8.7265625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="302" t="s">
         <v>164</v>
       </c>
       <c r="B1" s="302"/>
       <c r="C1" s="35"/>
       <c r="K1" s="266" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L1" s="267" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M1" s="285" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB1" s="180" t="s">
         <v>251</v>
@@ -3740,19 +3737,19 @@
         <v>28</v>
       </c>
       <c r="AH1" s="305" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AI1" s="305"/>
       <c r="AJ1" s="305"/>
       <c r="AK1" s="305"/>
       <c r="AL1" s="303" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM1" s="303"/>
       <c r="AN1" s="303"/>
       <c r="AO1" s="303"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D2" s="301" t="s">
         <v>21</v>
       </c>
@@ -3780,7 +3777,7 @@
       <c r="T2" s="301"/>
       <c r="U2" s="301"/>
       <c r="V2" s="301" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W2" s="301"/>
       <c r="X2" s="301"/>
@@ -3804,7 +3801,7 @@
       <c r="AJ2" s="301"/>
       <c r="AK2" s="231"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D3" s="200" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3891,7 @@
         <v>11</v>
       </c>
       <c r="AK3" s="97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM3" s="97" t="s">
         <v>12</v>
@@ -3903,12 +3900,12 @@
         <v>11</v>
       </c>
       <c r="AO3" s="97" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="300" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B4" s="300"/>
       <c r="D4" s="200"/>
@@ -3930,12 +3927,12 @@
       <c r="AJ4" s="97"/>
       <c r="AK4" s="97"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D5" s="201">
         <v>20909.900000000001</v>
@@ -4015,7 +4012,7 @@
       <c r="AJ5" s="97"/>
       <c r="AK5" s="97"/>
     </row>
-    <row r="6" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="170" t="s">
         <v>217</v>
       </c>
@@ -4104,12 +4101,12 @@
       <c r="AK6" s="176"/>
       <c r="AL6" s="244"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D7" s="201">
         <v>18813.900000000001</v>
@@ -4189,9 +4186,9 @@
       <c r="AJ7" s="97"/>
       <c r="AK7" s="97"/>
     </row>
-    <row r="8" spans="1:42" s="214" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:42" s="214" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A8" s="214" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D8" s="218"/>
       <c r="E8" s="218"/>
@@ -4223,7 +4220,7 @@
       <c r="AK8" s="215"/>
       <c r="AL8" s="245"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D9" s="200"/>
       <c r="E9" s="200"/>
       <c r="F9" s="200"/>
@@ -4243,7 +4240,7 @@
       <c r="AJ9" s="97"/>
       <c r="AK9" s="97"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4258,9 +4255,9 @@
       <c r="AC10" s="146"/>
       <c r="AH10" s="146"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="178" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D11" s="201">
         <f>D12+D14+D16</f>
@@ -4327,7 +4324,7 @@
       </c>
       <c r="T11" s="168">
         <f t="shared" si="2"/>
-        <v>3718.9986738367047</v>
+        <v>3718.9986738367052</v>
       </c>
       <c r="U11" s="168">
         <f t="shared" si="2"/>
@@ -4341,12 +4338,12 @@
       <c r="AC11" s="146"/>
       <c r="AH11" s="146"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" s="219" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D12" s="201">
         <v>1634.2</v>
@@ -4393,27 +4390,27 @@
       </c>
       <c r="Q12" s="169">
         <f t="shared" si="4"/>
-        <v>1928.8565750697064</v>
+        <v>1928.8565750697067</v>
       </c>
       <c r="R12" s="169">
         <f t="shared" si="4"/>
-        <v>1948.1451408204034</v>
+        <v>1948.1451408204036</v>
       </c>
       <c r="S12" s="169">
         <f t="shared" si="4"/>
-        <v>1967.6265922286075</v>
+        <v>1967.6265922286077</v>
       </c>
       <c r="T12" s="169">
         <f t="shared" si="4"/>
-        <v>1987.3028581508936</v>
+        <v>1987.3028581508938</v>
       </c>
       <c r="U12" s="169">
         <f t="shared" si="4"/>
-        <v>2007.1758867324027</v>
+        <v>2007.1758867324029</v>
       </c>
       <c r="V12" s="169">
         <f t="shared" ref="O12:V14" si="5">U12*(1+V13)</f>
-        <v>2047.3194044670508</v>
+        <v>2047.3194044670511</v>
       </c>
       <c r="W12" s="169"/>
       <c r="X12" s="44"/>
@@ -4430,11 +4427,11 @@
       </c>
       <c r="AD12" s="45">
         <f>AVERAGE(N12:Q12)</f>
-        <v>1882.0750609457466</v>
+        <v>1882.0750609457468</v>
       </c>
       <c r="AE12" s="45">
         <f>AVERAGE(R12:U12)</f>
-        <v>1977.5626194830768</v>
+        <v>1977.562619483077</v>
       </c>
       <c r="AF12" s="3">
         <f>AVERAGE(D12:G12)</f>
@@ -4457,7 +4454,7 @@
       </c>
       <c r="AK12" s="3"/>
     </row>
-    <row r="13" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="220" t="s">
         <v>217</v>
       </c>
@@ -4514,12 +4511,12 @@
       <c r="AK13" s="176"/>
       <c r="AL13" s="244"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" s="219" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D14" s="201">
         <v>183.5</v>
@@ -4626,7 +4623,7 @@
       <c r="AO14" s="35"/>
       <c r="AP14" s="35"/>
     </row>
-    <row r="15" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="220" t="s">
         <v>217</v>
       </c>
@@ -4683,12 +4680,12 @@
       <c r="AK15" s="187"/>
       <c r="AL15" s="244"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="219" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D16" s="201">
         <v>1360.3</v>
@@ -4799,7 +4796,7 @@
       </c>
       <c r="AK16" s="3"/>
     </row>
-    <row r="17" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="220" t="s">
         <v>217</v>
       </c>
@@ -4856,12 +4853,12 @@
       <c r="AK17" s="176"/>
       <c r="AL17" s="244"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="178" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D18" s="201">
         <v>234.7</v>
@@ -4972,7 +4969,7 @@
         <v>237.052464440053</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="179" t="s">
         <v>217</v>
       </c>
@@ -5029,7 +5026,7 @@
       <c r="AK19" s="176"/>
       <c r="AL19" s="244"/>
     </row>
-    <row r="20" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="170"/>
       <c r="D20" s="202"/>
       <c r="E20" s="202"/>
@@ -5066,9 +5063,9 @@
       <c r="AK20" s="176"/>
       <c r="AL20" s="244"/>
     </row>
-    <row r="21" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D21" s="202"/>
       <c r="E21" s="202"/>
@@ -5105,9 +5102,9 @@
       <c r="AK21" s="176"/>
       <c r="AL21" s="244"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" s="178" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="206">
         <f>SUM(D23:D25)</f>
@@ -5185,7 +5182,7 @@
         <v>2074.74222788611</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="219" t="s">
         <v>22</v>
       </c>
@@ -5257,7 +5254,7 @@
         <v>569.66745022009331</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="219" t="s">
         <v>23</v>
       </c>
@@ -5329,7 +5326,7 @@
         <v>1482.2881698253204</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="219" t="s">
         <v>24</v>
       </c>
@@ -5401,7 +5398,7 @@
         <v>22.786607840696337</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="178" t="s">
         <v>0</v>
       </c>
@@ -5474,9 +5471,9 @@
         <v>66.213511073073931</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="179" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D27" s="213">
         <f t="shared" ref="D27:J27" si="21">D26/D18</f>
@@ -5519,7 +5516,7 @@
       <c r="U27" s="196"/>
       <c r="AL27" s="247"/>
     </row>
-    <row r="28" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="197"/>
       <c r="B28" s="198"/>
       <c r="D28" s="202"/>
@@ -5566,7 +5563,7 @@
       <c r="AK28" s="176"/>
       <c r="AL28" s="244"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D29" s="200"/>
       <c r="E29" s="200"/>
       <c r="F29" s="200"/>
@@ -5591,12 +5588,12 @@
         <v>2696.6527204036238</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="86" t="s">
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D30" s="205">
         <v>2220523</v>
@@ -5694,12 +5691,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="86" t="s">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D31" s="205">
         <v>753311</v>
@@ -5821,7 +5818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="93" t="s">
         <v>20</v>
       </c>
@@ -5891,12 +5888,12 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="185"/>
     </row>
-    <row r="33" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="86" t="s">
         <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D33" s="205">
         <v>27025</v>
@@ -6003,7 +6000,7 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="185"/>
     </row>
-    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="115" t="s">
         <v>214</v>
       </c>
@@ -6068,7 +6065,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="185"/>
     </row>
-    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="117" t="s">
         <v>138</v>
       </c>
@@ -6155,7 +6152,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="185"/>
     </row>
-    <row r="36" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="117" t="s">
         <v>163</v>
       </c>
@@ -6204,7 +6201,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="185"/>
     </row>
-    <row r="37" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" s="115" t="s">
         <v>139</v>
       </c>
@@ -6294,7 +6291,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="185"/>
     </row>
-    <row r="38" spans="1:40" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="86" t="s">
         <v>147</v>
       </c>
@@ -6375,7 +6372,7 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="185"/>
     </row>
-    <row r="39" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="117" t="s">
         <v>207</v>
       </c>
@@ -6433,7 +6430,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="185"/>
     </row>
-    <row r="40" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="117" t="s">
         <v>208</v>
       </c>
@@ -6491,7 +6488,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="185"/>
     </row>
-    <row r="41" spans="1:40" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="86" t="s">
         <v>149</v>
       </c>
@@ -6615,7 +6612,7 @@
         <v>1718.2255606122285</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="171" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="170" t="s">
         <v>217</v>
       </c>
@@ -6675,9 +6672,9 @@
       <c r="AK42" s="176"/>
       <c r="AL42" s="186"/>
     </row>
-    <row r="43" spans="1:40" s="188" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D43" s="210"/>
       <c r="E43" s="210"/>
@@ -6736,7 +6733,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="86" t="s">
         <v>158</v>
       </c>
@@ -6829,7 +6826,7 @@
       </c>
       <c r="AL44" s="246"/>
     </row>
-    <row r="45" spans="1:40" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -6868,12 +6865,12 @@
       <c r="AK45" s="44"/>
       <c r="AL45" s="248"/>
     </row>
-    <row r="46" spans="1:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="141" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C46" s="141"/>
       <c r="D46" s="200">
@@ -6957,7 +6954,7 @@
       <c r="AE46" s="44"/>
       <c r="AL46" s="246"/>
     </row>
-    <row r="47" spans="1:40" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="134" t="s">
         <v>202</v>
       </c>
@@ -7027,9 +7024,9 @@
       <c r="AF47" s="44"/>
       <c r="AL47" s="246"/>
     </row>
-    <row r="48" spans="1:40" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="228" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D48" s="200"/>
       <c r="E48" s="200"/>
@@ -7092,9 +7089,9 @@
       <c r="AF48" s="44"/>
       <c r="AL48" s="246"/>
     </row>
-    <row r="49" spans="1:38" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="229" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D49" s="200"/>
       <c r="E49" s="200"/>
@@ -7157,9 +7154,9 @@
       <c r="AF49" s="44"/>
       <c r="AL49" s="246"/>
     </row>
-    <row r="50" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A50" s="284" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D50" s="210"/>
       <c r="E50" s="210"/>
@@ -7196,9 +7193,9 @@
       <c r="AF50" s="190"/>
       <c r="AL50" s="247"/>
     </row>
-    <row r="51" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A51" s="284" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D51" s="210"/>
       <c r="E51" s="210"/>
@@ -7235,9 +7232,9 @@
       <c r="AF51" s="190"/>
       <c r="AL51" s="247"/>
     </row>
-    <row r="52" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A52" s="284" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D52" s="210"/>
       <c r="E52" s="210"/>
@@ -7274,7 +7271,7 @@
       <c r="AF52" s="190"/>
       <c r="AL52" s="247"/>
     </row>
-    <row r="53" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="134"/>
       <c r="D53" s="200"/>
       <c r="E53" s="200"/>
@@ -7307,12 +7304,12 @@
       <c r="AF53" s="44"/>
       <c r="AL53" s="246"/>
     </row>
-    <row r="54" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D54" s="200">
         <v>586475</v>
@@ -7383,7 +7380,7 @@
       <c r="AE54" s="44"/>
       <c r="AL54" s="246"/>
     </row>
-    <row r="55" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
         <v>230</v>
       </c>
@@ -7445,7 +7442,7 @@
       <c r="AF55" s="44"/>
       <c r="AL55" s="246"/>
     </row>
-    <row r="56" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="136" t="s">
         <v>231</v>
       </c>
@@ -7521,7 +7518,7 @@
       <c r="AF56" s="44"/>
       <c r="AL56" s="246"/>
     </row>
-    <row r="57" spans="1:38" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" s="138" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="137" t="s">
         <v>211</v>
       </c>
@@ -7563,7 +7560,7 @@
       <c r="AF57" s="140"/>
       <c r="AL57" s="249"/>
     </row>
-    <row r="58" spans="1:38" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="134" t="s">
         <v>212</v>
       </c>
@@ -7639,7 +7636,7 @@
       <c r="AF58" s="44"/>
       <c r="AL58" s="246"/>
     </row>
-    <row r="59" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="113" t="s">
         <v>199</v>
       </c>
@@ -7703,7 +7700,7 @@
       <c r="AF59" s="44"/>
       <c r="AL59" s="246"/>
     </row>
-    <row r="60" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="113" t="s">
         <v>203</v>
       </c>
@@ -7757,7 +7754,7 @@
       <c r="AF60" s="44"/>
       <c r="AL60" s="246"/>
     </row>
-    <row r="61" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="113" t="s">
         <v>200</v>
       </c>
@@ -7811,7 +7808,7 @@
       <c r="AF61" s="44"/>
       <c r="AL61" s="246"/>
     </row>
-    <row r="62" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="145" t="s">
         <v>219</v>
       </c>
@@ -7892,7 +7889,7 @@
       <c r="AF62" s="44"/>
       <c r="AL62" s="246"/>
     </row>
-    <row r="63" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D63" s="200"/>
       <c r="E63" s="200"/>
       <c r="F63" s="200"/>
@@ -7924,12 +7921,12 @@
       <c r="AF63" s="44"/>
       <c r="AL63" s="246"/>
     </row>
-    <row r="64" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D64" s="209">
         <v>1241.5999999999999</v>
@@ -7985,12 +7982,12 @@
       <c r="AK64" s="44"/>
       <c r="AL64" s="248"/>
     </row>
-    <row r="65" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="114" t="s">
         <v>205</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D65" s="200"/>
       <c r="E65" s="200"/>
@@ -8064,7 +8061,7 @@
       <c r="AK65" s="44"/>
       <c r="AL65" s="248"/>
     </row>
-    <row r="66" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="170" t="s">
         <v>204</v>
       </c>
@@ -8145,12 +8142,12 @@
       <c r="AK66" s="190"/>
       <c r="AL66" s="250"/>
     </row>
-    <row r="67" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
         <v>206</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D67" s="209">
         <v>389624</v>
@@ -8258,7 +8255,7 @@
       <c r="AK67" s="84"/>
       <c r="AL67" s="246"/>
     </row>
-    <row r="68" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="141" t="s">
         <v>162</v>
       </c>
@@ -8341,7 +8338,7 @@
       </c>
       <c r="AL68" s="246"/>
     </row>
-    <row r="69" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="141" t="s">
         <v>216</v>
       </c>
@@ -8406,7 +8403,7 @@
       </c>
       <c r="AL69" s="246"/>
     </row>
-    <row r="70" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D70" s="200"/>
       <c r="E70" s="200"/>
       <c r="F70" s="200"/>
@@ -8418,12 +8415,12 @@
       <c r="M70" s="287"/>
       <c r="AL70" s="246"/>
     </row>
-    <row r="71" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D71" s="200">
         <v>728844</v>
@@ -8494,7 +8491,7 @@
       </c>
       <c r="AL71" s="246"/>
     </row>
-    <row r="72" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
         <v>232</v>
       </c>
@@ -8575,7 +8572,7 @@
       </c>
       <c r="AL72" s="246"/>
     </row>
-    <row r="73" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D73" s="206"/>
       <c r="E73" s="200"/>
       <c r="F73" s="200"/>
@@ -8587,12 +8584,12 @@
       <c r="M73" s="287"/>
       <c r="AL73" s="246"/>
     </row>
-    <row r="74" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D74" s="200">
         <v>589819</v>
@@ -8689,9 +8686,9 @@
       <c r="AK74" s="84"/>
       <c r="AL74" s="246"/>
     </row>
-    <row r="75" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D75" s="210"/>
       <c r="E75" s="210"/>
@@ -8727,7 +8724,7 @@
       <c r="W75" s="177"/>
       <c r="AL75" s="247"/>
     </row>
-    <row r="76" spans="1:38" s="153" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" s="153" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="153" t="s">
         <v>224</v>
       </c>
@@ -8766,7 +8763,7 @@
       <c r="AI76" s="155"/>
       <c r="AL76" s="251"/>
     </row>
-    <row r="77" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
         <v>18</v>
       </c>
@@ -8839,9 +8836,9 @@
       </c>
       <c r="AL77" s="246"/>
     </row>
-    <row r="78" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="170" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B78" s="35"/>
       <c r="D78" s="203"/>
@@ -8889,12 +8886,12 @@
       <c r="Y78" s="283"/>
       <c r="AL78" s="247"/>
     </row>
-    <row r="79" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="170" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D79" s="210"/>
       <c r="E79" s="210"/>
@@ -8946,12 +8943,12 @@
       </c>
       <c r="AL79" s="247"/>
     </row>
-    <row r="80" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
         <v>218</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D80" s="200"/>
       <c r="E80" s="200"/>
@@ -9014,7 +9011,7 @@
       </c>
       <c r="AL80" s="246"/>
     </row>
-    <row r="81" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D81" s="200"/>
       <c r="E81" s="200"/>
       <c r="F81" s="200"/>
@@ -9066,9 +9063,9 @@
       <c r="Y81"/>
       <c r="AL81" s="246"/>
     </row>
-    <row r="82" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="170" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B82" s="35"/>
       <c r="D82" s="203"/>
@@ -9104,9 +9101,9 @@
       <c r="Y82" s="283"/>
       <c r="AL82" s="247"/>
     </row>
-    <row r="83" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="170" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D83" s="210"/>
       <c r="E83" s="210"/>
@@ -9152,9 +9149,9 @@
       </c>
       <c r="AL83" s="247"/>
     </row>
-    <row r="84" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="295" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D84" s="210"/>
       <c r="E84" s="210"/>
@@ -9177,7 +9174,7 @@
       <c r="V84" s="177"/>
       <c r="AL84" s="247"/>
     </row>
-    <row r="85" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
         <v>165</v>
       </c>
@@ -9270,7 +9267,7 @@
       </c>
       <c r="AL85" s="246"/>
     </row>
-    <row r="86" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="141" t="s">
         <v>215</v>
       </c>
@@ -9347,7 +9344,7 @@
       </c>
       <c r="AL86" s="246"/>
     </row>
-    <row r="87" spans="1:38" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" s="141" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="141" t="s">
         <v>233</v>
       </c>
@@ -9440,7 +9437,7 @@
       </c>
       <c r="AL87" s="299"/>
     </row>
-    <row r="88" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="D88" s="221"/>
       <c r="E88" s="221"/>
@@ -9463,7 +9460,7 @@
       <c r="V88"/>
       <c r="AL88" s="246"/>
     </row>
-    <row r="89" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="170"/>
       <c r="D89" s="196"/>
       <c r="E89" s="196"/>
@@ -9485,7 +9482,7 @@
       <c r="U89" s="196"/>
       <c r="AL89" s="247"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>159</v>
       </c>
@@ -9513,7 +9510,7 @@
       <c r="AG90" s="35"/>
       <c r="AH90" s="35"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="35"/>
@@ -9538,7 +9535,7 @@
       <c r="AG91" s="35"/>
       <c r="AH91" s="35"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="35"/>
@@ -9563,7 +9560,7 @@
       <c r="AG92" s="35"/>
       <c r="AH92" s="35"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="35"/>
@@ -9588,7 +9585,7 @@
       <c r="AG93" s="35"/>
       <c r="AH93" s="35"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="35"/>
@@ -9613,7 +9610,7 @@
       <c r="AG94" s="35"/>
       <c r="AH94" s="35"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="35"/>
@@ -9666,29 +9663,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="146" customWidth="1"/>
-    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="146" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="146"/>
-    <col min="19" max="19" width="8.6640625" style="146"/>
-    <col min="23" max="23" width="8.6640625" style="146"/>
-    <col min="27" max="27" width="8.6640625" style="146"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="146" customWidth="1"/>
+    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="146" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7265625" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="146"/>
+    <col min="19" max="19" width="8.7265625" style="146"/>
+    <col min="23" max="23" width="8.7265625" style="146"/>
+    <col min="27" max="27" width="8.7265625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="306" t="s">
         <v>209</v>
       </c>
@@ -9697,14 +9694,14 @@
       <c r="H1"/>
       <c r="I1" s="253"/>
       <c r="J1" s="314" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V1" s="301"/>
       <c r="W1" s="301"/>
       <c r="X1" s="301"/>
       <c r="Y1" s="301"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="308" t="s">
         <v>193</v>
       </c>
@@ -9715,7 +9712,7 @@
       <c r="I2" s="254"/>
       <c r="J2" s="314"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="309"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -9724,21 +9721,21 @@
       <c r="I3" s="254"/>
       <c r="J3" s="314"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="309"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="310"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="311" t="s">
         <v>161</v>
       </c>
@@ -9758,28 +9755,28 @@
       <c r="M7" s="312"/>
       <c r="N7" s="312"/>
       <c r="O7" s="311" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P7" s="312"/>
       <c r="Q7" s="312"/>
       <c r="R7" s="312"/>
       <c r="S7" s="311" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T7" s="312"/>
       <c r="U7" s="312"/>
       <c r="V7" s="312"/>
       <c r="W7" s="311" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X7" s="312"/>
       <c r="Y7" s="312"/>
       <c r="Z7" s="312"/>
       <c r="AA7" s="232" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>201</v>
       </c>
@@ -9859,7 +9856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="106" t="s">
         <v>166</v>
       </c>
@@ -9881,7 +9878,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B10" s="86" t="s">
         <v>172</v>
       </c>
@@ -9958,7 +9955,7 @@
         <v>252.42933533514699</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B11" s="86" t="s">
         <v>173</v>
       </c>
@@ -10035,7 +10032,7 @@
         <v>1186.75511810546</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B12" s="86" t="s">
         <v>174</v>
       </c>
@@ -10112,7 +10109,7 @@
         <v>2355.9885775604498</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B13" s="86" t="s">
         <v>175</v>
       </c>
@@ -10189,7 +10186,7 @@
         <v>80.167011412978496</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B14" s="86" t="s">
         <v>176</v>
       </c>
@@ -10266,7 +10263,7 @@
         <v>0.65670630121913898</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B15" s="86" t="s">
         <v>177</v>
       </c>
@@ -10343,7 +10340,7 @@
         <v>1728.05186986427</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B16" s="86" t="s">
         <v>168</v>
       </c>
@@ -10420,7 +10417,7 @@
         <v>1310.5588758504</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B17" s="86" t="s">
         <v>169</v>
       </c>
@@ -10497,7 +10494,7 @@
         <v>4091.8476387732799</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B18" s="86" t="s">
         <v>170</v>
       </c>
@@ -10574,7 +10571,7 @@
         <v>587.36016206119598</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B19" s="86" t="s">
         <v>171</v>
       </c>
@@ -10651,7 +10648,7 @@
         <v>1326.2183753120501</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>197</v>
       </c>
@@ -10728,7 +10725,7 @@
         <v>293.65977826243102</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="E22" s="95"/>
       <c r="F22" s="95"/>
       <c r="L22" s="95"/>
@@ -10745,7 +10742,7 @@
       <c r="Z22" s="95"/>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="110" t="s">
         <v>186</v>
       </c>
@@ -10766,7 +10763,7 @@
       <c r="Z23" s="95"/>
       <c r="AB23" s="95"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>186</v>
       </c>
@@ -10868,7 +10865,7 @@
       </c>
       <c r="AB24" s="95"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>179</v>
       </c>
@@ -10970,9 +10967,9 @@
       </c>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B26" s="214" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D26" s="240"/>
       <c r="E26" s="255"/>
@@ -11042,7 +11039,7 @@
       </c>
       <c r="AB26" s="256"/>
     </row>
-    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="99" t="s">
         <v>180</v>
       </c>
@@ -11138,7 +11135,7 @@
       </c>
       <c r="AB27" s="257"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D28" s="102"/>
       <c r="E28" s="104"/>
       <c r="F28" s="104"/>
@@ -11161,7 +11158,7 @@
       <c r="Z28" s="95"/>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D29" s="102"/>
       <c r="E29" s="104"/>
       <c r="F29" s="104"/>
@@ -11184,7 +11181,7 @@
       <c r="Z29" s="95"/>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="110" t="s">
         <v>189</v>
       </c>
@@ -11211,7 +11208,7 @@
       <c r="Z30" s="95"/>
       <c r="AB30" s="95"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>189</v>
       </c>
@@ -11249,68 +11246,68 @@
         <v>190.76877861769708</v>
       </c>
       <c r="M31" s="104">
-        <f>L31*(1+M33)</f>
-        <v>196.00947195012407</v>
+        <f>main!T87/1000</f>
+        <v>192.3148066379436</v>
       </c>
       <c r="N31" s="104">
-        <f t="shared" ref="N31:AA31" si="23">M31*(1+N33)</f>
-        <v>200.88903737219215</v>
+        <f>main!U87/1000</f>
+        <v>193.70806509097224</v>
       </c>
       <c r="O31" s="104">
-        <f t="shared" si="23"/>
-        <v>205.36301814339876</v>
+        <f>main!V87/1000</f>
+        <v>194.93633241140492</v>
       </c>
       <c r="P31" s="104">
-        <f t="shared" si="23"/>
-        <v>209.73588309970617</v>
+        <f>main!W87/1000</f>
+        <v>0</v>
       </c>
       <c r="Q31" s="104">
-        <f t="shared" si="23"/>
-        <v>214.4265406171285</v>
+        <f>main!X87/1000</f>
+        <v>0</v>
       </c>
       <c r="R31" s="104">
-        <f t="shared" si="23"/>
-        <v>219.08830790172226</v>
+        <f>main!Y87/1000</f>
+        <v>0</v>
       </c>
       <c r="S31" s="104">
-        <f t="shared" si="23"/>
-        <v>220.55514167970964</v>
+        <f>main!Z87/1000</f>
+        <v>0</v>
       </c>
       <c r="T31" s="104">
-        <f t="shared" si="23"/>
-        <v>222.19531685467072</v>
+        <f>main!AA87/1000</f>
+        <v>0</v>
       </c>
       <c r="U31" s="104">
-        <f t="shared" si="23"/>
-        <v>223.99438831018838</v>
+        <f>main!AB87/1000</f>
+        <v>0</v>
       </c>
       <c r="V31" s="104">
-        <f t="shared" si="23"/>
-        <v>226.02458162833514</v>
+        <f>main!AC87/1000</f>
+        <v>0</v>
       </c>
       <c r="W31" s="104">
-        <f t="shared" si="23"/>
-        <v>227.65705924494284</v>
+        <f>main!AD87/1000</f>
+        <v>0</v>
       </c>
       <c r="X31" s="104">
-        <f t="shared" si="23"/>
-        <v>229.2606466287219</v>
+        <f>main!AE87/1000</f>
+        <v>0</v>
       </c>
       <c r="Y31" s="104">
-        <f t="shared" si="23"/>
-        <v>230.97979494381352</v>
+        <f>main!AF87/1000</f>
+        <v>0</v>
       </c>
       <c r="Z31" s="104">
-        <f t="shared" si="23"/>
-        <v>232.828949306635</v>
+        <f>main!AG87/1000</f>
+        <v>0</v>
       </c>
       <c r="AA31" s="104">
-        <f t="shared" si="23"/>
-        <v>234.70864181837771</v>
+        <f>main!AH87/1000</f>
+        <v>0</v>
       </c>
       <c r="AB31" s="95"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>179</v>
       </c>
@@ -11319,102 +11316,102 @@
         <v>186.02099999999999</v>
       </c>
       <c r="E32" s="104">
-        <f t="shared" ref="E32:K32" si="24">E11</f>
+        <f t="shared" ref="E32:K32" si="23">E11</f>
         <v>436.94400000000002</v>
       </c>
       <c r="F32" s="104">
+        <f t="shared" si="23"/>
+        <v>878.91700000000003</v>
+      </c>
+      <c r="G32" s="149">
+        <f t="shared" si="23"/>
+        <v>915.35852224998098</v>
+      </c>
+      <c r="H32" s="104">
+        <f t="shared" si="23"/>
+        <v>914.68514436821897</v>
+      </c>
+      <c r="I32" s="104">
+        <f t="shared" si="23"/>
+        <v>915.98381158882398</v>
+      </c>
+      <c r="J32" s="104">
+        <f t="shared" si="23"/>
+        <v>910.92811125735602</v>
+      </c>
+      <c r="K32" s="149">
+        <f t="shared" si="23"/>
+        <v>936.84227045007503</v>
+      </c>
+      <c r="L32" s="233">
+        <f t="shared" ref="L32:AA32" si="24">L11</f>
+        <v>964.58239733017194</v>
+      </c>
+      <c r="M32" s="104">
         <f t="shared" si="24"/>
-        <v>878.91700000000003</v>
-      </c>
-      <c r="G32" s="149">
+        <v>991.08086618285097</v>
+      </c>
+      <c r="N32" s="104">
         <f t="shared" si="24"/>
-        <v>915.35852224998098</v>
-      </c>
-      <c r="H32" s="104">
+        <v>1015.7533673481501</v>
+      </c>
+      <c r="O32" s="149">
         <f t="shared" si="24"/>
-        <v>914.68514436821897</v>
-      </c>
-      <c r="I32" s="104">
+        <v>1038.3751146234099</v>
+      </c>
+      <c r="P32" s="104">
         <f t="shared" si="24"/>
-        <v>915.98381158882398</v>
-      </c>
-      <c r="J32" s="104">
+        <v>1060.4855909462101</v>
+      </c>
+      <c r="Q32" s="104">
         <f t="shared" si="24"/>
-        <v>910.92811125735602</v>
-      </c>
-      <c r="K32" s="149">
+        <v>1084.2029188339</v>
+      </c>
+      <c r="R32" s="104">
         <f t="shared" si="24"/>
-        <v>936.84227045007503</v>
-      </c>
-      <c r="L32" s="233">
-        <f t="shared" ref="L32:AA32" si="25">L11</f>
-        <v>964.58239733017194</v>
-      </c>
-      <c r="M32" s="104">
-        <f t="shared" si="25"/>
-        <v>991.08086618285097</v>
-      </c>
-      <c r="N32" s="104">
-        <f t="shared" si="25"/>
-        <v>1015.7533673481501</v>
-      </c>
-      <c r="O32" s="149">
-        <f t="shared" si="25"/>
-        <v>1038.3751146234099</v>
-      </c>
-      <c r="P32" s="104">
-        <f t="shared" si="25"/>
-        <v>1060.4855909462101</v>
-      </c>
-      <c r="Q32" s="104">
-        <f t="shared" si="25"/>
-        <v>1084.2029188339</v>
-      </c>
-      <c r="R32" s="104">
-        <f t="shared" si="25"/>
         <v>1107.7741693066</v>
       </c>
       <c r="S32" s="149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1115.1909072671201</v>
       </c>
       <c r="T32" s="104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1123.4841097175899</v>
       </c>
       <c r="U32" s="104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1132.5807379505</v>
       </c>
       <c r="V32" s="104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1142.84598550333</v>
       </c>
       <c r="W32" s="149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1151.10026686124</v>
       </c>
       <c r="X32" s="104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1159.20847080416</v>
       </c>
       <c r="Y32" s="104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1167.9009844070299</v>
       </c>
       <c r="Z32" s="104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1177.2508463773599</v>
       </c>
       <c r="AA32" s="149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1186.75511810546</v>
       </c>
       <c r="AB32" s="95"/>
     </row>
-    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B33" s="214" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D33" s="240"/>
       <c r="E33" s="255"/>
@@ -11426,164 +11423,164 @@
       <c r="K33" s="259"/>
       <c r="L33" s="242"/>
       <c r="M33" s="242">
-        <f t="shared" ref="M33" si="26">(M32/L32)-1</f>
+        <f t="shared" ref="M33" si="25">(M32/L32)-1</f>
         <v>2.747144145074909E-2</v>
       </c>
       <c r="N33" s="242">
-        <f t="shared" ref="N33" si="27">(N32/M32)-1</f>
+        <f t="shared" ref="N33" si="26">(N32/M32)-1</f>
         <v>2.4894538888966089E-2</v>
       </c>
       <c r="O33" s="259">
-        <f t="shared" ref="O33" si="28">(O32/N32)-1</f>
+        <f t="shared" ref="O33" si="27">(O32/N32)-1</f>
         <v>2.2270905519436335E-2</v>
       </c>
       <c r="P33" s="242">
-        <f t="shared" ref="P33" si="29">(P32/O32)-1</f>
+        <f t="shared" ref="P33" si="28">(P32/O32)-1</f>
         <v>2.1293341887164807E-2</v>
       </c>
       <c r="Q33" s="242">
-        <f t="shared" ref="Q33" si="30">(Q32/P32)-1</f>
+        <f t="shared" ref="Q33" si="29">(Q32/P32)-1</f>
         <v>2.2364592305802233E-2</v>
       </c>
       <c r="R33" s="242">
-        <f t="shared" ref="R33" si="31">(R32/Q32)-1</f>
+        <f t="shared" ref="R33" si="30">(R32/Q32)-1</f>
         <v>2.1740626282441555E-2</v>
       </c>
       <c r="S33" s="259">
-        <f t="shared" ref="S33" si="32">(S32/R32)-1</f>
+        <f t="shared" ref="S33" si="31">(S32/R32)-1</f>
         <v>6.6951714221343828E-3</v>
       </c>
       <c r="T33" s="242">
-        <f t="shared" ref="T33" si="33">(T32/S32)-1</f>
+        <f t="shared" ref="T33" si="32">(T32/S32)-1</f>
         <v>7.4365764609694018E-3</v>
       </c>
       <c r="U33" s="242">
-        <f t="shared" ref="U33" si="34">(U32/T32)-1</f>
+        <f t="shared" ref="U33" si="33">(U32/T32)-1</f>
         <v>8.0968018632650018E-3</v>
       </c>
       <c r="V33" s="242">
-        <f t="shared" ref="V33" si="35">(V32/U32)-1</f>
+        <f t="shared" ref="V33" si="34">(V32/U32)-1</f>
         <v>9.0635900901916422E-3</v>
       </c>
       <c r="W33" s="259">
-        <f t="shared" ref="W33" si="36">(W32/V32)-1</f>
+        <f t="shared" ref="W33" si="35">(W32/V32)-1</f>
         <v>7.2225666998118054E-3</v>
       </c>
       <c r="X33" s="242">
-        <f t="shared" ref="X33" si="37">(X32/W32)-1</f>
+        <f t="shared" ref="X33" si="36">(X32/W32)-1</f>
         <v>7.0438728721946564E-3</v>
       </c>
       <c r="Y33" s="242">
-        <f t="shared" ref="Y33" si="38">(Y32/X32)-1</f>
+        <f t="shared" ref="Y33" si="37">(Y32/X32)-1</f>
         <v>7.4986629426885276E-3</v>
       </c>
       <c r="Z33" s="242">
-        <f t="shared" ref="Z33" si="39">(Z32/Y32)-1</f>
+        <f t="shared" ref="Z33" si="38">(Z32/Y32)-1</f>
         <v>8.0056974822031446E-3</v>
       </c>
       <c r="AA33" s="259">
-        <f t="shared" ref="AA33" si="40">(AA32/Z32)-1</f>
+        <f t="shared" ref="AA33" si="39">(AA32/Z32)-1</f>
         <v>8.0732766150448665E-3</v>
       </c>
       <c r="AB33" s="256"/>
     </row>
-    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="99" t="s">
         <v>180</v>
       </c>
       <c r="D34" s="103"/>
       <c r="E34" s="226"/>
       <c r="F34" s="226">
-        <f t="shared" ref="F34" si="41">F31-F32</f>
+        <f t="shared" ref="F34" si="40">F31-F32</f>
         <v>-594.30799999999999</v>
       </c>
       <c r="G34" s="150">
-        <f t="shared" ref="G34" si="42">G31-G32</f>
+        <f t="shared" ref="G34" si="41">G31-G32</f>
         <v>-692.55713474998106</v>
       </c>
       <c r="H34" s="226">
-        <f t="shared" ref="H34" si="43">H31-H32</f>
+        <f t="shared" ref="H34" si="42">H31-H32</f>
         <v>-711.52675339946904</v>
       </c>
       <c r="I34" s="226">
-        <f t="shared" ref="I34" si="44">I31-I32</f>
+        <f t="shared" ref="I34" si="43">I31-I32</f>
         <v>-728.46752464265205</v>
       </c>
       <c r="J34" s="226">
-        <f t="shared" ref="J34" si="45">J31-J32</f>
+        <f t="shared" ref="J34" si="44">J31-J32</f>
         <v>-722.69424287645336</v>
       </c>
       <c r="K34" s="150">
-        <f t="shared" ref="K34:N34" si="46">K31-K32</f>
+        <f t="shared" ref="K34:N34" si="45">K31-K32</f>
         <v>-747.52664805631559</v>
       </c>
       <c r="L34" s="252">
+        <f t="shared" si="45"/>
+        <v>-773.81361871247486</v>
+      </c>
+      <c r="M34" s="226">
+        <f t="shared" si="45"/>
+        <v>-798.76605954490742</v>
+      </c>
+      <c r="N34" s="226">
+        <f t="shared" si="45"/>
+        <v>-822.04530225717781</v>
+      </c>
+      <c r="O34" s="150">
+        <f t="shared" ref="O34:AA34" si="46">O31-O32</f>
+        <v>-843.43878221200498</v>
+      </c>
+      <c r="P34" s="150">
         <f t="shared" si="46"/>
-        <v>-773.81361871247486</v>
-      </c>
-      <c r="M34" s="226">
+        <v>-1060.4855909462101</v>
+      </c>
+      <c r="Q34" s="150">
         <f t="shared" si="46"/>
-        <v>-795.0713942327269</v>
-      </c>
-      <c r="N34" s="226">
+        <v>-1084.2029188339</v>
+      </c>
+      <c r="R34" s="150">
         <f t="shared" si="46"/>
-        <v>-814.86432997595784</v>
-      </c>
-      <c r="O34" s="150">
-        <f t="shared" ref="O34:AA34" si="47">O31-O32</f>
-        <v>-833.01209648001111</v>
-      </c>
-      <c r="P34" s="150">
-        <f t="shared" si="47"/>
-        <v>-850.74970784650395</v>
-      </c>
-      <c r="Q34" s="150">
-        <f t="shared" si="47"/>
-        <v>-869.77637821677149</v>
-      </c>
-      <c r="R34" s="150">
-        <f t="shared" si="47"/>
-        <v>-888.68586140487776</v>
+        <v>-1107.7741693066</v>
       </c>
       <c r="S34" s="150">
-        <f t="shared" si="47"/>
-        <v>-894.63576558741045</v>
+        <f t="shared" si="46"/>
+        <v>-1115.1909072671201</v>
       </c>
       <c r="T34" s="150">
-        <f t="shared" si="47"/>
-        <v>-901.28879286291919</v>
+        <f t="shared" si="46"/>
+        <v>-1123.4841097175899</v>
       </c>
       <c r="U34" s="150">
-        <f t="shared" si="47"/>
-        <v>-908.5863496403116</v>
+        <f t="shared" si="46"/>
+        <v>-1132.5807379505</v>
       </c>
       <c r="V34" s="150">
-        <f t="shared" si="47"/>
-        <v>-916.82140387499487</v>
+        <f t="shared" si="46"/>
+        <v>-1142.84598550333</v>
       </c>
       <c r="W34" s="150">
-        <f t="shared" si="47"/>
-        <v>-923.44320761629717</v>
+        <f t="shared" si="46"/>
+        <v>-1151.10026686124</v>
       </c>
       <c r="X34" s="150">
-        <f t="shared" si="47"/>
-        <v>-929.94782417543809</v>
+        <f t="shared" si="46"/>
+        <v>-1159.20847080416</v>
       </c>
       <c r="Y34" s="150">
-        <f t="shared" si="47"/>
-        <v>-936.92118946321636</v>
+        <f t="shared" si="46"/>
+        <v>-1167.9009844070299</v>
       </c>
       <c r="Z34" s="150">
-        <f t="shared" si="47"/>
-        <v>-944.42189707072498</v>
+        <f t="shared" si="46"/>
+        <v>-1177.2508463773599</v>
       </c>
       <c r="AA34" s="150">
-        <f t="shared" si="47"/>
-        <v>-952.04647628708233</v>
+        <f t="shared" si="46"/>
+        <v>-1186.75511810546</v>
       </c>
       <c r="AB34" s="257"/>
     </row>
-    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="99"/>
       <c r="D35" s="103"/>
       <c r="E35" s="226"/>
@@ -11611,7 +11608,7 @@
       <c r="AA35" s="184"/>
       <c r="AB35" s="257"/>
     </row>
-    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="99"/>
       <c r="D36" s="103"/>
       <c r="E36" s="226"/>
@@ -11639,7 +11636,7 @@
       <c r="AA36" s="184"/>
       <c r="AB36" s="257"/>
     </row>
-    <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="110" t="s">
         <v>185</v>
       </c>
@@ -11666,9 +11663,9 @@
       <c r="Z37" s="95"/>
       <c r="AB37" s="95"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D38" s="102"/>
       <c r="E38" s="104">
@@ -11713,40 +11710,40 @@
       <c r="Z38" s="95"/>
       <c r="AB38" s="95"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>179</v>
       </c>
       <c r="D39" s="102">
-        <f t="shared" ref="D39:K39" si="48">D12</f>
+        <f t="shared" ref="D39:K39" si="47">D12</f>
         <v>1862.4</v>
       </c>
       <c r="E39" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1779.8</v>
       </c>
       <c r="F39" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1840.7</v>
       </c>
       <c r="G39" s="149">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1877.9220586184899</v>
       </c>
       <c r="H39" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1909.0672334979899</v>
       </c>
       <c r="I39" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1939.4241549814799</v>
       </c>
       <c r="J39" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1971.8708645381</v>
       </c>
       <c r="K39" s="149">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1993.60282735131</v>
       </c>
       <c r="L39" s="104"/>
@@ -11763,7 +11760,7 @@
       <c r="Z39" s="95"/>
       <c r="AB39" s="95"/>
     </row>
-    <row r="40" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="99" t="s">
         <v>180</v>
       </c>
@@ -11774,23 +11771,23 @@
         <v>7.6999999999998181E-2</v>
       </c>
       <c r="G40" s="150">
-        <f t="shared" ref="G40:K40" si="49">G38-G39</f>
+        <f t="shared" ref="G40:K40" si="48">G38-G39</f>
         <v>7.8557069878570474E-2</v>
       </c>
       <c r="H40" s="226">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>7.9859932081717488E-2</v>
       </c>
       <c r="I40" s="226">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>8.112982013653891E-2</v>
       </c>
       <c r="J40" s="226">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>8.2487128032880719E-2</v>
       </c>
       <c r="K40" s="150">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>8.3396217589097432E-2</v>
       </c>
       <c r="L40" s="226">
@@ -11843,7 +11840,7 @@
       </c>
       <c r="AB40" s="257"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D41" s="102"/>
       <c r="E41" s="104"/>
       <c r="F41" s="104"/>
@@ -11866,7 +11863,7 @@
       <c r="Z41" s="95"/>
       <c r="AB41" s="95"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D42" s="102"/>
       <c r="E42" s="104"/>
       <c r="F42" s="104"/>
@@ -11889,7 +11886,7 @@
       <c r="Z42" s="95"/>
       <c r="AB42" s="95"/>
     </row>
-    <row r="43" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43" s="110" t="s">
         <v>184</v>
       </c>
@@ -11916,9 +11913,9 @@
       <c r="Z43" s="95"/>
       <c r="AB43" s="95"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D44" s="102"/>
       <c r="E44" s="104">
@@ -11963,40 +11960,40 @@
       <c r="Z44" s="95"/>
       <c r="AB44" s="95"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>179</v>
       </c>
       <c r="D45" s="102">
-        <f t="shared" ref="D45:K45" si="50">D13</f>
+        <f t="shared" ref="D45:K45" si="49">D13</f>
         <v>62.7</v>
       </c>
       <c r="E45" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>54.2</v>
       </c>
       <c r="F45" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>62.633333333333297</v>
       </c>
       <c r="G45" s="149">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>63.899884973907497</v>
       </c>
       <c r="H45" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>64.959659038096405</v>
       </c>
       <c r="I45" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>65.992611274880801</v>
       </c>
       <c r="J45" s="104">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>67.096672542458407</v>
       </c>
       <c r="K45" s="149">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>67.8361440863642</v>
       </c>
       <c r="L45" s="104"/>
@@ -12015,7 +12012,7 @@
       <c r="Z45" s="95"/>
       <c r="AB45" s="95"/>
     </row>
-    <row r="46" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="99" t="s">
         <v>180</v>
       </c>
@@ -12026,23 +12023,23 @@
         <v>-3.8866096997453567</v>
       </c>
       <c r="G46" s="150">
-        <f t="shared" ref="G46:K46" si="51">G44-G45</f>
+        <f t="shared" ref="G46:K46" si="50">G44-G45</f>
         <v>-3.9652035032282242</v>
       </c>
       <c r="H46" s="226">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-4.0309660602918527</v>
       </c>
       <c r="I46" s="226">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-4.09506423245044</v>
       </c>
       <c r="J46" s="226">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-4.1635749599387637</v>
       </c>
       <c r="K46" s="150">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-4.2094616647054508</v>
       </c>
       <c r="L46" s="226">
@@ -12095,7 +12092,7 @@
       </c>
       <c r="AB46" s="257"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D47" s="102"/>
       <c r="E47" s="104"/>
       <c r="F47" s="104"/>
@@ -12118,7 +12115,7 @@
       <c r="Z47" s="95"/>
       <c r="AB47" s="95"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D48" s="102"/>
       <c r="E48" s="104"/>
       <c r="F48" s="104"/>
@@ -12141,7 +12138,7 @@
       <c r="Z48" s="95"/>
       <c r="AB48" s="95"/>
     </row>
-    <row r="49" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="105" t="s">
         <v>190</v>
       </c>
@@ -12168,7 +12165,7 @@
       <c r="Z49" s="95"/>
       <c r="AB49" s="95"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>190</v>
       </c>
@@ -12202,176 +12199,176 @@
         <v>1462.4809121694693</v>
       </c>
       <c r="L50" s="104">
-        <f t="shared" ref="L50:AA50" si="52">K50*(1+L52)</f>
+        <f t="shared" ref="L50:AA50" si="51">K50*(1+L52)</f>
         <v>1498.7627817674497</v>
       </c>
       <c r="M50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1535.0446513654199</v>
       </c>
       <c r="N50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1571.3265209634003</v>
       </c>
       <c r="O50" s="149">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1575.7695550574567</v>
       </c>
       <c r="P50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1580.2125891515238</v>
       </c>
       <c r="Q50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1584.6556232455805</v>
       </c>
       <c r="R50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1589.0986573396369</v>
       </c>
       <c r="S50" s="149">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1601.199959345897</v>
       </c>
       <c r="T50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1613.3012613521466</v>
       </c>
       <c r="U50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1625.402563358407</v>
       </c>
       <c r="V50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1637.5038653646566</v>
       </c>
       <c r="W50" s="149">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1676.6116145715764</v>
       </c>
       <c r="X50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1715.7193637784853</v>
       </c>
       <c r="Y50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1754.8271129853945</v>
       </c>
       <c r="Z50" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1793.9348621923141</v>
       </c>
       <c r="AA50" s="149">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1823.1445314537391</v>
       </c>
       <c r="AB50" s="95"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>179</v>
       </c>
       <c r="D51" s="102">
-        <f t="shared" ref="D51:K51" si="53">D15</f>
+        <f t="shared" ref="D51:K51" si="52">D15</f>
         <v>1228.1289999999999</v>
       </c>
       <c r="E51" s="104">
+        <f t="shared" si="52"/>
+        <v>1336.74</v>
+      </c>
+      <c r="F51" s="104">
+        <f t="shared" si="52"/>
+        <v>1328.7719999999999</v>
+      </c>
+      <c r="G51" s="149">
+        <f t="shared" si="52"/>
+        <v>1334.5316252300399</v>
+      </c>
+      <c r="H51" s="104">
+        <f t="shared" si="52"/>
+        <v>1340.2912504600699</v>
+      </c>
+      <c r="I51" s="104">
+        <f t="shared" si="52"/>
+        <v>1346.0508756901099</v>
+      </c>
+      <c r="J51" s="233">
+        <f t="shared" si="52"/>
+        <v>1351.8105009201399</v>
+      </c>
+      <c r="K51" s="149">
+        <f t="shared" si="52"/>
+        <v>1386.19995908941</v>
+      </c>
+      <c r="L51" s="104">
+        <f t="shared" ref="L51:AA51" si="53">L15</f>
+        <v>1420.58941725868</v>
+      </c>
+      <c r="M51" s="104">
         <f t="shared" si="53"/>
-        <v>1336.74</v>
-      </c>
-      <c r="F51" s="104">
+        <v>1454.97887542794</v>
+      </c>
+      <c r="N51" s="104">
         <f t="shared" si="53"/>
-        <v>1328.7719999999999</v>
-      </c>
-      <c r="G51" s="149">
+        <v>1489.36833359721</v>
+      </c>
+      <c r="O51" s="149">
         <f t="shared" si="53"/>
-        <v>1334.5316252300399</v>
-      </c>
-      <c r="H51" s="104">
+        <v>1493.5796252647899</v>
+      </c>
+      <c r="P51" s="104">
         <f t="shared" si="53"/>
-        <v>1340.2912504600699</v>
-      </c>
-      <c r="I51" s="104">
+        <v>1497.79091693238</v>
+      </c>
+      <c r="Q51" s="104">
         <f t="shared" si="53"/>
-        <v>1346.0508756901099</v>
-      </c>
-      <c r="J51" s="233">
+        <v>1502.0022085999601</v>
+      </c>
+      <c r="R51" s="104">
         <f t="shared" si="53"/>
-        <v>1351.8105009201399</v>
-      </c>
-      <c r="K51" s="149">
+        <v>1506.21350026754</v>
+      </c>
+      <c r="S51" s="149">
         <f t="shared" si="53"/>
-        <v>1386.19995908941</v>
-      </c>
-      <c r="L51" s="104">
-        <f t="shared" ref="L51:AA51" si="54">L15</f>
-        <v>1420.58941725868</v>
-      </c>
-      <c r="M51" s="104">
-        <f t="shared" si="54"/>
-        <v>1454.97887542794</v>
-      </c>
-      <c r="N51" s="104">
-        <f t="shared" si="54"/>
-        <v>1489.36833359721</v>
-      </c>
-      <c r="O51" s="149">
-        <f t="shared" si="54"/>
-        <v>1493.5796252647899</v>
-      </c>
-      <c r="P51" s="104">
-        <f t="shared" si="54"/>
-        <v>1497.79091693238</v>
-      </c>
-      <c r="Q51" s="104">
-        <f t="shared" si="54"/>
-        <v>1502.0022085999601</v>
-      </c>
-      <c r="R51" s="104">
-        <f t="shared" si="54"/>
-        <v>1506.21350026754</v>
-      </c>
-      <c r="S51" s="149">
-        <f t="shared" si="54"/>
         <v>1517.6836153346301</v>
       </c>
       <c r="T51" s="104">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1529.1537304017099</v>
       </c>
       <c r="U51" s="104">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1540.6238454688</v>
       </c>
       <c r="V51" s="104">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1552.0939605358799</v>
       </c>
       <c r="W51" s="149">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1589.1619043973101</v>
       </c>
       <c r="X51" s="104">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1626.22984825873</v>
       </c>
       <c r="Y51" s="104">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1663.29779212015</v>
       </c>
       <c r="Z51" s="104">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1700.36573598158</v>
       </c>
       <c r="AA51" s="149">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1728.05186986427</v>
       </c>
       <c r="AB51" s="95"/>
     </row>
-    <row r="52" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B52" s="214" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D52" s="240"/>
       <c r="E52" s="255"/>
@@ -12381,172 +12378,172 @@
       <c r="I52" s="255"/>
       <c r="J52" s="255"/>
       <c r="K52" s="259">
-        <f t="shared" ref="K52" si="55">(K51/J51)-1</f>
+        <f t="shared" ref="K52" si="54">(K51/J51)-1</f>
         <v>2.5439555430189387E-2</v>
       </c>
       <c r="L52" s="242">
-        <f t="shared" ref="L52" si="56">(L51/K51)-1</f>
+        <f t="shared" ref="L52" si="55">(L51/K51)-1</f>
         <v>2.4808439751982325E-2</v>
       </c>
       <c r="M52" s="242">
-        <f t="shared" ref="M52" si="57">(M51/L51)-1</f>
+        <f t="shared" ref="M52" si="56">(M51/L51)-1</f>
         <v>2.4207880019000649E-2</v>
       </c>
       <c r="N52" s="242">
-        <f t="shared" ref="N52" si="58">(N51/M51)-1</f>
+        <f t="shared" ref="N52" si="57">(N51/M51)-1</f>
         <v>2.3635709596921295E-2</v>
       </c>
       <c r="O52" s="259">
-        <f t="shared" ref="O52" si="59">(O51/N51)-1</f>
+        <f t="shared" ref="O52" si="58">(O51/N51)-1</f>
         <v>2.8275689583170394E-3</v>
       </c>
       <c r="P52" s="242">
-        <f t="shared" ref="P52" si="60">(P51/O51)-1</f>
+        <f t="shared" ref="P52" si="59">(P51/O51)-1</f>
         <v>2.8195963551949088E-3</v>
       </c>
       <c r="Q52" s="242">
-        <f t="shared" ref="Q52" si="61">(Q51/P51)-1</f>
+        <f t="shared" ref="Q52" si="60">(Q51/P51)-1</f>
         <v>2.8116685846948375E-3</v>
       </c>
       <c r="R52" s="242">
-        <f t="shared" ref="R52" si="62">(R51/Q51)-1</f>
+        <f t="shared" ref="R52" si="61">(R51/Q51)-1</f>
         <v>2.8037852697335719E-3</v>
       </c>
       <c r="S52" s="259">
-        <f t="shared" ref="S52" si="63">(S51/R51)-1</f>
+        <f t="shared" ref="S52" si="62">(S51/R51)-1</f>
         <v>7.6151986853474352E-3</v>
       </c>
       <c r="T52" s="242">
-        <f t="shared" ref="T52" si="64">(T51/S51)-1</f>
+        <f t="shared" ref="T52" si="63">(T51/S51)-1</f>
         <v>7.5576457116530715E-3</v>
       </c>
       <c r="U52" s="242">
-        <f t="shared" ref="U52" si="65">(U51/T51)-1</f>
+        <f t="shared" ref="U52" si="64">(U51/T51)-1</f>
         <v>7.500956142635129E-3</v>
       </c>
       <c r="V52" s="242">
-        <f t="shared" ref="V52" si="66">(V51/U51)-1</f>
+        <f t="shared" ref="V52" si="65">(V51/U51)-1</f>
         <v>7.4451106938369094E-3</v>
       </c>
       <c r="W52" s="259">
-        <f t="shared" ref="W52" si="67">(W51/V51)-1</f>
+        <f t="shared" ref="W52" si="66">(W51/V51)-1</f>
         <v>2.3882538560121791E-2</v>
       </c>
       <c r="X52" s="242">
-        <f t="shared" ref="X52" si="68">(X51/W51)-1</f>
+        <f t="shared" ref="X52" si="67">(X51/W51)-1</f>
         <v>2.3325467190504989E-2</v>
       </c>
       <c r="Y52" s="242">
-        <f t="shared" ref="Y52" si="69">(Y51/X51)-1</f>
+        <f t="shared" ref="Y52" si="68">(Y51/X51)-1</f>
         <v>2.2793791358036053E-2</v>
       </c>
       <c r="Z52" s="242">
-        <f t="shared" ref="Z52" si="70">(Z51/Y51)-1</f>
+        <f t="shared" ref="Z52" si="69">(Z51/Y51)-1</f>
         <v>2.2285813182124636E-2</v>
       </c>
       <c r="AA52" s="259">
-        <f t="shared" ref="AA52" si="71">(AA51/Z51)-1</f>
+        <f t="shared" ref="AA52" si="70">(AA51/Z51)-1</f>
         <v>1.6282458118757281E-2</v>
       </c>
       <c r="AB52" s="256"/>
     </row>
-    <row r="53" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="99" t="s">
         <v>180</v>
       </c>
       <c r="D53" s="103"/>
       <c r="E53" s="226"/>
       <c r="F53" s="226">
-        <f t="shared" ref="F53" si="72">F50-F51</f>
+        <f t="shared" ref="F53" si="71">F50-F51</f>
         <v>3.3000000000129148E-2</v>
       </c>
       <c r="G53" s="150">
-        <f t="shared" ref="G53" si="73">G50-G51</f>
+        <f t="shared" ref="G53" si="72">G50-G51</f>
         <v>45.096857065685981</v>
       </c>
       <c r="H53" s="226">
-        <f t="shared" ref="H53" si="74">H50-H51</f>
+        <f t="shared" ref="H53" si="73">H50-H51</f>
         <v>59.279892038303615</v>
       </c>
       <c r="I53" s="226">
-        <f t="shared" ref="I53" si="75">I50-I51</f>
+        <f t="shared" ref="I53" si="74">I50-I51</f>
         <v>69.44417195254664</v>
       </c>
       <c r="J53" s="252">
-        <f t="shared" ref="J53" si="76">J50-J51</f>
+        <f t="shared" ref="J53" si="75">J50-J51</f>
         <v>74.388541651348987</v>
       </c>
       <c r="K53" s="150">
-        <f t="shared" ref="K53:AA53" si="77">K50-K51</f>
+        <f t="shared" ref="K53:AA53" si="76">K50-K51</f>
         <v>76.280953080059362</v>
       </c>
       <c r="L53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>78.173364508769737</v>
       </c>
       <c r="M53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>80.065775937479884</v>
       </c>
       <c r="N53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>81.958187366190259</v>
       </c>
       <c r="O53" s="150">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>82.189929792666817</v>
       </c>
       <c r="P53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>82.421672219143829</v>
       </c>
       <c r="Q53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>82.653414645620387</v>
       </c>
       <c r="R53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>82.885157072096945</v>
       </c>
       <c r="S53" s="150">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>83.516344011266938</v>
       </c>
       <c r="T53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>84.147530950436703</v>
       </c>
       <c r="U53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>84.778717889606924</v>
       </c>
       <c r="V53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>85.409904828776689</v>
       </c>
       <c r="W53" s="150">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>87.449710174266329</v>
       </c>
       <c r="X53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>89.489515519755287</v>
       </c>
       <c r="Y53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>91.529320865244472</v>
       </c>
       <c r="Z53" s="226">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>93.569126210734112</v>
       </c>
       <c r="AA53" s="150">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>95.092661589469117</v>
       </c>
       <c r="AB53" s="257"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D54" s="102"/>
       <c r="E54" s="104"/>
       <c r="F54" s="104"/>
@@ -12569,7 +12566,7 @@
       <c r="Z54" s="95"/>
       <c r="AB54" s="95"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D55" s="102"/>
       <c r="E55" s="104"/>
       <c r="F55" s="104"/>
@@ -12592,7 +12589,7 @@
       <c r="Z55" s="95"/>
       <c r="AB55" s="95"/>
     </row>
-    <row r="56" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A56" s="105" t="s">
         <v>191</v>
       </c>
@@ -12619,7 +12616,7 @@
       <c r="Z56" s="95"/>
       <c r="AB56" s="95"/>
     </row>
-    <row r="57" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B57" s="86" t="s">
         <v>191</v>
       </c>
@@ -12660,266 +12657,266 @@
         <v>1691.3332656079128</v>
       </c>
       <c r="M57" s="104">
-        <f t="shared" ref="M57:AA57" si="78">L57*M58/L58</f>
+        <f t="shared" ref="M57:AA57" si="77">L57*M58/L58</f>
         <v>1679.1397689725668</v>
       </c>
       <c r="N57" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1639.1387815375706</v>
       </c>
       <c r="O57" s="149">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1638.4638486912852</v>
       </c>
       <c r="P57" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1638.9497856203566</v>
       </c>
       <c r="Q57" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1640.2296403758021</v>
       </c>
       <c r="R57" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1643.7842308160052</v>
       </c>
       <c r="S57" s="149">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1661.6631681923609</v>
       </c>
       <c r="T57" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1678.7784116664563</v>
       </c>
       <c r="U57" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1692.3328460316582</v>
       </c>
       <c r="V57" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1703.70461363354</v>
       </c>
       <c r="W57" s="149">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1741.1898300711741</v>
       </c>
       <c r="X57" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1771.4905860751503</v>
       </c>
       <c r="Y57" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1795.4268791817581</v>
       </c>
       <c r="Z57" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1812.313801133377</v>
       </c>
       <c r="AA57" s="149">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1820.2446006078096</v>
       </c>
       <c r="AB57" s="95"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>179</v>
       </c>
       <c r="D58" s="102">
-        <f t="shared" ref="D58:K58" si="79">D16</f>
+        <f t="shared" ref="D58:K58" si="78">D16</f>
         <v>1574.779</v>
       </c>
       <c r="E58" s="104">
+        <f t="shared" si="78"/>
+        <v>3697.6559999999999</v>
+      </c>
+      <c r="F58" s="104">
+        <f t="shared" si="78"/>
+        <v>1936.7829999999999</v>
+      </c>
+      <c r="G58" s="149">
+        <f t="shared" si="78"/>
+        <v>1672.7966214901101</v>
+      </c>
+      <c r="H58" s="104">
+        <f t="shared" si="78"/>
+        <v>1465.5104337387199</v>
+      </c>
+      <c r="I58" s="104">
+        <f t="shared" si="78"/>
+        <v>1299.0451766609799</v>
+      </c>
+      <c r="J58" s="104">
+        <f t="shared" si="78"/>
+        <v>1183.6501317488301</v>
+      </c>
+      <c r="K58" s="149">
+        <f t="shared" si="78"/>
+        <v>1212.0640991453099</v>
+      </c>
+      <c r="L58" s="104">
+        <f t="shared" ref="L58:AA58" si="79">L16</f>
+        <v>1217.7439353608499</v>
+      </c>
+      <c r="M58" s="104">
         <f t="shared" si="79"/>
-        <v>3697.6559999999999</v>
-      </c>
-      <c r="F58" s="104">
+        <v>1208.96473324825</v>
+      </c>
+      <c r="N58" s="104">
         <f t="shared" si="79"/>
-        <v>1936.7829999999999</v>
-      </c>
-      <c r="G58" s="149">
+        <v>1180.1644010795901</v>
+      </c>
+      <c r="O58" s="149">
         <f t="shared" si="79"/>
-        <v>1672.7966214901101</v>
-      </c>
-      <c r="H58" s="104">
+        <v>1179.6784558214599</v>
+      </c>
+      <c r="P58" s="104">
         <f t="shared" si="79"/>
-        <v>1465.5104337387199</v>
-      </c>
-      <c r="I58" s="104">
+        <v>1180.02832580887</v>
+      </c>
+      <c r="Q58" s="104">
         <f t="shared" si="79"/>
-        <v>1299.0451766609799</v>
-      </c>
-      <c r="J58" s="104">
+        <v>1180.9498091133601</v>
+      </c>
+      <c r="R58" s="104">
         <f t="shared" si="79"/>
-        <v>1183.6501317488301</v>
-      </c>
-      <c r="K58" s="149">
+        <v>1183.5090805705399</v>
+      </c>
+      <c r="S58" s="149">
         <f t="shared" si="79"/>
-        <v>1212.0640991453099</v>
-      </c>
-      <c r="L58" s="104">
-        <f t="shared" ref="L58:AA58" si="80">L16</f>
-        <v>1217.7439353608499</v>
-      </c>
-      <c r="M58" s="104">
-        <f t="shared" si="80"/>
-        <v>1208.96473324825</v>
-      </c>
-      <c r="N58" s="104">
-        <f t="shared" si="80"/>
-        <v>1180.1644010795901</v>
-      </c>
-      <c r="O58" s="149">
-        <f t="shared" si="80"/>
-        <v>1179.6784558214599</v>
-      </c>
-      <c r="P58" s="104">
-        <f t="shared" si="80"/>
-        <v>1180.02832580887</v>
-      </c>
-      <c r="Q58" s="104">
-        <f t="shared" si="80"/>
-        <v>1180.9498091133601</v>
-      </c>
-      <c r="R58" s="104">
-        <f t="shared" si="80"/>
-        <v>1183.5090805705399</v>
-      </c>
-      <c r="S58" s="149">
-        <f t="shared" si="80"/>
         <v>1196.38174617907</v>
       </c>
       <c r="T58" s="104">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1208.7045594096801</v>
       </c>
       <c r="U58" s="104">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1218.4636238005401</v>
       </c>
       <c r="V58" s="104">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1226.65118879031</v>
       </c>
       <c r="W58" s="149">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1253.6401896636601</v>
       </c>
       <c r="X58" s="104">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1275.4564470571599</v>
       </c>
       <c r="Y58" s="104">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1292.69035143207</v>
       </c>
       <c r="Z58" s="104">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1304.8487753285599</v>
       </c>
       <c r="AA58" s="149">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1310.5588758504</v>
       </c>
       <c r="AB58" s="95"/>
     </row>
-    <row r="59" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="99" t="s">
         <v>180</v>
       </c>
       <c r="D59" s="103"/>
       <c r="E59" s="226"/>
       <c r="F59" s="226">
-        <f t="shared" ref="F59" si="81">F57-F58</f>
+        <f t="shared" ref="F59" si="80">F57-F58</f>
         <v>594.75700000000006</v>
       </c>
       <c r="G59" s="150">
-        <f t="shared" ref="G59" si="82">G57-G58</f>
+        <f t="shared" ref="G59" si="81">G57-G58</f>
         <v>318.14292016330819</v>
       </c>
       <c r="H59" s="226">
-        <f t="shared" ref="H59" si="83">H57-H58</f>
+        <f t="shared" ref="H59" si="82">H57-H58</f>
         <v>446.59185155977002</v>
       </c>
       <c r="I59" s="226">
-        <f t="shared" ref="I59" si="84">I57-I58</f>
+        <f t="shared" ref="I59" si="83">I57-I58</f>
         <v>524.1640779158954</v>
       </c>
       <c r="J59" s="226">
-        <f t="shared" ref="J59" si="85">J57-J58</f>
+        <f t="shared" ref="J59" si="84">J57-J58</f>
         <v>503.13755341871888</v>
       </c>
       <c r="K59" s="150">
-        <f t="shared" ref="K59" si="86">K57-K58</f>
+        <f t="shared" ref="K59" si="85">K57-K58</f>
         <v>471.38040129975207</v>
       </c>
       <c r="L59" s="226">
-        <f t="shared" ref="L59:AA59" si="87">L57-L58</f>
+        <f t="shared" ref="L59:AA59" si="86">L57-L58</f>
         <v>473.58933024706289</v>
       </c>
       <c r="M59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>470.17503572431679</v>
       </c>
       <c r="N59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>458.97438045798049</v>
       </c>
       <c r="O59" s="150">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>458.78539286982527</v>
       </c>
       <c r="P59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>458.92145981148656</v>
       </c>
       <c r="Q59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>459.27983126244203</v>
       </c>
       <c r="R59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>460.27515024546528</v>
       </c>
       <c r="S59" s="150">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>465.28142201329092</v>
       </c>
       <c r="T59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>470.07385225677626</v>
       </c>
       <c r="U59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>473.8692222311181</v>
       </c>
       <c r="V59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>477.05342484323</v>
       </c>
       <c r="W59" s="150">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>487.54964040751406</v>
       </c>
       <c r="X59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>496.03413901799036</v>
       </c>
       <c r="Y59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>502.73652774968809</v>
       </c>
       <c r="Z59" s="226">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>507.46502580481706</v>
       </c>
       <c r="AA59" s="150">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>509.68572475740962</v>
       </c>
       <c r="AB59" s="257"/>
     </row>
-    <row r="60" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="99"/>
       <c r="D60" s="103"/>
       <c r="E60" s="226"/>
@@ -12947,7 +12944,7 @@
       <c r="AA60" s="184"/>
       <c r="AB60" s="257"/>
     </row>
-    <row r="61" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="99"/>
       <c r="D61" s="103"/>
       <c r="E61" s="226"/>
@@ -12975,7 +12972,7 @@
       <c r="AA61" s="184"/>
       <c r="AB61" s="257"/>
     </row>
-    <row r="62" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="105" t="s">
         <v>192</v>
       </c>
@@ -13002,7 +12999,7 @@
       <c r="Z62" s="95"/>
       <c r="AB62" s="95"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>213</v>
       </c>
@@ -13056,156 +13053,156 @@
         <v>76.163711052139888</v>
       </c>
       <c r="Q63" s="243">
-        <f t="shared" ref="Q63:AA63" si="88">P63*(1+Q65)</f>
+        <f t="shared" ref="Q63:AA63" si="87">P63*(1+Q65)</f>
         <v>76.50542943110527</v>
       </c>
       <c r="R63" s="243">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>76.852083742211136</v>
       </c>
       <c r="S63" s="260">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>77.203673985458053</v>
       </c>
       <c r="T63" s="243">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>77.559061099581498</v>
       </c>
       <c r="U63" s="243">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>77.915207587881099</v>
       </c>
       <c r="V63" s="243">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>78.273252511618978</v>
       </c>
       <c r="W63" s="260">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>78.633195870796328</v>
       </c>
       <c r="X63" s="243">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>78.993898604148015</v>
       </c>
       <c r="Y63" s="243">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>79.352702902062035</v>
       </c>
       <c r="Z63" s="243">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>79.71188688706323</v>
       </c>
       <c r="AA63" s="260">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>80.071070872064439</v>
       </c>
       <c r="AB63" s="95"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>179</v>
       </c>
       <c r="D64" s="102">
-        <f t="shared" ref="D64:AA64" si="89">D19</f>
+        <f t="shared" ref="D64:AA64" si="88">D19</f>
         <v>74.5</v>
       </c>
       <c r="E64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1085.9000000000001</v>
       </c>
       <c r="F64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1211.7</v>
       </c>
       <c r="G64" s="149">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1215.66820949049</v>
       </c>
       <c r="H64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1219.78734929441</v>
       </c>
       <c r="I64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1224.19577219907</v>
       </c>
       <c r="J64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1228.9563658350501</v>
       </c>
       <c r="K64" s="149">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1234.08799649154</v>
       </c>
       <c r="L64" s="233">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1239.41457880287</v>
       </c>
       <c r="M64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1244.82920379703</v>
       </c>
       <c r="N64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1250.31300518484</v>
       </c>
       <c r="O64" s="149">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1255.86598296631</v>
       </c>
       <c r="P64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1261.50071466755</v>
       </c>
       <c r="Q64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1267.1606014210299</v>
       </c>
       <c r="R64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1272.9022420942799</v>
       </c>
       <c r="S64" s="149">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1278.72563668731</v>
       </c>
       <c r="T64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1284.6119189109199</v>
       </c>
       <c r="U64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1290.51077866066</v>
       </c>
       <c r="V64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1296.44108222569</v>
       </c>
       <c r="W64" s="149">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1302.4028296060301</v>
       </c>
       <c r="X64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1308.37715451247</v>
       </c>
       <c r="Y64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1314.32003560363</v>
       </c>
       <c r="Z64" s="104">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1320.2692054578399</v>
       </c>
       <c r="AA64" s="149">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1326.2183753120501</v>
       </c>
       <c r="AB64" s="95"/>
     </row>
-    <row r="65" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B65" s="214" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D65" s="240"/>
       <c r="E65" s="255"/>
@@ -13217,68 +13214,68 @@
       <c r="K65" s="241"/>
       <c r="L65" s="242"/>
       <c r="M65" s="242">
-        <f t="shared" ref="M65:AA65" si="90">(M64/L64)-1</f>
+        <f t="shared" ref="M65:AA65" si="89">(M64/L64)-1</f>
         <v>4.3686955815784856E-3</v>
       </c>
       <c r="N65" s="242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.4052640885055006E-3</v>
       </c>
       <c r="O65" s="259">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.4412701127178877E-3</v>
       </c>
       <c r="P65" s="242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.4867300951421107E-3</v>
       </c>
       <c r="Q65" s="242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.4866298430685791E-3</v>
       </c>
       <c r="R65" s="242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.5311073172660254E-3</v>
       </c>
       <c r="S65" s="259">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.574895385091704E-3</v>
       </c>
       <c r="T65" s="242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.6032409570351263E-3</v>
       </c>
       <c r="U65" s="242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.5919391396749276E-3</v>
       </c>
       <c r="V65" s="242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.5953150202935333E-3</v>
       </c>
       <c r="W65" s="259">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.5985486437263301E-3</v>
       </c>
       <c r="X65" s="242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.5871559632952863E-3</v>
       </c>
       <c r="Y65" s="242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.5421773612168703E-3</v>
       </c>
       <c r="Z65" s="242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.5264240771294428E-3</v>
       </c>
       <c r="AA65" s="259">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>4.5060278840232115E-3</v>
       </c>
       <c r="AB65" s="256"/>
     </row>
-    <row r="66" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="99" t="s">
         <v>180</v>
       </c>
@@ -13289,87 +13286,87 @@
         <v>0.64599999999995816</v>
       </c>
       <c r="G66" s="150">
-        <f t="shared" ref="G66:AA66" si="91">G63-G64</f>
+        <f t="shared" ref="G66:AA66" si="90">G63-G64</f>
         <v>-832.73620114390815</v>
       </c>
       <c r="H66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1119.5370992944099</v>
       </c>
       <c r="I66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1123.94552219907</v>
       </c>
       <c r="J66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1128.70611583505</v>
       </c>
       <c r="K66" s="150">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1133.83774649154</v>
       </c>
       <c r="L66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1164.58432880287</v>
       </c>
       <c r="M66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1169.6720432144866</v>
       </c>
       <c r="N66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1174.8247574617883</v>
       </c>
       <c r="O66" s="150">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1180.0424715447843</v>
       </c>
       <c r="P66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1185.3370036154101</v>
       </c>
       <c r="Q66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1190.6551719899246</v>
       </c>
       <c r="R66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1196.0501583520688</v>
       </c>
       <c r="S66" s="150">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1201.5219627018521</v>
       </c>
       <c r="T66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1207.0528578113385</v>
       </c>
       <c r="U66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1212.595571072779</v>
       </c>
       <c r="V66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1218.1678297140711</v>
       </c>
       <c r="W66" s="150">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1223.7696337352338</v>
       </c>
       <c r="X66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1229.3832559083221</v>
       </c>
       <c r="Y66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1234.967332701568</v>
       </c>
       <c r="Z66" s="226">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1240.5573185707767</v>
       </c>
       <c r="AA66" s="150">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>-1246.1473044399856</v>
       </c>
       <c r="AB66" s="226"/>
@@ -13378,7 +13375,7 @@
       <c r="AE66" s="150"/>
       <c r="AF66" s="150"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D67" s="102"/>
       <c r="E67" s="104"/>
       <c r="F67" s="104"/>
@@ -13401,7 +13398,7 @@
       <c r="Z67" s="95"/>
       <c r="AB67" s="95"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D68" s="102"/>
       <c r="E68" s="104"/>
       <c r="F68" s="104"/>
@@ -13424,7 +13421,7 @@
       <c r="Z68" s="95"/>
       <c r="AB68" s="95"/>
     </row>
-    <row r="69" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A69" s="105" t="s">
         <v>198</v>
       </c>
@@ -13451,7 +13448,7 @@
       <c r="Z69" s="95"/>
       <c r="AB69" s="95"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>210</v>
       </c>
@@ -13509,152 +13506,152 @@
         <v>266.84554035043868</v>
       </c>
       <c r="R70" s="261">
-        <f t="shared" ref="R70:AA70" si="92">Q70*(1+R72)</f>
+        <f t="shared" ref="R70:AA70" si="91">Q70*(1+R72)</f>
         <v>279.86369412126004</v>
       </c>
       <c r="S70" s="262">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>281.7269716982471</v>
       </c>
       <c r="T70" s="261">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>283.66604178001614</v>
       </c>
       <c r="U70" s="261">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>285.64989666947559</v>
       </c>
       <c r="V70" s="261">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>287.69056277877843</v>
       </c>
       <c r="W70" s="262">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>288.25036038684794</v>
       </c>
       <c r="X70" s="261">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>289.5388549275047</v>
       </c>
       <c r="Y70" s="261">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>290.16440875152392</v>
       </c>
       <c r="Z70" s="261">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>290.83125325773699</v>
       </c>
       <c r="AA70" s="262">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>291.23889600882188</v>
       </c>
       <c r="AB70" s="95"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>179</v>
       </c>
       <c r="D71" s="102">
-        <f t="shared" ref="D71:O71" si="93">D20</f>
+        <f t="shared" ref="D71:O71" si="92">D20</f>
         <v>204.37100000000001</v>
       </c>
       <c r="E71" s="104">
+        <f t="shared" si="92"/>
+        <v>884.26</v>
+      </c>
+      <c r="F71" s="104">
+        <f t="shared" si="92"/>
+        <v>241.428</v>
+      </c>
+      <c r="G71" s="149">
+        <f t="shared" si="92"/>
+        <v>228.42538380464799</v>
+      </c>
+      <c r="H71" s="104">
+        <f t="shared" si="92"/>
+        <v>212.81817966260101</v>
+      </c>
+      <c r="I71" s="104">
+        <f t="shared" si="92"/>
+        <v>197.64507351167001</v>
+      </c>
+      <c r="J71" s="104">
+        <f t="shared" si="92"/>
+        <v>183.050764682226</v>
+      </c>
+      <c r="K71" s="149">
+        <f t="shared" si="92"/>
+        <v>194.33260834913199</v>
+      </c>
+      <c r="L71" s="104">
+        <f t="shared" si="92"/>
+        <v>206.40744830671201</v>
+      </c>
+      <c r="M71" s="104">
+        <f t="shared" si="92"/>
+        <v>218.56402183082099</v>
+      </c>
+      <c r="N71" s="104">
+        <f t="shared" si="92"/>
+        <v>231.450162767232</v>
+      </c>
+      <c r="O71" s="149">
+        <f t="shared" si="92"/>
+        <v>243.697218746837</v>
+      </c>
+      <c r="P71" s="233">
+        <f t="shared" ref="P71:AA71" si="93">P20</f>
+        <v>256.68855568447401</v>
+      </c>
+      <c r="Q71" s="243">
         <f t="shared" si="93"/>
-        <v>884.26</v>
-      </c>
-      <c r="F71" s="104">
+        <v>269.06365627500099</v>
+      </c>
+      <c r="R71" s="243">
         <f t="shared" si="93"/>
-        <v>241.428</v>
-      </c>
-      <c r="G71" s="149">
+        <v>282.19002161326898</v>
+      </c>
+      <c r="S71" s="260">
         <f t="shared" si="93"/>
-        <v>228.42538380464799</v>
-      </c>
-      <c r="H71" s="104">
+        <v>284.06878742236199</v>
+      </c>
+      <c r="T71" s="243">
         <f t="shared" si="93"/>
-        <v>212.81817966260101</v>
-      </c>
-      <c r="I71" s="104">
+        <v>286.02397575074502</v>
+      </c>
+      <c r="U71" s="243">
         <f t="shared" si="93"/>
-        <v>197.64507351167001</v>
-      </c>
-      <c r="J71" s="104">
+        <v>288.02432115421698</v>
+      </c>
+      <c r="V71" s="243">
         <f t="shared" si="93"/>
-        <v>183.050764682226</v>
-      </c>
-      <c r="K71" s="149">
+        <v>290.08195001278602</v>
+      </c>
+      <c r="W71" s="260">
         <f t="shared" si="93"/>
-        <v>194.33260834913199</v>
-      </c>
-      <c r="L71" s="104">
+        <v>290.64640085953198</v>
+      </c>
+      <c r="X71" s="243">
         <f t="shared" si="93"/>
-        <v>206.40744830671201</v>
-      </c>
-      <c r="M71" s="104">
+        <v>291.94560582935901</v>
+      </c>
+      <c r="Y71" s="243">
         <f t="shared" si="93"/>
-        <v>218.56402183082099</v>
-      </c>
-      <c r="N71" s="104">
+        <v>292.57635948132702</v>
+      </c>
+      <c r="Z71" s="243">
         <f t="shared" si="93"/>
-        <v>231.450162767232</v>
-      </c>
-      <c r="O71" s="149">
+        <v>293.248747038462</v>
+      </c>
+      <c r="AA71" s="260">
         <f t="shared" si="93"/>
-        <v>243.697218746837</v>
-      </c>
-      <c r="P71" s="233">
-        <f t="shared" ref="P71:AA71" si="94">P20</f>
-        <v>256.68855568447401</v>
-      </c>
-      <c r="Q71" s="243">
-        <f t="shared" si="94"/>
-        <v>269.06365627500099</v>
-      </c>
-      <c r="R71" s="243">
-        <f t="shared" si="94"/>
-        <v>282.19002161326898</v>
-      </c>
-      <c r="S71" s="260">
-        <f t="shared" si="94"/>
-        <v>284.06878742236199</v>
-      </c>
-      <c r="T71" s="243">
-        <f t="shared" si="94"/>
-        <v>286.02397575074502</v>
-      </c>
-      <c r="U71" s="243">
-        <f t="shared" si="94"/>
-        <v>288.02432115421698</v>
-      </c>
-      <c r="V71" s="243">
-        <f t="shared" si="94"/>
-        <v>290.08195001278602</v>
-      </c>
-      <c r="W71" s="260">
-        <f t="shared" si="94"/>
-        <v>290.64640085953198</v>
-      </c>
-      <c r="X71" s="243">
-        <f t="shared" si="94"/>
-        <v>291.94560582935901</v>
-      </c>
-      <c r="Y71" s="243">
-        <f t="shared" si="94"/>
-        <v>292.57635948132702</v>
-      </c>
-      <c r="Z71" s="243">
-        <f t="shared" si="94"/>
-        <v>293.248747038462</v>
-      </c>
-      <c r="AA71" s="260">
-        <f t="shared" si="94"/>
         <v>293.65977826243102</v>
       </c>
       <c r="AB71" s="95"/>
     </row>
-    <row r="72" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B72" s="214" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D72" s="240"/>
       <c r="E72" s="255"/>
@@ -13670,52 +13667,52 @@
       <c r="O72" s="259"/>
       <c r="P72" s="242"/>
       <c r="Q72" s="242">
-        <f t="shared" ref="Q72" si="95">(Q71/P71)-1</f>
+        <f t="shared" ref="Q72" si="94">(Q71/P71)-1</f>
         <v>4.8210566137349309E-2</v>
       </c>
       <c r="R72" s="242">
-        <f t="shared" ref="R72" si="96">(R71/Q71)-1</f>
+        <f t="shared" ref="R72" si="95">(R71/Q71)-1</f>
         <v>4.8785352581591113E-2</v>
       </c>
       <c r="S72" s="259">
-        <f t="shared" ref="S72" si="97">(S71/R71)-1</f>
+        <f t="shared" ref="S72" si="96">(S71/R71)-1</f>
         <v>6.6578038385347593E-3</v>
       </c>
       <c r="T72" s="242">
-        <f t="shared" ref="T72" si="98">(T71/S71)-1</f>
+        <f t="shared" ref="T72" si="97">(T71/S71)-1</f>
         <v>6.8827988675714824E-3</v>
       </c>
       <c r="U72" s="242">
-        <f t="shared" ref="U72" si="99">(U71/T71)-1</f>
+        <f t="shared" ref="U72" si="98">(U71/T71)-1</f>
         <v>6.9936284125187154E-3</v>
       </c>
       <c r="V72" s="242">
-        <f t="shared" ref="V72" si="100">(V71/U71)-1</f>
+        <f t="shared" ref="V72" si="99">(V71/U71)-1</f>
         <v>7.143941353019656E-3</v>
       </c>
       <c r="W72" s="259">
-        <f t="shared" ref="W72" si="101">(W71/V71)-1</f>
+        <f t="shared" ref="W72" si="100">(W71/V71)-1</f>
         <v>1.9458323646854847E-3</v>
       </c>
       <c r="X72" s="242">
-        <f t="shared" ref="X72" si="102">(X71/W71)-1</f>
+        <f t="shared" ref="X72" si="101">(X71/W71)-1</f>
         <v>4.4700535289097232E-3</v>
       </c>
       <c r="Y72" s="242">
-        <f t="shared" ref="Y72" si="103">(Y71/X71)-1</f>
+        <f t="shared" ref="Y72" si="102">(Y71/X71)-1</f>
         <v>2.160517710743326E-3</v>
       </c>
       <c r="Z72" s="242">
-        <f t="shared" ref="Z72" si="104">(Z71/Y71)-1</f>
+        <f t="shared" ref="Z72" si="103">(Z71/Y71)-1</f>
         <v>2.2981609256707003E-3</v>
       </c>
       <c r="AA72" s="259">
-        <f t="shared" ref="AA72" si="105">(AA71/Z71)-1</f>
+        <f t="shared" ref="AA72" si="104">(AA71/Z71)-1</f>
         <v>1.4016469912319085E-3</v>
       </c>
       <c r="AB72" s="256"/>
     </row>
-    <row r="73" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="99" t="s">
         <v>180</v>
       </c>
@@ -13726,92 +13723,92 @@
         <v>45.496807283359942</v>
       </c>
       <c r="G73" s="150">
-        <f t="shared" ref="G73:K73" si="106">G70-G71</f>
+        <f t="shared" ref="G73:K73" si="105">G70-G71</f>
         <v>69.947500972419334</v>
       </c>
       <c r="H73" s="226">
+        <f t="shared" si="105"/>
+        <v>69.322815785041911</v>
+      </c>
+      <c r="I73" s="226">
+        <f t="shared" si="105"/>
+        <v>57.377360410402474</v>
+      </c>
+      <c r="J73" s="226">
+        <f t="shared" si="105"/>
+        <v>73.004211452751491</v>
+      </c>
+      <c r="K73" s="150">
+        <f t="shared" si="105"/>
+        <v>57.211771344119057</v>
+      </c>
+      <c r="L73" s="226">
+        <f t="shared" ref="L73:N73" si="106">L70-L71</f>
+        <v>40.833358543003243</v>
+      </c>
+      <c r="M73" s="226">
         <f t="shared" si="106"/>
-        <v>69.322815785041911</v>
-      </c>
-      <c r="I73" s="226">
+        <v>30.39454995112672</v>
+      </c>
+      <c r="N73" s="226">
         <f t="shared" si="106"/>
-        <v>57.377360410402474</v>
-      </c>
-      <c r="J73" s="226">
-        <f t="shared" si="106"/>
-        <v>73.004211452751491</v>
-      </c>
-      <c r="K73" s="150">
-        <f t="shared" si="106"/>
-        <v>57.211771344119057</v>
-      </c>
-      <c r="L73" s="226">
-        <f t="shared" ref="L73:N73" si="107">L70-L71</f>
-        <v>40.833358543003243</v>
-      </c>
-      <c r="M73" s="226">
+        <v>19.416638483280963</v>
+      </c>
+      <c r="O73" s="150">
+        <f t="shared" ref="O73:AA73" si="107">O70-O71</f>
+        <v>8.9252580271594866</v>
+      </c>
+      <c r="P73" s="252">
         <f t="shared" si="107"/>
-        <v>30.39454995112672</v>
-      </c>
-      <c r="N73" s="226">
+        <v>-2.1160976584466766</v>
+      </c>
+      <c r="Q73" s="263">
         <f t="shared" si="107"/>
-        <v>19.416638483280963</v>
-      </c>
-      <c r="O73" s="150">
-        <f t="shared" ref="O73:AA73" si="108">O70-O71</f>
-        <v>8.9252580271594866</v>
-      </c>
-      <c r="P73" s="252">
-        <f t="shared" si="108"/>
-        <v>-2.1160976584466766</v>
-      </c>
-      <c r="Q73" s="263">
-        <f t="shared" si="108"/>
         <v>-2.2181159245623121</v>
       </c>
       <c r="R73" s="263">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-2.326327492008943</v>
       </c>
       <c r="S73" s="264">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-2.3418157241148947</v>
       </c>
       <c r="T73" s="263">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-2.3579339707288796</v>
       </c>
       <c r="U73" s="263">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-2.3744244847413825</v>
       </c>
       <c r="V73" s="263">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-2.3913872340075955</v>
       </c>
       <c r="W73" s="264">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-2.3960404726840352</v>
       </c>
       <c r="X73" s="263">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-2.4067509018543092</v>
       </c>
       <c r="Y73" s="263">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-2.4119507298030953</v>
       </c>
       <c r="Z73" s="263">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-2.4174937807250103</v>
       </c>
       <c r="AA73" s="264">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-2.4208822536091361</v>
       </c>
       <c r="AB73" s="257"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
       <c r="E74" s="95"/>
       <c r="F74" s="95"/>
       <c r="L74" s="95"/>
@@ -13828,7 +13825,7 @@
       <c r="Z74" s="95"/>
       <c r="AB74" s="95"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
       <c r="E75" s="95"/>
       <c r="F75" s="95"/>
       <c r="L75" s="95"/>
@@ -13867,17 +13864,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>259</v>
       </c>
@@ -13903,13 +13900,13 @@
         <v>258</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="191">
         <v>44104</v>
       </c>
@@ -13950,7 +13947,7 @@
         <v>279.25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="191">
         <v>44196</v>
       </c>
@@ -13983,7 +13980,7 @@
         <v>286.92480728335994</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="191">
         <v>44286</v>
       </c>
@@ -14012,7 +14009,7 @@
         <v>69.322815785041911</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="191">
         <v>44377</v>
       </c>
@@ -14041,7 +14038,7 @@
         <v>57.377360410402474</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="191">
         <v>44469</v>
       </c>
@@ -14070,7 +14067,7 @@
         <v>73.004211452751491</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="191">
         <v>44561</v>
       </c>
@@ -14099,7 +14096,7 @@
         <v>57.211771344119057</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="191">
         <v>44651</v>
       </c>
@@ -14128,7 +14125,7 @@
         <v>40.833358543003243</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="191">
         <v>44742</v>
       </c>
@@ -14136,7 +14133,7 @@
         <v>-3.9742115781463099</v>
       </c>
       <c r="C9">
-        <v>-795.0713942327269</v>
+        <v>-798.76605954490742</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -14157,7 +14154,7 @@
         <v>30.39454995112672</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="191">
         <v>44834</v>
       </c>
@@ -14165,7 +14162,7 @@
         <v>-3.9334359995413877</v>
       </c>
       <c r="C10">
-        <v>-814.86432997595784</v>
+        <v>-822.04530225717781</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -14186,7 +14183,7 @@
         <v>19.416638483280963</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="191">
         <v>44926</v>
       </c>
@@ -14194,7 +14191,7 @@
         <v>-3.8930606112205055</v>
       </c>
       <c r="C11">
-        <v>-833.01209648001111</v>
+        <v>-843.43878221200498</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -14215,7 +14212,7 @@
         <v>8.9252580271594866</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="191">
         <v>45016</v>
       </c>
@@ -14223,7 +14220,7 @@
         <v>-3.8526852228995949</v>
       </c>
       <c r="C12">
-        <v>-850.74970784650395</v>
+        <v>-1060.4855909462101</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -14244,7 +14241,7 @@
         <v>-2.1160976584466766</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="191">
         <v>45107</v>
       </c>
@@ -14252,7 +14249,7 @@
         <v>-3.8123098345787128</v>
       </c>
       <c r="C13">
-        <v>-869.77637821677149</v>
+        <v>-1084.2029188339</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -14273,7 +14270,7 @@
         <v>-2.2181159245623121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="191">
         <v>45199</v>
       </c>
@@ -14281,7 +14278,7 @@
         <v>-3.7719344462578306</v>
       </c>
       <c r="C14">
-        <v>-888.68586140487776</v>
+        <v>-1107.7741693066</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -14302,7 +14299,7 @@
         <v>-2.326327492008943</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="191">
         <v>45291</v>
       </c>
@@ -14310,7 +14307,7 @@
         <v>-3.8144384657560408</v>
       </c>
       <c r="C15">
-        <v>-894.63576558741045</v>
+        <v>-1115.1909072671201</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -14331,7 +14328,7 @@
         <v>-2.3418157241148947</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="191">
         <v>45382</v>
       </c>
@@ -14339,7 +14336,7 @@
         <v>-3.8569424852543079</v>
       </c>
       <c r="C16">
-        <v>-901.28879286291919</v>
+        <v>-1123.4841097175899</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -14360,7 +14357,7 @@
         <v>-2.3579339707288796</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="191">
         <v>45473</v>
       </c>
@@ -14368,7 +14365,7 @@
         <v>-3.8994465047525466</v>
       </c>
       <c r="C17">
-        <v>-908.5863496403116</v>
+        <v>-1132.5807379505</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -14389,7 +14386,7 @@
         <v>-2.3744244847413825</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="191">
         <v>45565</v>
       </c>
@@ -14397,7 +14394,7 @@
         <v>-3.9419505242507569</v>
       </c>
       <c r="C18">
-        <v>-916.82140387499487</v>
+        <v>-1142.84598550333</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -14418,7 +14415,7 @@
         <v>-2.3913872340075955</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="191">
         <v>45657</v>
       </c>
@@ -14426,7 +14423,7 @@
         <v>-3.9957932684627337</v>
       </c>
       <c r="C19">
-        <v>-923.44320761629717</v>
+        <v>-1151.10026686124</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -14447,7 +14444,7 @@
         <v>-2.3960404726840352</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="191">
         <v>45747</v>
       </c>
@@ -14455,7 +14452,7 @@
         <v>-4.0496360126746538</v>
       </c>
       <c r="C20">
-        <v>-929.94782417543809</v>
+        <v>-1159.20847080416</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -14476,7 +14473,7 @@
         <v>-2.4067509018543092</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="191">
         <v>45838</v>
       </c>
@@ -14484,7 +14481,7 @@
         <v>-4.1034787568866022</v>
       </c>
       <c r="C21">
-        <v>-936.92118946321636</v>
+        <v>-1167.9009844070299</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -14505,7 +14502,7 @@
         <v>-2.4119507298030953</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="191">
         <v>45930</v>
       </c>
@@ -14513,7 +14510,7 @@
         <v>-4.1573215010985507</v>
       </c>
       <c r="C22">
-        <v>-944.42189707072498</v>
+        <v>-1177.2508463773599</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -14534,7 +14531,7 @@
         <v>-2.4174937807250103</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="191">
         <v>46022</v>
       </c>
@@ -14542,7 +14539,7 @@
         <v>-4.2133500465284044</v>
       </c>
       <c r="C23">
-        <v>-952.04647628708233</v>
+        <v>-1186.75511810546</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -14576,25 +14573,25 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="158" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="158" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="158" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" style="158" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="158" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" style="158" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="158"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="158" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B3" s="158" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="158" t="s">
         <v>236</v>
       </c>
@@ -14638,7 +14635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="158" t="s">
         <v>238</v>
       </c>
@@ -14701,7 +14698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="158" t="s">
         <v>13</v>
       </c>
@@ -14742,7 +14739,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" s="158" t="s">
         <v>239</v>
       </c>
@@ -14795,7 +14792,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="161" t="s">
         <v>240</v>
       </c>
@@ -14805,7 +14802,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" s="158" t="s">
         <v>241</v>
       </c>
@@ -14862,10 +14859,10 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D11" s="164"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="158" t="s">
         <v>242</v>
       </c>
@@ -14897,7 +14894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="158" t="s">
         <v>156</v>
       </c>
@@ -14925,7 +14922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="158" t="s">
         <v>243</v>
       </c>
@@ -14965,7 +14962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="158" t="s">
         <v>20</v>
       </c>
@@ -15011,7 +15008,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="158" t="s">
         <v>239</v>
       </c>
@@ -15048,7 +15045,7 @@
         <v>1.5888244379207488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="158" t="s">
         <v>244</v>
       </c>
@@ -15057,7 +15054,7 @@
         <v>0.86186821348990206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="162" t="s">
         <v>241</v>
       </c>
@@ -15099,7 +15096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="162"/>
       <c r="C21" s="162"/>
       <c r="D21" s="167">
@@ -15131,22 +15128,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="158" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="158" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="158" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="158" t="s">
         <v>34</v>
       </c>
@@ -15154,7 +15151,7 @@
         <v>5654.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="158" t="s">
         <v>247</v>
       </c>
@@ -15166,7 +15163,7 @@
         <v>0.18843065822516181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="158" t="s">
         <v>248</v>
       </c>
@@ -15178,7 +15175,7 @@
         <v>0.19065893255048985</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="158" t="s">
         <v>156</v>
       </c>
@@ -15201,9 +15198,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -15212,7 +15209,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -15221,9 +15218,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="315" t="s">
         <v>32</v>
       </c>
@@ -15246,7 +15243,7 @@
       <c r="R5" s="316"/>
       <c r="S5" s="316"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="317" t="s">
         <v>33</v>
       </c>
@@ -15269,7 +15266,7 @@
       <c r="R6" s="317"/>
       <c r="S6" s="317"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -15290,7 +15287,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="130"/>
       <c r="B8" s="130"/>
       <c r="C8" s="11"/>
@@ -15311,7 +15308,7 @@
       <c r="R8" s="318"/>
       <c r="S8" s="319"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
       <c r="B9" s="130"/>
       <c r="C9" s="14"/>
@@ -15334,7 +15331,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -15369,7 +15366,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="130"/>
       <c r="B11" s="28" t="s">
         <v>2</v>
@@ -15406,7 +15403,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="130"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -15445,7 +15442,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="130" t="s">
         <v>221</v>
       </c>
@@ -15491,7 +15488,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -15504,7 +15501,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>225</v>
       </c>
@@ -15537,7 +15534,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>223</v>
       </c>
@@ -15564,16 +15561,16 @@
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="4" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="118" customWidth="1"/>
-    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="118" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="4" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="118" customWidth="1"/>
+    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="302" t="s">
         <v>209</v>
       </c>
@@ -15595,7 +15592,7 @@
       <c r="AE1" s="301"/>
       <c r="AF1" s="301"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="321" t="s">
         <v>193</v>
       </c>
@@ -15604,28 +15601,28 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="321"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="321"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="321"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C7" s="311" t="s">
         <v>161</v>
       </c>
@@ -15645,7 +15642,7 @@
       <c r="M7" s="312"/>
       <c r="N7" s="313"/>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>201</v>
       </c>
@@ -15680,7 +15677,7 @@
       <c r="M8" s="96"/>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="106" t="s">
         <v>166</v>
       </c>
@@ -15698,7 +15695,7 @@
       <c r="M9" s="78"/>
       <c r="N9" s="78"/>
     </row>
-    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B10" s="86" t="s">
         <v>172</v>
       </c>
@@ -15727,7 +15724,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B11" s="86" t="s">
         <v>173</v>
       </c>
@@ -15756,7 +15753,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B12" s="86" t="s">
         <v>174</v>
       </c>
@@ -15785,7 +15782,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B13" s="86" t="s">
         <v>175</v>
       </c>
@@ -15814,7 +15811,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B14" s="86" t="s">
         <v>176</v>
       </c>
@@ -15843,7 +15840,7 @@
         <v>0.61311927847613501</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B15" s="86" t="s">
         <v>177</v>
       </c>
@@ -15872,7 +15869,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B16" s="86" t="s">
         <v>168</v>
       </c>
@@ -15901,7 +15898,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="86" t="s">
         <v>169</v>
       </c>
@@ -15930,7 +15927,7 @@
         <v>3246.3114308992499</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="86" t="s">
         <v>170</v>
       </c>
@@ -15959,7 +15956,7 @@
         <v>252.77338989879101</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="86" t="s">
         <v>171</v>
       </c>
@@ -15988,7 +15985,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>197</v>
       </c>
@@ -16017,13 +16014,13 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="110" t="s">
         <v>186</v>
       </c>
       <c r="B23" s="110"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>187</v>
       </c>
@@ -16061,7 +16058,7 @@
       </c>
       <c r="L24" s="100"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>188</v>
       </c>
@@ -16088,7 +16085,7 @@
         <v>-46.377972457627124</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>181</v>
       </c>
@@ -16124,7 +16121,7 @@
         <v>193.49039972658653</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>179</v>
       </c>
@@ -16161,7 +16158,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="99" t="s">
         <v>180</v>
       </c>
@@ -16192,7 +16189,7 @@
         <v>121.58520881077312</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
       <c r="F29" s="102"/>
@@ -16202,7 +16199,7 @@
       <c r="J29" s="104"/>
       <c r="K29" s="122"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D30" s="102"/>
       <c r="E30" s="102"/>
       <c r="F30" s="102"/>
@@ -16212,13 +16209,13 @@
       <c r="J30" s="104"/>
       <c r="K30" s="122"/>
     </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="110" t="s">
         <v>189</v>
       </c>
       <c r="B31" s="110"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>187</v>
       </c>
@@ -16256,7 +16253,7 @@
       </c>
       <c r="L32" s="100"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>188</v>
       </c>
@@ -16287,7 +16284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>181</v>
       </c>
@@ -16323,7 +16320,7 @@
         <v>191.84423247697106</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>179</v>
       </c>
@@ -16360,7 +16357,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="99" t="s">
         <v>180</v>
       </c>
@@ -16391,7 +16388,7 @@
         <v>-205.63034758934896</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="99"/>
       <c r="D37" s="103"/>
       <c r="E37" s="103"/>
@@ -16402,7 +16399,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="123"/>
     </row>
-    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="99"/>
       <c r="D38" s="103"/>
       <c r="E38" s="103"/>
@@ -16413,7 +16410,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="123"/>
     </row>
-    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="110" t="s">
         <v>185</v>
       </c>
@@ -16427,7 +16424,7 @@
       <c r="J39" s="104"/>
       <c r="K39" s="122"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>181</v>
       </c>
@@ -16456,7 +16453,7 @@
         <v>1892.015583446143</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>182</v>
       </c>
@@ -16491,7 +16488,7 @@
         <v>1890.9916822863934</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>179</v>
       </c>
@@ -16528,7 +16525,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="99" t="s">
         <v>180</v>
       </c>
@@ -16559,7 +16556,7 @@
         <v>-161.58289086722652</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D44" s="102"/>
       <c r="E44" s="102"/>
       <c r="F44" s="102"/>
@@ -16569,7 +16566,7 @@
       <c r="J44" s="104"/>
       <c r="K44" s="122"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D45" s="102"/>
       <c r="E45" s="102"/>
       <c r="F45" s="102"/>
@@ -16579,7 +16576,7 @@
       <c r="J45" s="104"/>
       <c r="K45" s="122"/>
     </row>
-    <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="110" t="s">
         <v>184</v>
       </c>
@@ -16593,7 +16590,7 @@
       <c r="J46" s="104"/>
       <c r="K46" s="122"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>181</v>
       </c>
@@ -16622,7 +16619,7 @@
         <v>74.827748020610457</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>182</v>
       </c>
@@ -16657,7 +16654,7 @@
         <v>97.788296196225005</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>179</v>
       </c>
@@ -16694,7 +16691,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="99" t="s">
         <v>180</v>
       </c>
@@ -16725,7 +16722,7 @@
         <v>36.308251718988402</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D51" s="102"/>
       <c r="E51" s="102"/>
       <c r="F51" s="102"/>
@@ -16735,13 +16732,13 @@
       <c r="J51" s="104"/>
       <c r="K51" s="122"/>
     </row>
-    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="105" t="s">
         <v>190</v>
       </c>
       <c r="B53" s="105"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>187</v>
       </c>
@@ -16779,7 +16776,7 @@
       </c>
       <c r="L54" s="100"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>188</v>
       </c>
@@ -16806,7 +16803,7 @@
         <v>77.568110169491518</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>181</v>
       </c>
@@ -16843,7 +16840,7 @@
         <v>1466.8336294397507</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>179</v>
       </c>
@@ -16880,7 +16877,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="99" t="s">
         <v>180</v>
       </c>
@@ -16911,7 +16908,7 @@
         <v>-69.515510906409418</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D59" s="102"/>
       <c r="E59" s="102"/>
       <c r="F59" s="102"/>
@@ -16921,7 +16918,7 @@
       <c r="J59" s="104"/>
       <c r="K59" s="122"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D60" s="102"/>
       <c r="E60" s="102"/>
       <c r="F60" s="102"/>
@@ -16931,13 +16928,13 @@
       <c r="J60" s="104"/>
       <c r="K60" s="122"/>
     </row>
-    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A61" s="105" t="s">
         <v>191</v>
       </c>
       <c r="B61" s="105"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>187</v>
       </c>
@@ -16975,7 +16972,7 @@
       </c>
       <c r="L62" s="100"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>188</v>
       </c>
@@ -17002,7 +16999,7 @@
         <v>85.98974092242338</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>181</v>
       </c>
@@ -17038,7 +17035,7 @@
         <v>2007.57447036953</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>179</v>
       </c>
@@ -17075,7 +17072,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="99" t="s">
         <v>180</v>
       </c>
@@ -17106,7 +17103,7 @@
         <v>-737.16965721463021</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="99"/>
       <c r="D67" s="103"/>
       <c r="E67" s="103"/>
@@ -17117,7 +17114,7 @@
       <c r="J67" s="103"/>
       <c r="K67" s="123"/>
     </row>
-    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="99"/>
       <c r="D68" s="103"/>
       <c r="E68" s="103"/>
@@ -17128,7 +17125,7 @@
       <c r="J68" s="103"/>
       <c r="K68" s="123"/>
     </row>
-    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A69" s="105" t="s">
         <v>192</v>
       </c>
@@ -17142,7 +17139,7 @@
       <c r="J69" s="104"/>
       <c r="K69" s="122"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>4</v>
       </c>
@@ -17176,7 +17173,7 @@
         <v>100.25024999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>179</v>
       </c>
@@ -17213,7 +17210,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="99" t="s">
         <v>180</v>
       </c>
@@ -17244,7 +17241,7 @@
         <v>-1009.7000171346299</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D73" s="102"/>
       <c r="E73" s="102"/>
       <c r="F73" s="102"/>
@@ -17254,7 +17251,7 @@
       <c r="J73" s="104"/>
       <c r="K73" s="122"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D74" s="102"/>
       <c r="E74" s="102"/>
       <c r="F74" s="102"/>
@@ -17264,7 +17261,7 @@
       <c r="J74" s="104"/>
       <c r="K74" s="122"/>
     </row>
-    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A75" s="105" t="s">
         <v>198</v>
       </c>
@@ -17278,7 +17275,7 @@
       <c r="J75" s="104"/>
       <c r="K75" s="122"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>187</v>
       </c>
@@ -17315,7 +17312,7 @@
         <v>3301.0791480964817</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>188</v>
       </c>
@@ -17344,7 +17341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B78" s="111" t="s">
         <v>199</v>
       </c>
@@ -17363,7 +17360,7 @@
       <c r="J78" s="102"/>
       <c r="K78" s="122"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B79" s="112" t="s">
         <v>200</v>
       </c>
@@ -17382,7 +17379,7 @@
       <c r="J79" s="102"/>
       <c r="K79" s="122"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>181</v>
       </c>
@@ -17419,7 +17416,7 @@
         <v>3421.0791480964817</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>179</v>
       </c>
@@ -17456,7 +17453,7 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B82" s="99" t="s">
         <v>180</v>
       </c>
@@ -17511,101 +17508,101 @@
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="11" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="11" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="327" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="322" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="322"/>
+      <c r="G2" s="322"/>
+      <c r="H2" s="322"/>
+      <c r="I2" s="322"/>
+      <c r="J2" s="322"/>
       <c r="K2" s="77"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="327" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="322" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
       <c r="K3" s="77"/>
     </row>
-    <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="328"/>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="328"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
-      <c r="K4" s="333" t="s">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="323"/>
+      <c r="B4" s="323"/>
+      <c r="C4" s="323"/>
+      <c r="D4" s="323"/>
+      <c r="E4" s="323"/>
+      <c r="F4" s="323"/>
+      <c r="G4" s="323"/>
+      <c r="H4" s="323"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="328" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="333"/>
-      <c r="M4" s="333"/>
-      <c r="N4" s="333"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L4" s="328"/>
+      <c r="M4" s="328"/>
+      <c r="N4" s="328"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="329" t="s">
+      <c r="C5" s="324" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="331"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="H5" s="325"/>
+      <c r="I5" s="325"/>
+      <c r="J5" s="326"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="332" t="s">
+      <c r="L5" s="327" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="301"/>
       <c r="N5" s="301"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="323">
+      <c r="C6" s="330">
         <v>2020</v>
       </c>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="325"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
+      <c r="H6" s="331"/>
+      <c r="I6" s="331"/>
+      <c r="J6" s="332"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -17634,7 +17631,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="50"/>
       <c r="B7" s="51"/>
       <c r="C7" s="52" t="s">
@@ -17661,7 +17658,7 @@
       </c>
       <c r="K7" s="78"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="57">
         <v>23</v>
       </c>
@@ -17705,7 +17702,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B9" s="74" t="s">
         <v>131</v>
       </c>
@@ -17723,7 +17720,7 @@
       <c r="N9" s="73"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>24</v>
       </c>
@@ -17763,7 +17760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="57">
         <v>25</v>
       </c>
@@ -17815,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>26</v>
       </c>
@@ -17855,7 +17852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="K13" s="35" t="s">
         <v>140</v>
       </c>
@@ -17872,12 +17869,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="K15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>120</v>
       </c>
@@ -17937,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.35">
       <c r="J18" s="79" t="s">
         <v>139</v>
       </c>
@@ -17994,7 +17991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="65"/>
@@ -18008,7 +18005,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="3:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:23" ht="58" x14ac:dyDescent="0.35">
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="67"/>
@@ -18018,7 +18015,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C21" s="69" t="s">
         <v>121</v>
       </c>
@@ -18027,7 +18024,7 @@
       <c r="F21" s="70"/>
       <c r="G21" s="67"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C22" s="69"/>
       <c r="D22" s="71" t="s">
         <v>122</v>
@@ -18061,7 +18058,7 @@
       <c r="U22" s="301"/>
       <c r="V22" s="301"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
       <c r="D23" s="69" t="s">
         <v>123</v>
@@ -18076,12 +18073,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="326" t="s">
+      <c r="K23" s="333" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="326"/>
-      <c r="M23" s="326"/>
-      <c r="N23" s="326"/>
+      <c r="L23" s="333"/>
+      <c r="M23" s="333"/>
+      <c r="N23" s="333"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -18089,7 +18086,7 @@
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C24" s="67"/>
       <c r="D24" s="69" t="s">
         <v>124</v>
@@ -18141,7 +18138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C25" s="67"/>
       <c r="D25" s="69" t="s">
         <v>58</v>
@@ -18165,7 +18162,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C26" s="67"/>
       <c r="D26" s="69"/>
       <c r="E26" s="67"/>
@@ -18224,7 +18221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="67"/>
       <c r="D27" s="69"/>
       <c r="E27" s="225" t="s">
@@ -18249,9 +18246,9 @@
       <c r="R27" s="35"/>
       <c r="S27" s="72"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="322" t="s">
-        <v>261</v>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="I28" s="329" t="s">
+        <v>262</v>
       </c>
       <c r="J28" s="82" t="s">
         <v>144</v>
@@ -18287,7 +18284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>126</v>
       </c>
@@ -18301,7 +18298,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="322"/>
+      <c r="I29" s="329"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -18334,7 +18331,7 @@
       </c>
       <c r="S29" s="72"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>127</v>
       </c>
@@ -18350,7 +18347,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="322"/>
+      <c r="I30" s="329"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -18383,7 +18380,7 @@
       </c>
       <c r="S30" s="72"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C31" s="178" t="s">
         <v>128</v>
       </c>
@@ -18399,7 +18396,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="322"/>
+      <c r="I31" s="329"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -18427,7 +18424,7 @@
       </c>
       <c r="S31" s="72"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C32" s="178" t="s">
         <v>129</v>
       </c>
@@ -18445,7 +18442,7 @@
       </c>
       <c r="N32" s="72"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>145</v>
       </c>
@@ -18461,11 +18458,11 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="322" t="s">
+      <c r="I33" s="329" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M33" s="72">
         <f t="shared" ref="M33:V33" si="9">SUM(M28:M31)</f>
@@ -18508,10 +18505,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="322"/>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="I34" s="329"/>
       <c r="J34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K34" s="72">
         <f>K26-K33</f>
@@ -18554,21 +18551,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N35" s="72">
         <f>SUM(K34:N34)</f>
         <v>119.04333333333334</v>
       </c>
       <c r="R35" s="72"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
@@ -18614,7 +18611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.35">
       <c r="F38">
         <v>433</v>
       </c>
@@ -18664,7 +18661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.35">
       <c r="O40" s="72">
         <f>O37-O28</f>
         <v>32</v>
@@ -18688,12 +18685,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -18701,6 +18692,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18715,19 +18712,19 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>94</v>
       </c>
@@ -18755,7 +18752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -18803,29 +18800,29 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="335" t="s">
+      <c r="E6" s="337" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="335"/>
-      <c r="G6" s="335"/>
-      <c r="H6" s="335"/>
-      <c r="I6" s="335"/>
-      <c r="J6" s="335"/>
-      <c r="K6" s="335"/>
-      <c r="L6" s="335"/>
-      <c r="M6" s="335"/>
-      <c r="N6" s="335"/>
-      <c r="O6" s="335"/>
-      <c r="P6" s="335"/>
-      <c r="Q6" s="335"/>
-      <c r="R6" s="335"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
+      <c r="H6" s="337"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="337"/>
+      <c r="L6" s="337"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="337"/>
+      <c r="O6" s="337"/>
+      <c r="P6" s="337"/>
+      <c r="Q6" s="337"/>
+      <c r="R6" s="337"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="334" t="s">
         <v>88</v>
       </c>
@@ -18847,7 +18844,7 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
       <c r="B8" s="334" t="s">
         <v>89</v>
@@ -18897,7 +18894,7 @@
         <v>22653.71</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
       <c r="B9" s="334" t="s">
         <v>90</v>
@@ -18947,7 +18944,7 @@
         <v>15406.718999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
       <c r="B10" s="334" t="s">
         <v>91</v>
@@ -18997,7 +18994,7 @@
         <v>3152.433</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
       <c r="B11" s="334" t="s">
         <v>58</v>
@@ -19047,7 +19044,7 @@
         <v>3725.3310000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -19095,7 +19092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="334" t="s">
@@ -19145,7 +19142,7 @@
         <v>44938.192999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -19195,7 +19192,7 @@
         <v>33837.324000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -19245,12 +19242,12 @@
         <v>11100.869000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
       <c r="B19" s="334" t="s">
         <v>89</v>
@@ -19313,7 +19310,7 @@
         <v>22863.275999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="334" t="s">
         <v>90</v>
@@ -19377,7 +19374,7 @@
       </c>
       <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
       <c r="B21" s="334" t="s">
         <v>91</v>
@@ -19440,7 +19437,7 @@
         <v>3314.95</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
       <c r="B22" s="334" t="s">
         <v>58</v>
@@ -19503,7 +19500,7 @@
         <v>3821.0209999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -19551,7 +19548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="24"/>
       <c r="B27" s="10"/>
       <c r="C27" s="24"/>
@@ -19559,23 +19556,23 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="336" t="s">
+      <c r="H27" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="336"/>
-      <c r="J27" s="336"/>
-      <c r="K27" s="336"/>
-      <c r="L27" s="336"/>
-      <c r="M27" s="336"/>
-      <c r="N27" s="336"/>
-      <c r="O27" s="336"/>
-      <c r="P27" s="336"/>
-      <c r="Q27" s="336"/>
-      <c r="R27" s="336"/>
-      <c r="S27" s="336"/>
-      <c r="T27" s="336"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I27" s="335"/>
+      <c r="J27" s="335"/>
+      <c r="K27" s="335"/>
+      <c r="L27" s="335"/>
+      <c r="M27" s="335"/>
+      <c r="N27" s="335"/>
+      <c r="O27" s="335"/>
+      <c r="P27" s="335"/>
+      <c r="Q27" s="335"/>
+      <c r="R27" s="335"/>
+      <c r="S27" s="335"/>
+      <c r="T27" s="335"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>96</v>
       </c>
@@ -19599,7 +19596,7 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
       <c r="B29" s="10" t="s">
         <v>89</v>
@@ -19647,7 +19644,7 @@
         <v>-1551.309</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="24"/>
       <c r="B30" s="10" t="s">
         <v>90</v>
@@ -19695,7 +19692,7 @@
         <v>-656.35500000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
       <c r="B31" s="10" t="s">
         <v>91</v>
@@ -19743,7 +19740,7 @@
         <v>-276.72699999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
       <c r="B32" s="10" t="s">
         <v>58</v>
@@ -19791,7 +19788,7 @@
         <v>407.49900000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="24"/>
@@ -19835,7 +19832,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="24"/>
@@ -19883,29 +19880,29 @@
         <v>-2076.8919999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="337" t="s">
+      <c r="F37" s="336" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="337"/>
-      <c r="H37" s="337"/>
-      <c r="I37" s="337"/>
-      <c r="J37" s="337"/>
-      <c r="K37" s="337"/>
-      <c r="L37" s="337"/>
-      <c r="M37" s="337"/>
-      <c r="N37" s="337"/>
-      <c r="O37" s="337"/>
-      <c r="P37" s="337"/>
-      <c r="Q37" s="337"/>
-      <c r="R37" s="337"/>
-    </row>
-    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="G37" s="336"/>
+      <c r="H37" s="336"/>
+      <c r="I37" s="336"/>
+      <c r="J37" s="336"/>
+      <c r="K37" s="336"/>
+      <c r="L37" s="336"/>
+      <c r="M37" s="336"/>
+      <c r="N37" s="336"/>
+      <c r="O37" s="336"/>
+      <c r="P37" s="336"/>
+      <c r="Q37" s="336"/>
+      <c r="R37" s="336"/>
+    </row>
+    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>100</v>
       </c>
@@ -19927,7 +19924,7 @@
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="24"/>
       <c r="B39" s="10" t="s">
         <v>89</v>
@@ -19975,7 +19972,7 @@
         <v>114.194</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="24"/>
       <c r="B40" s="10" t="s">
         <v>91</v>
@@ -20023,7 +20020,7 @@
         <v>44.915999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="24"/>
       <c r="B41" s="10" t="s">
         <v>90</v>
@@ -20071,7 +20068,7 @@
         <v>-4.3769999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="24"/>
       <c r="B42" s="10" t="s">
         <v>58</v>
@@ -20119,7 +20116,7 @@
         <v>-1.5840000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
       <c r="B43" s="10"/>
       <c r="C43" s="24"/>
@@ -20165,7 +20162,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="10"/>
       <c r="C44" s="24" t="s">
@@ -20213,29 +20210,29 @@
         <v>153.149</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="24"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="336" t="s">
+      <c r="F48" s="335" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="336"/>
-      <c r="H48" s="336"/>
-      <c r="I48" s="336"/>
-      <c r="J48" s="336"/>
-      <c r="K48" s="336"/>
-      <c r="L48" s="336"/>
-      <c r="M48" s="336"/>
-      <c r="N48" s="336"/>
-      <c r="O48" s="336"/>
-      <c r="P48" s="336"/>
-      <c r="Q48" s="336"/>
-      <c r="R48" s="336"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G48" s="335"/>
+      <c r="H48" s="335"/>
+      <c r="I48" s="335"/>
+      <c r="J48" s="335"/>
+      <c r="K48" s="335"/>
+      <c r="L48" s="335"/>
+      <c r="M48" s="335"/>
+      <c r="N48" s="335"/>
+      <c r="O48" s="335"/>
+      <c r="P48" s="335"/>
+      <c r="Q48" s="335"/>
+      <c r="R48" s="335"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
         <v>96</v>
       </c>
@@ -20257,7 +20254,7 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="24"/>
       <c r="B50" s="10" t="s">
         <v>89</v>
@@ -20305,7 +20302,7 @@
         <v>-323.76</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>91</v>
@@ -20353,7 +20350,7 @@
         <v>-207.43299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>90</v>
@@ -20401,7 +20398,7 @@
         <v>-109.739</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>58</v>
@@ -20449,7 +20446,7 @@
         <v>-94.105999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -20495,7 +20492,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="24"/>
       <c r="C55" s="10"/>
@@ -20545,6 +20542,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -20553,12 +20556,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20574,9 +20571,9 @@
       <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -20585,7 +20582,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -20594,9 +20591,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="315" t="s">
         <v>32</v>
       </c>
@@ -20619,7 +20616,7 @@
       <c r="R5" s="316"/>
       <c r="S5" s="316"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="317" t="s">
         <v>33</v>
       </c>
@@ -20642,7 +20639,7 @@
       <c r="R6" s="317"/>
       <c r="S6" s="317"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -20663,7 +20660,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -20685,7 +20682,7 @@
       </c>
       <c r="S8" s="319"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="14"/>
@@ -20712,7 +20709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -20761,7 +20758,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -20784,7 +20781,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>38</v>
@@ -20835,7 +20832,7 @@
         <v>12876.373</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>39</v>
@@ -20886,7 +20883,7 @@
         <v>1805.0319999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -20935,7 +20932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -20986,7 +20983,7 @@
         <v>14681.405000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -21007,7 +21004,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
@@ -21030,7 +21027,7 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="28" t="s">
         <v>44</v>
@@ -21081,7 +21078,7 @@
         <v>12109.843000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="28" t="s">
         <v>2</v>
@@ -21132,7 +21129,7 @@
         <v>5805.7169999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="28" t="s">
         <v>45</v>
@@ -21183,7 +21180,7 @@
         <v>601.34900000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="28" t="s">
         <v>46</v>
@@ -21234,7 +21231,7 @@
         <v>168.07</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -21283,7 +21280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -21335,7 +21332,7 @@
       </c>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -21359,7 +21356,7 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
@@ -21382,7 +21379,7 @@
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
     </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>49</v>
@@ -21433,7 +21430,7 @@
         <v>930.94100000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>50</v>
@@ -21484,7 +21481,7 @@
         <v>875.31100000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>51</v>
@@ -21535,7 +21532,7 @@
         <v>682.72</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>52</v>
@@ -21586,7 +21583,7 @@
         <v>610.42399999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>53</v>
@@ -21637,7 +21634,7 @@
         <v>340.57900000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>54</v>
@@ -21688,7 +21685,7 @@
         <v>298.62400000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -21737,7 +21734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -21788,7 +21785,7 @@
         <v>3738.5990000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -21819,7 +21816,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>55</v>
       </c>
@@ -21855,7 +21852,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>56</v>
@@ -21919,7 +21916,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>57</v>
@@ -21983,7 +21980,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>58</v>
@@ -22047,7 +22044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -22096,7 +22093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -22160,7 +22157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -22194,7 +22191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>59</v>
       </c>
@@ -22230,7 +22227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>60</v>
@@ -22286,7 +22283,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>58</v>
@@ -22337,7 +22334,7 @@
         <v>183.27699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -22386,7 +22383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -22437,7 +22434,7 @@
         <v>1517.9280000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="89"/>
       <c r="B47" s="89"/>
       <c r="C47" s="89"/>
@@ -22470,7 +22467,7 @@
       <c r="R47" s="90"/>
       <c r="S47" s="90"/>
     </row>
-    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="89" t="s">
         <v>148</v>
       </c>
@@ -22496,7 +22493,7 @@
       <c r="R48" s="90"/>
       <c r="S48" s="90"/>
     </row>
-    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="89" t="s">
         <v>156</v>
       </c>
@@ -22528,7 +22525,7 @@
       <c r="R49" s="90"/>
       <c r="S49" s="90"/>
     </row>
-    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="89" t="s">
         <v>157</v>
       </c>
@@ -22560,7 +22557,7 @@
       <c r="R50" s="90"/>
       <c r="S50" s="90"/>
     </row>
-    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="89"/>
       <c r="B51" s="89"/>
       <c r="C51" s="89"/>
@@ -22581,7 +22578,7 @@
       <c r="R51" s="92"/>
       <c r="S51" s="92"/>
     </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>61</v>
       </c>
@@ -22604,7 +22601,7 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>62</v>
@@ -22655,7 +22652,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>63</v>
@@ -22706,7 +22703,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>64</v>
@@ -22757,7 +22754,7 @@
         <v>179.15</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>65</v>
@@ -22808,7 +22805,7 @@
         <v>-42.021999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>66</v>
@@ -22859,7 +22856,7 @@
         <v>140.99100000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="28" t="s">
         <v>67</v>
@@ -22910,7 +22907,7 @@
         <v>51.79</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>68</v>
@@ -22961,7 +22958,7 @@
         <v>29.829000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>58</v>
@@ -23012,7 +23009,7 @@
         <v>697.76099999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -23061,7 +23058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -23112,7 +23109,7 @@
         <v>1057.6969999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -23133,7 +23130,7 @@
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>69</v>
       </c>
@@ -23156,7 +23153,7 @@
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
     </row>
-    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>70</v>
       </c>
@@ -23207,7 +23204,7 @@
         <v>41712.921000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -23228,7 +23225,7 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>71</v>
       </c>
@@ -23251,7 +23248,7 @@
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>72</v>
@@ -23302,7 +23299,7 @@
         <v>-2166.04</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>73</v>
@@ -23325,7 +23322,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>74</v>
@@ -23348,7 +23345,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="28" t="s">
@@ -23399,7 +23396,7 @@
         <v>-537.75800000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="28" t="s">
@@ -23450,7 +23447,7 @@
         <v>-265.04899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="28" t="s">
@@ -23501,7 +23498,7 @@
         <v>-210.17099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -23550,7 +23547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -23601,7 +23598,7 @@
         <v>-1012.978</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="28"/>
       <c r="C76" s="10"/>
@@ -23622,7 +23619,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="28" t="s">
         <v>77</v>
@@ -23673,7 +23670,7 @@
         <v>-120.02500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="28" t="s">
         <v>66</v>
@@ -23724,7 +23721,7 @@
         <v>-108.732</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="28" t="s">
         <v>67</v>
@@ -23775,7 +23772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="28" t="s">
         <v>58</v>
@@ -23826,7 +23823,7 @@
         <v>-326.91500000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -23875,7 +23872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="28"/>
       <c r="C82" s="10"/>
@@ -23926,7 +23923,7 @@
         <v>-3734.69</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -23947,7 +23944,7 @@
       <c r="R83" s="24"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -23970,7 +23967,7 @@
       <c r="R84" s="24"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -24022,7 +24019,7 @@
       </c>
       <c r="T85" s="25"/>
     </row>
-    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -24044,7 +24041,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
     </row>
-    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
         <v>80</v>
       </c>
@@ -24068,7 +24065,7 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
     </row>
-    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>81</v>
       </c>
@@ -24091,7 +24088,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>82</v>
@@ -24142,7 +24139,7 @@
         <v>9943.8029999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="19" t="s">
         <v>83</v>
@@ -24193,7 +24190,7 @@
         <v>16518.938999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="31"/>
@@ -24229,18 +24226,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24461,26 +24458,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v4.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brookingsinstitution.sharepoint.com/sites/hutchinscenterteam/Shared Documents/Projects/Fiscal Impact/COVID-19 Changes/September/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C23F3E8-FFE5-4F6C-9146-6CE603862918}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6194A1-8BCD-D44D-9F0B-237A55F87CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1711,9 +1714,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>add_federal_grants</t>
-  </si>
-  <si>
     <t>Noncorporate Taxes</t>
   </si>
   <si>
@@ -1817,6 +1817,9 @@
   </si>
   <si>
     <t>cbo projected growth rate</t>
+  </si>
+  <si>
+    <t>add_federal_cgrants</t>
   </si>
 </sst>
 </file>
@@ -3141,6 +3144,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3162,29 +3180,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3692,38 +3695,38 @@
       <selection pane="bottomRight" activeCell="U87" sqref="U87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="4" max="11" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" style="286" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
-    <col min="16" max="22" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" style="35" customWidth="1"/>
-    <col min="24" max="25" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="8.81640625" customWidth="1"/>
-    <col min="32" max="32" width="15.54296875" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="8.7265625" style="146"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="4" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="286" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="22" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" style="35" customWidth="1"/>
+    <col min="24" max="25" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="8.83203125" customWidth="1"/>
+    <col min="32" max="32" width="15.5" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="8.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="302" t="s">
         <v>164</v>
       </c>
       <c r="B1" s="302"/>
       <c r="C1" s="35"/>
       <c r="K1" s="266" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" s="267" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="267" t="s">
-        <v>288</v>
-      </c>
       <c r="M1" s="285" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB1" s="180" t="s">
         <v>251</v>
@@ -3737,19 +3740,19 @@
         <v>28</v>
       </c>
       <c r="AH1" s="305" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AI1" s="305"/>
       <c r="AJ1" s="305"/>
       <c r="AK1" s="305"/>
       <c r="AL1" s="303" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM1" s="303"/>
       <c r="AN1" s="303"/>
       <c r="AO1" s="303"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D2" s="301" t="s">
         <v>21</v>
       </c>
@@ -3777,7 +3780,7 @@
       <c r="T2" s="301"/>
       <c r="U2" s="301"/>
       <c r="V2" s="301" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W2" s="301"/>
       <c r="X2" s="301"/>
@@ -3801,7 +3804,7 @@
       <c r="AJ2" s="301"/>
       <c r="AK2" s="231"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D3" s="200" t="s">
         <v>5</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>11</v>
       </c>
       <c r="AK3" s="97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AM3" s="97" t="s">
         <v>12</v>
@@ -3900,12 +3903,12 @@
         <v>11</v>
       </c>
       <c r="AO3" s="97" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="300" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="300"/>
       <c r="D4" s="200"/>
@@ -3927,12 +3930,12 @@
       <c r="AJ4" s="97"/>
       <c r="AK4" s="97"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" s="201">
         <v>20909.900000000001</v>
@@ -4012,7 +4015,7 @@
       <c r="AJ5" s="97"/>
       <c r="AK5" s="97"/>
     </row>
-    <row r="6" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="170" t="s">
         <v>217</v>
       </c>
@@ -4101,12 +4104,12 @@
       <c r="AK6" s="176"/>
       <c r="AL6" s="244"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="201">
         <v>18813.900000000001</v>
@@ -4186,9 +4189,9 @@
       <c r="AJ7" s="97"/>
       <c r="AK7" s="97"/>
     </row>
-    <row r="8" spans="1:42" s="214" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" s="214" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A8" s="214" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" s="218"/>
       <c r="E8" s="218"/>
@@ -4220,7 +4223,7 @@
       <c r="AK8" s="215"/>
       <c r="AL8" s="245"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D9" s="200"/>
       <c r="E9" s="200"/>
       <c r="F9" s="200"/>
@@ -4240,7 +4243,7 @@
       <c r="AJ9" s="97"/>
       <c r="AK9" s="97"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4255,9 +4258,9 @@
       <c r="AC10" s="146"/>
       <c r="AH10" s="146"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="178" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D11" s="201">
         <f>D12+D14+D16</f>
@@ -4324,7 +4327,7 @@
       </c>
       <c r="T11" s="168">
         <f t="shared" si="2"/>
-        <v>3718.9986738367052</v>
+        <v>3718.9986738367047</v>
       </c>
       <c r="U11" s="168">
         <f t="shared" si="2"/>
@@ -4338,12 +4341,12 @@
       <c r="AC11" s="146"/>
       <c r="AH11" s="146"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="219" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D12" s="201">
         <v>1634.2</v>
@@ -4390,27 +4393,27 @@
       </c>
       <c r="Q12" s="169">
         <f t="shared" si="4"/>
-        <v>1928.8565750697067</v>
+        <v>1928.8565750697064</v>
       </c>
       <c r="R12" s="169">
         <f t="shared" si="4"/>
-        <v>1948.1451408204036</v>
+        <v>1948.1451408204034</v>
       </c>
       <c r="S12" s="169">
         <f t="shared" si="4"/>
-        <v>1967.6265922286077</v>
+        <v>1967.6265922286075</v>
       </c>
       <c r="T12" s="169">
         <f t="shared" si="4"/>
-        <v>1987.3028581508938</v>
+        <v>1987.3028581508936</v>
       </c>
       <c r="U12" s="169">
         <f t="shared" si="4"/>
-        <v>2007.1758867324029</v>
+        <v>2007.1758867324027</v>
       </c>
       <c r="V12" s="169">
         <f t="shared" ref="O12:V14" si="5">U12*(1+V13)</f>
-        <v>2047.3194044670511</v>
+        <v>2047.3194044670508</v>
       </c>
       <c r="W12" s="169"/>
       <c r="X12" s="44"/>
@@ -4427,11 +4430,11 @@
       </c>
       <c r="AD12" s="45">
         <f>AVERAGE(N12:Q12)</f>
-        <v>1882.0750609457468</v>
+        <v>1882.0750609457466</v>
       </c>
       <c r="AE12" s="45">
         <f>AVERAGE(R12:U12)</f>
-        <v>1977.562619483077</v>
+        <v>1977.5626194830768</v>
       </c>
       <c r="AF12" s="3">
         <f>AVERAGE(D12:G12)</f>
@@ -4454,7 +4457,7 @@
       </c>
       <c r="AK12" s="3"/>
     </row>
-    <row r="13" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="220" t="s">
         <v>217</v>
       </c>
@@ -4511,12 +4514,12 @@
       <c r="AK13" s="176"/>
       <c r="AL13" s="244"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="219" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D14" s="201">
         <v>183.5</v>
@@ -4623,7 +4626,7 @@
       <c r="AO14" s="35"/>
       <c r="AP14" s="35"/>
     </row>
-    <row r="15" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="220" t="s">
         <v>217</v>
       </c>
@@ -4680,12 +4683,12 @@
       <c r="AK15" s="187"/>
       <c r="AL15" s="244"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="219" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D16" s="201">
         <v>1360.3</v>
@@ -4796,7 +4799,7 @@
       </c>
       <c r="AK16" s="3"/>
     </row>
-    <row r="17" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="220" t="s">
         <v>217</v>
       </c>
@@ -4853,12 +4856,12 @@
       <c r="AK17" s="176"/>
       <c r="AL17" s="244"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="178" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18" s="201">
         <v>234.7</v>
@@ -4969,7 +4972,7 @@
         <v>237.052464440053</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="179" t="s">
         <v>217</v>
       </c>
@@ -5026,7 +5029,7 @@
       <c r="AK19" s="176"/>
       <c r="AL19" s="244"/>
     </row>
-    <row r="20" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="170"/>
       <c r="D20" s="202"/>
       <c r="E20" s="202"/>
@@ -5063,9 +5066,9 @@
       <c r="AK20" s="176"/>
       <c r="AL20" s="244"/>
     </row>
-    <row r="21" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D21" s="202"/>
       <c r="E21" s="202"/>
@@ -5102,9 +5105,9 @@
       <c r="AK21" s="176"/>
       <c r="AL21" s="244"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="178" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="206">
         <f>SUM(D23:D25)</f>
@@ -5182,7 +5185,7 @@
         <v>2074.74222788611</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="219" t="s">
         <v>22</v>
       </c>
@@ -5254,7 +5257,7 @@
         <v>569.66745022009331</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="219" t="s">
         <v>23</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>1482.2881698253204</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="219" t="s">
         <v>24</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>22.786607840696337</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="178" t="s">
         <v>0</v>
       </c>
@@ -5471,9 +5474,9 @@
         <v>66.213511073073931</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="179" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D27" s="213">
         <f t="shared" ref="D27:J27" si="21">D26/D18</f>
@@ -5516,7 +5519,7 @@
       <c r="U27" s="196"/>
       <c r="AL27" s="247"/>
     </row>
-    <row r="28" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="197"/>
       <c r="B28" s="198"/>
       <c r="D28" s="202"/>
@@ -5563,7 +5566,7 @@
       <c r="AK28" s="176"/>
       <c r="AL28" s="244"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D29" s="200"/>
       <c r="E29" s="200"/>
       <c r="F29" s="200"/>
@@ -5588,12 +5591,12 @@
         <v>2696.6527204036238</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="86" t="s">
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D30" s="205">
         <v>2220523</v>
@@ -5691,12 +5694,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="86" t="s">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D31" s="205">
         <v>753311</v>
@@ -5818,7 +5821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="93" t="s">
         <v>20</v>
       </c>
@@ -5888,12 +5891,12 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="185"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="86" t="s">
         <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D33" s="205">
         <v>27025</v>
@@ -6000,7 +6003,7 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="185"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="115" t="s">
         <v>214</v>
       </c>
@@ -6065,7 +6068,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="185"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
         <v>138</v>
       </c>
@@ -6152,7 +6155,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="185"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="117" t="s">
         <v>163</v>
       </c>
@@ -6201,7 +6204,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="185"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="115" t="s">
         <v>139</v>
       </c>
@@ -6291,7 +6294,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="185"/>
     </row>
-    <row r="38" spans="1:40" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="86" t="s">
         <v>147</v>
       </c>
@@ -6372,7 +6375,7 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="185"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="117" t="s">
         <v>207</v>
       </c>
@@ -6430,7 +6433,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="185"/>
     </row>
-    <row r="40" spans="1:40" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="117" t="s">
         <v>208</v>
       </c>
@@ -6488,7 +6491,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="185"/>
     </row>
-    <row r="41" spans="1:40" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="86" t="s">
         <v>149</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>1718.2255606122285</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="170" t="s">
         <v>217</v>
       </c>
@@ -6672,9 +6675,9 @@
       <c r="AK42" s="176"/>
       <c r="AL42" s="186"/>
     </row>
-    <row r="43" spans="1:40" s="188" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" s="188" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D43" s="210"/>
       <c r="E43" s="210"/>
@@ -6733,7 +6736,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
         <v>158</v>
       </c>
@@ -6826,7 +6829,7 @@
       </c>
       <c r="AL44" s="246"/>
     </row>
-    <row r="45" spans="1:40" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -6865,12 +6868,12 @@
       <c r="AK45" s="44"/>
       <c r="AL45" s="248"/>
     </row>
-    <row r="46" spans="1:40" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="141" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="141" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C46" s="141"/>
       <c r="D46" s="200">
@@ -6954,7 +6957,7 @@
       <c r="AE46" s="44"/>
       <c r="AL46" s="246"/>
     </row>
-    <row r="47" spans="1:40" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="134" t="s">
         <v>202</v>
       </c>
@@ -7024,9 +7027,9 @@
       <c r="AF47" s="44"/>
       <c r="AL47" s="246"/>
     </row>
-    <row r="48" spans="1:40" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="228" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D48" s="200"/>
       <c r="E48" s="200"/>
@@ -7089,9 +7092,9 @@
       <c r="AF48" s="44"/>
       <c r="AL48" s="246"/>
     </row>
-    <row r="49" spans="1:38" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:38" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D49" s="200"/>
       <c r="E49" s="200"/>
@@ -7154,9 +7157,9 @@
       <c r="AF49" s="44"/>
       <c r="AL49" s="246"/>
     </row>
-    <row r="50" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A50" s="284" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D50" s="210"/>
       <c r="E50" s="210"/>
@@ -7193,9 +7196,9 @@
       <c r="AF50" s="190"/>
       <c r="AL50" s="247"/>
     </row>
-    <row r="51" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A51" s="284" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D51" s="210"/>
       <c r="E51" s="210"/>
@@ -7232,9 +7235,9 @@
       <c r="AF51" s="190"/>
       <c r="AL51" s="247"/>
     </row>
-    <row r="52" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" s="188" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" s="284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D52" s="210"/>
       <c r="E52" s="210"/>
@@ -7271,7 +7274,7 @@
       <c r="AF52" s="190"/>
       <c r="AL52" s="247"/>
     </row>
-    <row r="53" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="134"/>
       <c r="D53" s="200"/>
       <c r="E53" s="200"/>
@@ -7304,12 +7307,12 @@
       <c r="AF53" s="44"/>
       <c r="AL53" s="246"/>
     </row>
-    <row r="54" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D54" s="200">
         <v>586475</v>
@@ -7380,7 +7383,7 @@
       <c r="AE54" s="44"/>
       <c r="AL54" s="246"/>
     </row>
-    <row r="55" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="35" t="s">
         <v>230</v>
       </c>
@@ -7442,7 +7445,7 @@
       <c r="AF55" s="44"/>
       <c r="AL55" s="246"/>
     </row>
-    <row r="56" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="136" t="s">
         <v>231</v>
       </c>
@@ -7518,7 +7521,7 @@
       <c r="AF56" s="44"/>
       <c r="AL56" s="246"/>
     </row>
-    <row r="57" spans="1:38" s="138" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:38" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="137" t="s">
         <v>211</v>
       </c>
@@ -7560,7 +7563,7 @@
       <c r="AF57" s="140"/>
       <c r="AL57" s="249"/>
     </row>
-    <row r="58" spans="1:38" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:38" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="134" t="s">
         <v>212</v>
       </c>
@@ -7636,7 +7639,7 @@
       <c r="AF58" s="44"/>
       <c r="AL58" s="246"/>
     </row>
-    <row r="59" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="113" t="s">
         <v>199</v>
       </c>
@@ -7700,7 +7703,7 @@
       <c r="AF59" s="44"/>
       <c r="AL59" s="246"/>
     </row>
-    <row r="60" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="113" t="s">
         <v>203</v>
       </c>
@@ -7754,7 +7757,7 @@
       <c r="AF60" s="44"/>
       <c r="AL60" s="246"/>
     </row>
-    <row r="61" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="113" t="s">
         <v>200</v>
       </c>
@@ -7808,7 +7811,7 @@
       <c r="AF61" s="44"/>
       <c r="AL61" s="246"/>
     </row>
-    <row r="62" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="145" t="s">
         <v>219</v>
       </c>
@@ -7889,7 +7892,7 @@
       <c r="AF62" s="44"/>
       <c r="AL62" s="246"/>
     </row>
-    <row r="63" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D63" s="200"/>
       <c r="E63" s="200"/>
       <c r="F63" s="200"/>
@@ -7921,12 +7924,12 @@
       <c r="AF63" s="44"/>
       <c r="AL63" s="246"/>
     </row>
-    <row r="64" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D64" s="209">
         <v>1241.5999999999999</v>
@@ -7982,12 +7985,12 @@
       <c r="AK64" s="44"/>
       <c r="AL64" s="248"/>
     </row>
-    <row r="65" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="114" t="s">
         <v>205</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D65" s="200"/>
       <c r="E65" s="200"/>
@@ -8061,7 +8064,7 @@
       <c r="AK65" s="44"/>
       <c r="AL65" s="248"/>
     </row>
-    <row r="66" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="170" t="s">
         <v>204</v>
       </c>
@@ -8142,12 +8145,12 @@
       <c r="AK66" s="190"/>
       <c r="AL66" s="250"/>
     </row>
-    <row r="67" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="35" t="s">
         <v>206</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D67" s="209">
         <v>389624</v>
@@ -8255,7 +8258,7 @@
       <c r="AK67" s="84"/>
       <c r="AL67" s="246"/>
     </row>
-    <row r="68" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="141" t="s">
         <v>162</v>
       </c>
@@ -8338,7 +8341,7 @@
       </c>
       <c r="AL68" s="246"/>
     </row>
-    <row r="69" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="141" t="s">
         <v>216</v>
       </c>
@@ -8403,7 +8406,7 @@
       </c>
       <c r="AL69" s="246"/>
     </row>
-    <row r="70" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D70" s="200"/>
       <c r="E70" s="200"/>
       <c r="F70" s="200"/>
@@ -8415,12 +8418,12 @@
       <c r="M70" s="287"/>
       <c r="AL70" s="246"/>
     </row>
-    <row r="71" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D71" s="200">
         <v>728844</v>
@@ -8491,7 +8494,7 @@
       </c>
       <c r="AL71" s="246"/>
     </row>
-    <row r="72" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="35" t="s">
         <v>232</v>
       </c>
@@ -8572,7 +8575,7 @@
       </c>
       <c r="AL72" s="246"/>
     </row>
-    <row r="73" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D73" s="206"/>
       <c r="E73" s="200"/>
       <c r="F73" s="200"/>
@@ -8584,12 +8587,12 @@
       <c r="M73" s="287"/>
       <c r="AL73" s="246"/>
     </row>
-    <row r="74" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D74" s="200">
         <v>589819</v>
@@ -8686,9 +8689,9 @@
       <c r="AK74" s="84"/>
       <c r="AL74" s="246"/>
     </row>
-    <row r="75" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D75" s="210"/>
       <c r="E75" s="210"/>
@@ -8724,7 +8727,7 @@
       <c r="W75" s="177"/>
       <c r="AL75" s="247"/>
     </row>
-    <row r="76" spans="1:38" s="153" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:38" s="153" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="153" t="s">
         <v>224</v>
       </c>
@@ -8763,7 +8766,7 @@
       <c r="AI76" s="155"/>
       <c r="AL76" s="251"/>
     </row>
-    <row r="77" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35" t="s">
         <v>18</v>
       </c>
@@ -8836,9 +8839,9 @@
       </c>
       <c r="AL77" s="246"/>
     </row>
-    <row r="78" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="170" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B78" s="35"/>
       <c r="D78" s="203"/>
@@ -8886,12 +8889,12 @@
       <c r="Y78" s="283"/>
       <c r="AL78" s="247"/>
     </row>
-    <row r="79" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="170" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D79" s="210"/>
       <c r="E79" s="210"/>
@@ -8943,12 +8946,12 @@
       </c>
       <c r="AL79" s="247"/>
     </row>
-    <row r="80" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="35" t="s">
         <v>218</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D80" s="200"/>
       <c r="E80" s="200"/>
@@ -9011,7 +9014,7 @@
       </c>
       <c r="AL80" s="246"/>
     </row>
-    <row r="81" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D81" s="200"/>
       <c r="E81" s="200"/>
       <c r="F81" s="200"/>
@@ -9063,9 +9066,9 @@
       <c r="Y81"/>
       <c r="AL81" s="246"/>
     </row>
-    <row r="82" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="170" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B82" s="35"/>
       <c r="D82" s="203"/>
@@ -9101,9 +9104,9 @@
       <c r="Y82" s="283"/>
       <c r="AL82" s="247"/>
     </row>
-    <row r="83" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="170" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D83" s="210"/>
       <c r="E83" s="210"/>
@@ -9149,9 +9152,9 @@
       </c>
       <c r="AL83" s="247"/>
     </row>
-    <row r="84" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="295" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D84" s="210"/>
       <c r="E84" s="210"/>
@@ -9174,7 +9177,7 @@
       <c r="V84" s="177"/>
       <c r="AL84" s="247"/>
     </row>
-    <row r="85" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="35" t="s">
         <v>165</v>
       </c>
@@ -9267,7 +9270,7 @@
       </c>
       <c r="AL85" s="246"/>
     </row>
-    <row r="86" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="141" t="s">
         <v>215</v>
       </c>
@@ -9344,7 +9347,7 @@
       </c>
       <c r="AL86" s="246"/>
     </row>
-    <row r="87" spans="1:38" s="141" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:38" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="141" t="s">
         <v>233</v>
       </c>
@@ -9437,7 +9440,7 @@
       </c>
       <c r="AL87" s="299"/>
     </row>
-    <row r="88" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="D88" s="221"/>
       <c r="E88" s="221"/>
@@ -9460,7 +9463,7 @@
       <c r="V88"/>
       <c r="AL88" s="246"/>
     </row>
-    <row r="89" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:38" s="188" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="170"/>
       <c r="D89" s="196"/>
       <c r="E89" s="196"/>
@@ -9482,7 +9485,7 @@
       <c r="U89" s="196"/>
       <c r="AL89" s="247"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>159</v>
       </c>
@@ -9510,7 +9513,7 @@
       <c r="AG90" s="35"/>
       <c r="AH90" s="35"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="35"/>
@@ -9535,7 +9538,7 @@
       <c r="AG91" s="35"/>
       <c r="AH91" s="35"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="35"/>
@@ -9560,7 +9563,7 @@
       <c r="AG92" s="35"/>
       <c r="AH92" s="35"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="35"/>
@@ -9585,7 +9588,7 @@
       <c r="AG93" s="35"/>
       <c r="AH93" s="35"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="35"/>
@@ -9610,7 +9613,7 @@
       <c r="AG94" s="35"/>
       <c r="AH94" s="35"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="35"/>
@@ -9663,29 +9666,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="146" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="146" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7265625" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="146"/>
-    <col min="19" max="19" width="8.7265625" style="146"/>
-    <col min="23" max="23" width="8.7265625" style="146"/>
-    <col min="27" max="27" width="8.7265625" style="146"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="146" customWidth="1"/>
+    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="146" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="146"/>
+    <col min="19" max="19" width="8.6640625" style="146"/>
+    <col min="23" max="23" width="8.6640625" style="146"/>
+    <col min="27" max="27" width="8.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="306" t="s">
         <v>209</v>
       </c>
@@ -9694,14 +9697,14 @@
       <c r="H1"/>
       <c r="I1" s="253"/>
       <c r="J1" s="314" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V1" s="301"/>
       <c r="W1" s="301"/>
       <c r="X1" s="301"/>
       <c r="Y1" s="301"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="308" t="s">
         <v>193</v>
       </c>
@@ -9712,7 +9715,7 @@
       <c r="I2" s="254"/>
       <c r="J2" s="314"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="309"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -9721,21 +9724,21 @@
       <c r="I3" s="254"/>
       <c r="J3" s="314"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="309"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="310"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="311" t="s">
         <v>161</v>
       </c>
@@ -9755,28 +9758,28 @@
       <c r="M7" s="312"/>
       <c r="N7" s="312"/>
       <c r="O7" s="311" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P7" s="312"/>
       <c r="Q7" s="312"/>
       <c r="R7" s="312"/>
       <c r="S7" s="311" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T7" s="312"/>
       <c r="U7" s="312"/>
       <c r="V7" s="312"/>
       <c r="W7" s="311" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X7" s="312"/>
       <c r="Y7" s="312"/>
       <c r="Z7" s="312"/>
       <c r="AA7" s="232" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>201</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>166</v>
       </c>
@@ -9878,7 +9881,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>172</v>
       </c>
@@ -9955,7 +9958,7 @@
         <v>252.42933533514699</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>173</v>
       </c>
@@ -10032,7 +10035,7 @@
         <v>1186.75511810546</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>174</v>
       </c>
@@ -10109,7 +10112,7 @@
         <v>2355.9885775604498</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>175</v>
       </c>
@@ -10186,7 +10189,7 @@
         <v>80.167011412978496</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>176</v>
       </c>
@@ -10263,7 +10266,7 @@
         <v>0.65670630121913898</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>177</v>
       </c>
@@ -10340,7 +10343,7 @@
         <v>1728.05186986427</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>168</v>
       </c>
@@ -10417,7 +10420,7 @@
         <v>1310.5588758504</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>169</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>4091.8476387732799</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>170</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>587.36016206119598</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>171</v>
       </c>
@@ -10648,7 +10651,7 @@
         <v>1326.2183753120501</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>197</v>
       </c>
@@ -10725,7 +10728,7 @@
         <v>293.65977826243102</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E22" s="95"/>
       <c r="F22" s="95"/>
       <c r="L22" s="95"/>
@@ -10742,7 +10745,7 @@
       <c r="Z22" s="95"/>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>186</v>
       </c>
@@ -10763,7 +10766,7 @@
       <c r="Z23" s="95"/>
       <c r="AB23" s="95"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>186</v>
       </c>
@@ -10865,7 +10868,7 @@
       </c>
       <c r="AB24" s="95"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>179</v>
       </c>
@@ -10967,9 +10970,9 @@
       </c>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="214" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D26" s="240"/>
       <c r="E26" s="255"/>
@@ -11039,7 +11042,7 @@
       </c>
       <c r="AB26" s="256"/>
     </row>
-    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
         <v>180</v>
       </c>
@@ -11135,7 +11138,7 @@
       </c>
       <c r="AB27" s="257"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D28" s="102"/>
       <c r="E28" s="104"/>
       <c r="F28" s="104"/>
@@ -11158,7 +11161,7 @@
       <c r="Z28" s="95"/>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="104"/>
       <c r="F29" s="104"/>
@@ -11181,7 +11184,7 @@
       <c r="Z29" s="95"/>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="110" t="s">
         <v>189</v>
       </c>
@@ -11208,7 +11211,7 @@
       <c r="Z30" s="95"/>
       <c r="AB30" s="95"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>189</v>
       </c>
@@ -11307,7 +11310,7 @@
       </c>
       <c r="AB31" s="95"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>179</v>
       </c>
@@ -11409,9 +11412,9 @@
       </c>
       <c r="AB32" s="95"/>
     </row>
-    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B33" s="214" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D33" s="240"/>
       <c r="E33" s="255"/>
@@ -11484,7 +11487,7 @@
       </c>
       <c r="AB33" s="256"/>
     </row>
-    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99" t="s">
         <v>180</v>
       </c>
@@ -11580,7 +11583,7 @@
       </c>
       <c r="AB34" s="257"/>
     </row>
-    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="D35" s="103"/>
       <c r="E35" s="226"/>
@@ -11608,7 +11611,7 @@
       <c r="AA35" s="184"/>
       <c r="AB35" s="257"/>
     </row>
-    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99"/>
       <c r="D36" s="103"/>
       <c r="E36" s="226"/>
@@ -11636,7 +11639,7 @@
       <c r="AA36" s="184"/>
       <c r="AB36" s="257"/>
     </row>
-    <row r="37" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="110" t="s">
         <v>185</v>
       </c>
@@ -11663,9 +11666,9 @@
       <c r="Z37" s="95"/>
       <c r="AB37" s="95"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D38" s="102"/>
       <c r="E38" s="104">
@@ -11710,7 +11713,7 @@
       <c r="Z38" s="95"/>
       <c r="AB38" s="95"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>179</v>
       </c>
@@ -11760,7 +11763,7 @@
       <c r="Z39" s="95"/>
       <c r="AB39" s="95"/>
     </row>
-    <row r="40" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="99" t="s">
         <v>180</v>
       </c>
@@ -11840,7 +11843,7 @@
       </c>
       <c r="AB40" s="257"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D41" s="102"/>
       <c r="E41" s="104"/>
       <c r="F41" s="104"/>
@@ -11863,7 +11866,7 @@
       <c r="Z41" s="95"/>
       <c r="AB41" s="95"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D42" s="102"/>
       <c r="E42" s="104"/>
       <c r="F42" s="104"/>
@@ -11886,7 +11889,7 @@
       <c r="Z42" s="95"/>
       <c r="AB42" s="95"/>
     </row>
-    <row r="43" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="110" t="s">
         <v>184</v>
       </c>
@@ -11913,9 +11916,9 @@
       <c r="Z43" s="95"/>
       <c r="AB43" s="95"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D44" s="102"/>
       <c r="E44" s="104">
@@ -11960,7 +11963,7 @@
       <c r="Z44" s="95"/>
       <c r="AB44" s="95"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>179</v>
       </c>
@@ -12012,7 +12015,7 @@
       <c r="Z45" s="95"/>
       <c r="AB45" s="95"/>
     </row>
-    <row r="46" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="99" t="s">
         <v>180</v>
       </c>
@@ -12092,7 +12095,7 @@
       </c>
       <c r="AB46" s="257"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D47" s="102"/>
       <c r="E47" s="104"/>
       <c r="F47" s="104"/>
@@ -12115,7 +12118,7 @@
       <c r="Z47" s="95"/>
       <c r="AB47" s="95"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D48" s="102"/>
       <c r="E48" s="104"/>
       <c r="F48" s="104"/>
@@ -12138,7 +12141,7 @@
       <c r="Z48" s="95"/>
       <c r="AB48" s="95"/>
     </row>
-    <row r="49" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="105" t="s">
         <v>190</v>
       </c>
@@ -12165,7 +12168,7 @@
       <c r="Z49" s="95"/>
       <c r="AB49" s="95"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>190</v>
       </c>
@@ -12264,7 +12267,7 @@
       </c>
       <c r="AB50" s="95"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>179</v>
       </c>
@@ -12366,9 +12369,9 @@
       </c>
       <c r="AB51" s="95"/>
     </row>
-    <row r="52" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B52" s="214" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D52" s="240"/>
       <c r="E52" s="255"/>
@@ -12447,7 +12450,7 @@
       </c>
       <c r="AB52" s="256"/>
     </row>
-    <row r="53" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="99" t="s">
         <v>180</v>
       </c>
@@ -12543,7 +12546,7 @@
       </c>
       <c r="AB53" s="257"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D54" s="102"/>
       <c r="E54" s="104"/>
       <c r="F54" s="104"/>
@@ -12566,7 +12569,7 @@
       <c r="Z54" s="95"/>
       <c r="AB54" s="95"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D55" s="102"/>
       <c r="E55" s="104"/>
       <c r="F55" s="104"/>
@@ -12589,7 +12592,7 @@
       <c r="Z55" s="95"/>
       <c r="AB55" s="95"/>
     </row>
-    <row r="56" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="105" t="s">
         <v>191</v>
       </c>
@@ -12616,7 +12619,7 @@
       <c r="Z56" s="95"/>
       <c r="AB56" s="95"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="86" t="s">
         <v>191</v>
       </c>
@@ -12718,7 +12721,7 @@
       </c>
       <c r="AB57" s="95"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>179</v>
       </c>
@@ -12820,7 +12823,7 @@
       </c>
       <c r="AB58" s="95"/>
     </row>
-    <row r="59" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="99" t="s">
         <v>180</v>
       </c>
@@ -12916,7 +12919,7 @@
       </c>
       <c r="AB59" s="257"/>
     </row>
-    <row r="60" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="99"/>
       <c r="D60" s="103"/>
       <c r="E60" s="226"/>
@@ -12944,7 +12947,7 @@
       <c r="AA60" s="184"/>
       <c r="AB60" s="257"/>
     </row>
-    <row r="61" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="99"/>
       <c r="D61" s="103"/>
       <c r="E61" s="226"/>
@@ -12972,7 +12975,7 @@
       <c r="AA61" s="184"/>
       <c r="AB61" s="257"/>
     </row>
-    <row r="62" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="105" t="s">
         <v>192</v>
       </c>
@@ -12999,7 +13002,7 @@
       <c r="Z62" s="95"/>
       <c r="AB62" s="95"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>213</v>
       </c>
@@ -13098,7 +13101,7 @@
       </c>
       <c r="AB63" s="95"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>179</v>
       </c>
@@ -13200,9 +13203,9 @@
       </c>
       <c r="AB64" s="95"/>
     </row>
-    <row r="65" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B65" s="214" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D65" s="240"/>
       <c r="E65" s="255"/>
@@ -13275,7 +13278,7 @@
       </c>
       <c r="AB65" s="256"/>
     </row>
-    <row r="66" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99" t="s">
         <v>180</v>
       </c>
@@ -13375,7 +13378,7 @@
       <c r="AE66" s="150"/>
       <c r="AF66" s="150"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D67" s="102"/>
       <c r="E67" s="104"/>
       <c r="F67" s="104"/>
@@ -13398,7 +13401,7 @@
       <c r="Z67" s="95"/>
       <c r="AB67" s="95"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D68" s="102"/>
       <c r="E68" s="104"/>
       <c r="F68" s="104"/>
@@ -13421,7 +13424,7 @@
       <c r="Z68" s="95"/>
       <c r="AB68" s="95"/>
     </row>
-    <row r="69" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="105" t="s">
         <v>198</v>
       </c>
@@ -13448,7 +13451,7 @@
       <c r="Z69" s="95"/>
       <c r="AB69" s="95"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>210</v>
       </c>
@@ -13547,7 +13550,7 @@
       </c>
       <c r="AB70" s="95"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>179</v>
       </c>
@@ -13649,9 +13652,9 @@
       </c>
       <c r="AB71" s="95"/>
     </row>
-    <row r="72" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B72" s="214" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D72" s="240"/>
       <c r="E72" s="255"/>
@@ -13712,7 +13715,7 @@
       </c>
       <c r="AB72" s="256"/>
     </row>
-    <row r="73" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="99" t="s">
         <v>180</v>
       </c>
@@ -13808,7 +13811,7 @@
       </c>
       <c r="AB73" s="257"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E74" s="95"/>
       <c r="F74" s="95"/>
       <c r="L74" s="95"/>
@@ -13825,7 +13828,7 @@
       <c r="Z74" s="95"/>
       <c r="AB74" s="95"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E75" s="95"/>
       <c r="F75" s="95"/>
       <c r="L75" s="95"/>
@@ -13864,17 +13867,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>259</v>
       </c>
@@ -13900,13 +13903,13 @@
         <v>258</v>
       </c>
       <c r="I1" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="J1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="191">
         <v>44104</v>
       </c>
@@ -13947,7 +13950,7 @@
         <v>279.25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="191">
         <v>44196</v>
       </c>
@@ -13980,7 +13983,7 @@
         <v>286.92480728335994</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="191">
         <v>44286</v>
       </c>
@@ -14009,7 +14012,7 @@
         <v>69.322815785041911</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="191">
         <v>44377</v>
       </c>
@@ -14038,7 +14041,7 @@
         <v>57.377360410402474</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="191">
         <v>44469</v>
       </c>
@@ -14067,7 +14070,7 @@
         <v>73.004211452751491</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="191">
         <v>44561</v>
       </c>
@@ -14096,7 +14099,7 @@
         <v>57.211771344119057</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="191">
         <v>44651</v>
       </c>
@@ -14125,7 +14128,7 @@
         <v>40.833358543003243</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="191">
         <v>44742</v>
       </c>
@@ -14154,7 +14157,7 @@
         <v>30.39454995112672</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="191">
         <v>44834</v>
       </c>
@@ -14183,7 +14186,7 @@
         <v>19.416638483280963</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="191">
         <v>44926</v>
       </c>
@@ -14212,7 +14215,7 @@
         <v>8.9252580271594866</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="191">
         <v>45016</v>
       </c>
@@ -14241,7 +14244,7 @@
         <v>-2.1160976584466766</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="191">
         <v>45107</v>
       </c>
@@ -14270,7 +14273,7 @@
         <v>-2.2181159245623121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="191">
         <v>45199</v>
       </c>
@@ -14299,7 +14302,7 @@
         <v>-2.326327492008943</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="191">
         <v>45291</v>
       </c>
@@ -14328,7 +14331,7 @@
         <v>-2.3418157241148947</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="191">
         <v>45382</v>
       </c>
@@ -14357,7 +14360,7 @@
         <v>-2.3579339707288796</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="191">
         <v>45473</v>
       </c>
@@ -14386,7 +14389,7 @@
         <v>-2.3744244847413825</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="191">
         <v>45565</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>-2.3913872340075955</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="191">
         <v>45657</v>
       </c>
@@ -14444,7 +14447,7 @@
         <v>-2.3960404726840352</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="191">
         <v>45747</v>
       </c>
@@ -14473,7 +14476,7 @@
         <v>-2.4067509018543092</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="191">
         <v>45838</v>
       </c>
@@ -14502,7 +14505,7 @@
         <v>-2.4119507298030953</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="191">
         <v>45930</v>
       </c>
@@ -14531,7 +14534,7 @@
         <v>-2.4174937807250103</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="191">
         <v>46022</v>
       </c>
@@ -14573,25 +14576,25 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" style="158" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="158" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="158" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="158" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="158" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="158" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="158"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="158" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="158" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="158" t="s">
         <v>236</v>
       </c>
@@ -14635,7 +14638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="158" t="s">
         <v>238</v>
       </c>
@@ -14698,7 +14701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="158" t="s">
         <v>13</v>
       </c>
@@ -14739,7 +14742,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="158" t="s">
         <v>239</v>
       </c>
@@ -14792,7 +14795,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="161" t="s">
         <v>240</v>
       </c>
@@ -14802,7 +14805,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="158" t="s">
         <v>241</v>
       </c>
@@ -14859,10 +14862,10 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="164"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="158" t="s">
         <v>242</v>
       </c>
@@ -14894,7 +14897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="158" t="s">
         <v>156</v>
       </c>
@@ -14922,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="158" t="s">
         <v>243</v>
       </c>
@@ -14962,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="158" t="s">
         <v>20</v>
       </c>
@@ -15008,7 +15011,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="158" t="s">
         <v>239</v>
       </c>
@@ -15045,7 +15048,7 @@
         <v>1.5888244379207488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="158" t="s">
         <v>244</v>
       </c>
@@ -15054,7 +15057,7 @@
         <v>0.86186821348990206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="162" t="s">
         <v>241</v>
       </c>
@@ -15096,7 +15099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="162"/>
       <c r="C21" s="162"/>
       <c r="D21" s="167">
@@ -15128,22 +15131,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="158" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="158" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" s="158" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="158" t="s">
         <v>34</v>
       </c>
@@ -15151,7 +15154,7 @@
         <v>5654.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="158" t="s">
         <v>247</v>
       </c>
@@ -15163,7 +15166,7 @@
         <v>0.18843065822516181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="158" t="s">
         <v>248</v>
       </c>
@@ -15175,7 +15178,7 @@
         <v>0.19065893255048985</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="158" t="s">
         <v>156</v>
       </c>
@@ -15198,9 +15201,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -15209,7 +15212,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -15218,9 +15221,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="315" t="s">
         <v>32</v>
       </c>
@@ -15243,7 +15246,7 @@
       <c r="R5" s="316"/>
       <c r="S5" s="316"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="317" t="s">
         <v>33</v>
       </c>
@@ -15266,7 +15269,7 @@
       <c r="R6" s="317"/>
       <c r="S6" s="317"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -15287,7 +15290,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="130"/>
       <c r="B8" s="130"/>
       <c r="C8" s="11"/>
@@ -15308,7 +15311,7 @@
       <c r="R8" s="318"/>
       <c r="S8" s="319"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130"/>
       <c r="B9" s="130"/>
       <c r="C9" s="14"/>
@@ -15331,7 +15334,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -15366,7 +15369,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="130"/>
       <c r="B11" s="28" t="s">
         <v>2</v>
@@ -15403,7 +15406,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="130"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -15442,7 +15445,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="130" t="s">
         <v>221</v>
       </c>
@@ -15488,7 +15491,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -15501,7 +15504,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>225</v>
       </c>
@@ -15534,7 +15537,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>223</v>
       </c>
@@ -15561,16 +15564,16 @@
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="4" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="118" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="118" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="118" customWidth="1"/>
+    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="302" t="s">
         <v>209</v>
       </c>
@@ -15592,7 +15595,7 @@
       <c r="AE1" s="301"/>
       <c r="AF1" s="301"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="321" t="s">
         <v>193</v>
       </c>
@@ -15601,28 +15604,28 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="321"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="321"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="321"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="311" t="s">
         <v>161</v>
       </c>
@@ -15642,7 +15645,7 @@
       <c r="M7" s="312"/>
       <c r="N7" s="313"/>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>201</v>
       </c>
@@ -15677,7 +15680,7 @@
       <c r="M8" s="96"/>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>166</v>
       </c>
@@ -15695,7 +15698,7 @@
       <c r="M9" s="78"/>
       <c r="N9" s="78"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>172</v>
       </c>
@@ -15724,7 +15727,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>173</v>
       </c>
@@ -15753,7 +15756,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>174</v>
       </c>
@@ -15782,7 +15785,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>175</v>
       </c>
@@ -15811,7 +15814,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>176</v>
       </c>
@@ -15840,7 +15843,7 @@
         <v>0.61311927847613501</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>177</v>
       </c>
@@ -15869,7 +15872,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>168</v>
       </c>
@@ -15898,7 +15901,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>169</v>
       </c>
@@ -15927,7 +15930,7 @@
         <v>3246.3114308992499</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>170</v>
       </c>
@@ -15956,7 +15959,7 @@
         <v>252.77338989879101</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>171</v>
       </c>
@@ -15985,7 +15988,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>197</v>
       </c>
@@ -16014,13 +16017,13 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>186</v>
       </c>
       <c r="B23" s="110"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>187</v>
       </c>
@@ -16058,7 +16061,7 @@
       </c>
       <c r="L24" s="100"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>188</v>
       </c>
@@ -16085,7 +16088,7 @@
         <v>-46.377972457627124</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>181</v>
       </c>
@@ -16121,7 +16124,7 @@
         <v>193.49039972658653</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>179</v>
       </c>
@@ -16158,7 +16161,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99" t="s">
         <v>180</v>
       </c>
@@ -16189,7 +16192,7 @@
         <v>121.58520881077312</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
       <c r="F29" s="102"/>
@@ -16199,7 +16202,7 @@
       <c r="J29" s="104"/>
       <c r="K29" s="122"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" s="102"/>
       <c r="E30" s="102"/>
       <c r="F30" s="102"/>
@@ -16209,13 +16212,13 @@
       <c r="J30" s="104"/>
       <c r="K30" s="122"/>
     </row>
-    <row r="31" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="110" t="s">
         <v>189</v>
       </c>
       <c r="B31" s="110"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>187</v>
       </c>
@@ -16253,7 +16256,7 @@
       </c>
       <c r="L32" s="100"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>188</v>
       </c>
@@ -16284,7 +16287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>181</v>
       </c>
@@ -16320,7 +16323,7 @@
         <v>191.84423247697106</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>179</v>
       </c>
@@ -16357,7 +16360,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99" t="s">
         <v>180</v>
       </c>
@@ -16388,7 +16391,7 @@
         <v>-205.63034758934896</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="99"/>
       <c r="D37" s="103"/>
       <c r="E37" s="103"/>
@@ -16399,7 +16402,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="123"/>
     </row>
-    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="99"/>
       <c r="D38" s="103"/>
       <c r="E38" s="103"/>
@@ -16410,7 +16413,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="123"/>
     </row>
-    <row r="39" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="110" t="s">
         <v>185</v>
       </c>
@@ -16424,7 +16427,7 @@
       <c r="J39" s="104"/>
       <c r="K39" s="122"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>181</v>
       </c>
@@ -16453,7 +16456,7 @@
         <v>1892.015583446143</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>182</v>
       </c>
@@ -16488,7 +16491,7 @@
         <v>1890.9916822863934</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>179</v>
       </c>
@@ -16525,7 +16528,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99" t="s">
         <v>180</v>
       </c>
@@ -16556,7 +16559,7 @@
         <v>-161.58289086722652</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D44" s="102"/>
       <c r="E44" s="102"/>
       <c r="F44" s="102"/>
@@ -16566,7 +16569,7 @@
       <c r="J44" s="104"/>
       <c r="K44" s="122"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D45" s="102"/>
       <c r="E45" s="102"/>
       <c r="F45" s="102"/>
@@ -16576,7 +16579,7 @@
       <c r="J45" s="104"/>
       <c r="K45" s="122"/>
     </row>
-    <row r="46" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="110" t="s">
         <v>184</v>
       </c>
@@ -16590,7 +16593,7 @@
       <c r="J46" s="104"/>
       <c r="K46" s="122"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>181</v>
       </c>
@@ -16619,7 +16622,7 @@
         <v>74.827748020610457</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>182</v>
       </c>
@@ -16654,7 +16657,7 @@
         <v>97.788296196225005</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>179</v>
       </c>
@@ -16691,7 +16694,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99" t="s">
         <v>180</v>
       </c>
@@ -16722,7 +16725,7 @@
         <v>36.308251718988402</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D51" s="102"/>
       <c r="E51" s="102"/>
       <c r="F51" s="102"/>
@@ -16732,13 +16735,13 @@
       <c r="J51" s="104"/>
       <c r="K51" s="122"/>
     </row>
-    <row r="53" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="105" t="s">
         <v>190</v>
       </c>
       <c r="B53" s="105"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>187</v>
       </c>
@@ -16776,7 +16779,7 @@
       </c>
       <c r="L54" s="100"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>188</v>
       </c>
@@ -16803,7 +16806,7 @@
         <v>77.568110169491518</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>181</v>
       </c>
@@ -16840,7 +16843,7 @@
         <v>1466.8336294397507</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>179</v>
       </c>
@@ -16877,7 +16880,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99" t="s">
         <v>180</v>
       </c>
@@ -16908,7 +16911,7 @@
         <v>-69.515510906409418</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D59" s="102"/>
       <c r="E59" s="102"/>
       <c r="F59" s="102"/>
@@ -16918,7 +16921,7 @@
       <c r="J59" s="104"/>
       <c r="K59" s="122"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D60" s="102"/>
       <c r="E60" s="102"/>
       <c r="F60" s="102"/>
@@ -16928,13 +16931,13 @@
       <c r="J60" s="104"/>
       <c r="K60" s="122"/>
     </row>
-    <row r="61" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="105" t="s">
         <v>191</v>
       </c>
       <c r="B61" s="105"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>187</v>
       </c>
@@ -16972,7 +16975,7 @@
       </c>
       <c r="L62" s="100"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>188</v>
       </c>
@@ -16999,7 +17002,7 @@
         <v>85.98974092242338</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>181</v>
       </c>
@@ -17035,7 +17038,7 @@
         <v>2007.57447036953</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>179</v>
       </c>
@@ -17072,7 +17075,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99" t="s">
         <v>180</v>
       </c>
@@ -17103,7 +17106,7 @@
         <v>-737.16965721463021</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
       <c r="D67" s="103"/>
       <c r="E67" s="103"/>
@@ -17114,7 +17117,7 @@
       <c r="J67" s="103"/>
       <c r="K67" s="123"/>
     </row>
-    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="99"/>
       <c r="D68" s="103"/>
       <c r="E68" s="103"/>
@@ -17125,7 +17128,7 @@
       <c r="J68" s="103"/>
       <c r="K68" s="123"/>
     </row>
-    <row r="69" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="105" t="s">
         <v>192</v>
       </c>
@@ -17139,7 +17142,7 @@
       <c r="J69" s="104"/>
       <c r="K69" s="122"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>4</v>
       </c>
@@ -17173,7 +17176,7 @@
         <v>100.25024999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>179</v>
       </c>
@@ -17210,7 +17213,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="99" t="s">
         <v>180</v>
       </c>
@@ -17241,7 +17244,7 @@
         <v>-1009.7000171346299</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D73" s="102"/>
       <c r="E73" s="102"/>
       <c r="F73" s="102"/>
@@ -17251,7 +17254,7 @@
       <c r="J73" s="104"/>
       <c r="K73" s="122"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D74" s="102"/>
       <c r="E74" s="102"/>
       <c r="F74" s="102"/>
@@ -17261,7 +17264,7 @@
       <c r="J74" s="104"/>
       <c r="K74" s="122"/>
     </row>
-    <row r="75" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="105" t="s">
         <v>198</v>
       </c>
@@ -17275,7 +17278,7 @@
       <c r="J75" s="104"/>
       <c r="K75" s="122"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>187</v>
       </c>
@@ -17312,7 +17315,7 @@
         <v>3301.0791480964817</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>188</v>
       </c>
@@ -17341,7 +17344,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B78" s="111" t="s">
         <v>199</v>
       </c>
@@ -17360,7 +17363,7 @@
       <c r="J78" s="102"/>
       <c r="K78" s="122"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B79" s="112" t="s">
         <v>200</v>
       </c>
@@ -17379,7 +17382,7 @@
       <c r="J79" s="102"/>
       <c r="K79" s="122"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>181</v>
       </c>
@@ -17416,7 +17419,7 @@
         <v>3421.0791480964817</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>179</v>
       </c>
@@ -17453,7 +17456,7 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="99" t="s">
         <v>180</v>
       </c>
@@ -17508,101 +17511,101 @@
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="11" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="322" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="327" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="322"/>
-      <c r="G2" s="322"/>
-      <c r="H2" s="322"/>
-      <c r="I2" s="322"/>
-      <c r="J2" s="322"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
       <c r="K2" s="77"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="322" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
+      <c r="B3" s="327"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
       <c r="K3" s="77"/>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="323"/>
-      <c r="B4" s="323"/>
-      <c r="C4" s="323"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="323"/>
-      <c r="G4" s="323"/>
-      <c r="H4" s="323"/>
-      <c r="I4" s="323"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="328" t="s">
+    <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="328"/>
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="328"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="328"/>
+      <c r="I4" s="328"/>
+      <c r="J4" s="328"/>
+      <c r="K4" s="333" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="328"/>
-      <c r="M4" s="328"/>
-      <c r="N4" s="328"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L4" s="333"/>
+      <c r="M4" s="333"/>
+      <c r="N4" s="333"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="324" t="s">
+      <c r="C5" s="329" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="326"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="331"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="327" t="s">
+      <c r="L5" s="332" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="301"/>
       <c r="N5" s="301"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="330">
+      <c r="C6" s="323">
         <v>2020</v>
       </c>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="331"/>
-      <c r="G6" s="331"/>
-      <c r="H6" s="331"/>
-      <c r="I6" s="331"/>
-      <c r="J6" s="332"/>
+      <c r="D6" s="324"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="325"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -17631,7 +17634,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="51"/>
       <c r="C7" s="52" t="s">
@@ -17658,7 +17661,7 @@
       </c>
       <c r="K7" s="78"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="57">
         <v>23</v>
       </c>
@@ -17702,7 +17705,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="74" t="s">
         <v>131</v>
       </c>
@@ -17720,7 +17723,7 @@
       <c r="N9" s="73"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>24</v>
       </c>
@@ -17760,7 +17763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="57">
         <v>25</v>
       </c>
@@ -17812,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>26</v>
       </c>
@@ -17852,7 +17855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K13" s="35" t="s">
         <v>140</v>
       </c>
@@ -17869,12 +17872,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>120</v>
       </c>
@@ -17934,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J18" s="79" t="s">
         <v>139</v>
       </c>
@@ -17991,7 +17994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="65"/>
@@ -18005,7 +18008,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="3:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:23" ht="48" x14ac:dyDescent="0.2">
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="67"/>
@@ -18015,7 +18018,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="69" t="s">
         <v>121</v>
       </c>
@@ -18024,7 +18027,7 @@
       <c r="F21" s="70"/>
       <c r="G21" s="67"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="69"/>
       <c r="D22" s="71" t="s">
         <v>122</v>
@@ -18058,7 +18061,7 @@
       <c r="U22" s="301"/>
       <c r="V22" s="301"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="67"/>
       <c r="D23" s="69" t="s">
         <v>123</v>
@@ -18073,12 +18076,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="333" t="s">
+      <c r="K23" s="326" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="333"/>
-      <c r="M23" s="333"/>
-      <c r="N23" s="333"/>
+      <c r="L23" s="326"/>
+      <c r="M23" s="326"/>
+      <c r="N23" s="326"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -18086,7 +18089,7 @@
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="67"/>
       <c r="D24" s="69" t="s">
         <v>124</v>
@@ -18138,7 +18141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="67"/>
       <c r="D25" s="69" t="s">
         <v>58</v>
@@ -18162,7 +18165,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="67"/>
       <c r="D26" s="69"/>
       <c r="E26" s="67"/>
@@ -18221,7 +18224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="67"/>
       <c r="D27" s="69"/>
       <c r="E27" s="225" t="s">
@@ -18246,9 +18249,9 @@
       <c r="R27" s="35"/>
       <c r="S27" s="72"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="329" t="s">
-        <v>262</v>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I28" s="322" t="s">
+        <v>261</v>
       </c>
       <c r="J28" s="82" t="s">
         <v>144</v>
@@ -18284,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>126</v>
       </c>
@@ -18298,7 +18301,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="329"/>
+      <c r="I29" s="322"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -18331,7 +18334,7 @@
       </c>
       <c r="S29" s="72"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>127</v>
       </c>
@@ -18347,7 +18350,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="329"/>
+      <c r="I30" s="322"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -18380,7 +18383,7 @@
       </c>
       <c r="S30" s="72"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="178" t="s">
         <v>128</v>
       </c>
@@ -18396,7 +18399,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="329"/>
+      <c r="I31" s="322"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -18424,7 +18427,7 @@
       </c>
       <c r="S31" s="72"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="178" t="s">
         <v>129</v>
       </c>
@@ -18442,7 +18445,7 @@
       </c>
       <c r="N32" s="72"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>145</v>
       </c>
@@ -18458,11 +18461,11 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="329" t="s">
+      <c r="I33" s="322" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M33" s="72">
         <f t="shared" ref="M33:V33" si="9">SUM(M28:M31)</f>
@@ -18505,10 +18508,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="329"/>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I34" s="322"/>
       <c r="J34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K34" s="72">
         <f>K26-K33</f>
@@ -18551,21 +18554,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N35" s="72">
         <f>SUM(K34:N34)</f>
         <v>119.04333333333334</v>
       </c>
       <c r="R35" s="72"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
-        <v>273</v>
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
@@ -18611,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F38">
         <v>433</v>
       </c>
@@ -18661,7 +18664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.2">
       <c r="O40" s="72">
         <f>O37-O28</f>
         <v>32</v>
@@ -18685,6 +18688,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -18692,12 +18701,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18712,19 +18715,19 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>94</v>
       </c>
@@ -18752,7 +18755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -18800,29 +18803,29 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="337" t="s">
+      <c r="E6" s="335" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="337"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="337"/>
-      <c r="P6" s="337"/>
-      <c r="Q6" s="337"/>
-      <c r="R6" s="337"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F6" s="335"/>
+      <c r="G6" s="335"/>
+      <c r="H6" s="335"/>
+      <c r="I6" s="335"/>
+      <c r="J6" s="335"/>
+      <c r="K6" s="335"/>
+      <c r="L6" s="335"/>
+      <c r="M6" s="335"/>
+      <c r="N6" s="335"/>
+      <c r="O6" s="335"/>
+      <c r="P6" s="335"/>
+      <c r="Q6" s="335"/>
+      <c r="R6" s="335"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="334" t="s">
         <v>88</v>
       </c>
@@ -18844,7 +18847,7 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="334" t="s">
         <v>89</v>
@@ -18894,7 +18897,7 @@
         <v>22653.71</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="334" t="s">
         <v>90</v>
@@ -18944,7 +18947,7 @@
         <v>15406.718999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="334" t="s">
         <v>91</v>
@@ -18994,7 +18997,7 @@
         <v>3152.433</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="334" t="s">
         <v>58</v>
@@ -19044,7 +19047,7 @@
         <v>3725.3310000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -19092,7 +19095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="334" t="s">
@@ -19142,7 +19145,7 @@
         <v>44938.192999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -19192,7 +19195,7 @@
         <v>33837.324000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -19242,12 +19245,12 @@
         <v>11100.869000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="334" t="s">
         <v>89</v>
@@ -19310,7 +19313,7 @@
         <v>22863.275999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="334" t="s">
         <v>90</v>
@@ -19374,7 +19377,7 @@
       </c>
       <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="334" t="s">
         <v>91</v>
@@ -19437,7 +19440,7 @@
         <v>3314.95</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="334" t="s">
         <v>58</v>
@@ -19500,7 +19503,7 @@
         <v>3821.0209999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -19548,7 +19551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="10"/>
       <c r="C27" s="24"/>
@@ -19556,23 +19559,23 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="335" t="s">
+      <c r="H27" s="336" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="335"/>
-      <c r="J27" s="335"/>
-      <c r="K27" s="335"/>
-      <c r="L27" s="335"/>
-      <c r="M27" s="335"/>
-      <c r="N27" s="335"/>
-      <c r="O27" s="335"/>
-      <c r="P27" s="335"/>
-      <c r="Q27" s="335"/>
-      <c r="R27" s="335"/>
-      <c r="S27" s="335"/>
-      <c r="T27" s="335"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I27" s="336"/>
+      <c r="J27" s="336"/>
+      <c r="K27" s="336"/>
+      <c r="L27" s="336"/>
+      <c r="M27" s="336"/>
+      <c r="N27" s="336"/>
+      <c r="O27" s="336"/>
+      <c r="P27" s="336"/>
+      <c r="Q27" s="336"/>
+      <c r="R27" s="336"/>
+      <c r="S27" s="336"/>
+      <c r="T27" s="336"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>96</v>
       </c>
@@ -19596,7 +19599,7 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="10" t="s">
         <v>89</v>
@@ -19644,7 +19647,7 @@
         <v>-1551.309</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="10" t="s">
         <v>90</v>
@@ -19692,7 +19695,7 @@
         <v>-656.35500000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="10" t="s">
         <v>91</v>
@@ -19740,7 +19743,7 @@
         <v>-276.72699999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="10" t="s">
         <v>58</v>
@@ -19788,7 +19791,7 @@
         <v>407.49900000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="24"/>
@@ -19832,7 +19835,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="24"/>
@@ -19880,29 +19883,29 @@
         <v>-2076.8919999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="336" t="s">
+      <c r="F37" s="337" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="336"/>
-      <c r="H37" s="336"/>
-      <c r="I37" s="336"/>
-      <c r="J37" s="336"/>
-      <c r="K37" s="336"/>
-      <c r="L37" s="336"/>
-      <c r="M37" s="336"/>
-      <c r="N37" s="336"/>
-      <c r="O37" s="336"/>
-      <c r="P37" s="336"/>
-      <c r="Q37" s="336"/>
-      <c r="R37" s="336"/>
-    </row>
-    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+      <c r="G37" s="337"/>
+      <c r="H37" s="337"/>
+      <c r="I37" s="337"/>
+      <c r="J37" s="337"/>
+      <c r="K37" s="337"/>
+      <c r="L37" s="337"/>
+      <c r="M37" s="337"/>
+      <c r="N37" s="337"/>
+      <c r="O37" s="337"/>
+      <c r="P37" s="337"/>
+      <c r="Q37" s="337"/>
+      <c r="R37" s="337"/>
+    </row>
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>100</v>
       </c>
@@ -19924,7 +19927,7 @@
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="10" t="s">
         <v>89</v>
@@ -19972,7 +19975,7 @@
         <v>114.194</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="10" t="s">
         <v>91</v>
@@ -20020,7 +20023,7 @@
         <v>44.915999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="10" t="s">
         <v>90</v>
@@ -20068,7 +20071,7 @@
         <v>-4.3769999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
       <c r="B42" s="10" t="s">
         <v>58</v>
@@ -20116,7 +20119,7 @@
         <v>-1.5840000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="10"/>
       <c r="C43" s="24"/>
@@ -20162,7 +20165,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
       <c r="B44" s="10"/>
       <c r="C44" s="24" t="s">
@@ -20210,29 +20213,29 @@
         <v>153.149</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="24"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="335" t="s">
+      <c r="F48" s="336" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="335"/>
-      <c r="H48" s="335"/>
-      <c r="I48" s="335"/>
-      <c r="J48" s="335"/>
-      <c r="K48" s="335"/>
-      <c r="L48" s="335"/>
-      <c r="M48" s="335"/>
-      <c r="N48" s="335"/>
-      <c r="O48" s="335"/>
-      <c r="P48" s="335"/>
-      <c r="Q48" s="335"/>
-      <c r="R48" s="335"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G48" s="336"/>
+      <c r="H48" s="336"/>
+      <c r="I48" s="336"/>
+      <c r="J48" s="336"/>
+      <c r="K48" s="336"/>
+      <c r="L48" s="336"/>
+      <c r="M48" s="336"/>
+      <c r="N48" s="336"/>
+      <c r="O48" s="336"/>
+      <c r="P48" s="336"/>
+      <c r="Q48" s="336"/>
+      <c r="R48" s="336"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>96</v>
       </c>
@@ -20254,7 +20257,7 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="10" t="s">
         <v>89</v>
@@ -20302,7 +20305,7 @@
         <v>-323.76</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>91</v>
@@ -20350,7 +20353,7 @@
         <v>-207.43299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>90</v>
@@ -20398,7 +20401,7 @@
         <v>-109.739</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>58</v>
@@ -20446,7 +20449,7 @@
         <v>-94.105999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -20492,7 +20495,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="24"/>
       <c r="C55" s="10"/>
@@ -20542,12 +20545,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -20556,6 +20553,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20571,9 +20574,9 @@
       <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -20582,7 +20585,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -20591,9 +20594,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="315" t="s">
         <v>32</v>
       </c>
@@ -20616,7 +20619,7 @@
       <c r="R5" s="316"/>
       <c r="S5" s="316"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="317" t="s">
         <v>33</v>
       </c>
@@ -20639,7 +20642,7 @@
       <c r="R6" s="317"/>
       <c r="S6" s="317"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -20660,7 +20663,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -20682,7 +20685,7 @@
       </c>
       <c r="S8" s="319"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="14"/>
@@ -20709,7 +20712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -20758,7 +20761,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -20781,7 +20784,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>38</v>
@@ -20832,7 +20835,7 @@
         <v>12876.373</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>39</v>
@@ -20883,7 +20886,7 @@
         <v>1805.0319999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -20932,7 +20935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -20983,7 +20986,7 @@
         <v>14681.405000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -21004,7 +21007,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
@@ -21027,7 +21030,7 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="28" t="s">
         <v>44</v>
@@ -21078,7 +21081,7 @@
         <v>12109.843000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="28" t="s">
         <v>2</v>
@@ -21129,7 +21132,7 @@
         <v>5805.7169999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="28" t="s">
         <v>45</v>
@@ -21180,7 +21183,7 @@
         <v>601.34900000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="28" t="s">
         <v>46</v>
@@ -21231,7 +21234,7 @@
         <v>168.07</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -21280,7 +21283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -21332,7 +21335,7 @@
       </c>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -21356,7 +21359,7 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
@@ -21379,7 +21382,7 @@
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
     </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>49</v>
@@ -21430,7 +21433,7 @@
         <v>930.94100000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>50</v>
@@ -21481,7 +21484,7 @@
         <v>875.31100000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>51</v>
@@ -21532,7 +21535,7 @@
         <v>682.72</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>52</v>
@@ -21583,7 +21586,7 @@
         <v>610.42399999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>53</v>
@@ -21634,7 +21637,7 @@
         <v>340.57900000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>54</v>
@@ -21685,7 +21688,7 @@
         <v>298.62400000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -21734,7 +21737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -21785,7 +21788,7 @@
         <v>3738.5990000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -21816,7 +21819,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>55</v>
       </c>
@@ -21852,7 +21855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>56</v>
@@ -21916,7 +21919,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>57</v>
@@ -21980,7 +21983,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>58</v>
@@ -22044,7 +22047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -22093,7 +22096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -22157,7 +22160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -22191,7 +22194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>59</v>
       </c>
@@ -22227,7 +22230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>60</v>
@@ -22283,7 +22286,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>58</v>
@@ -22334,7 +22337,7 @@
         <v>183.27699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -22383,7 +22386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -22434,7 +22437,7 @@
         <v>1517.9280000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="89"/>
       <c r="B47" s="89"/>
       <c r="C47" s="89"/>
@@ -22467,7 +22470,7 @@
       <c r="R47" s="90"/>
       <c r="S47" s="90"/>
     </row>
-    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="89" t="s">
         <v>148</v>
       </c>
@@ -22493,7 +22496,7 @@
       <c r="R48" s="90"/>
       <c r="S48" s="90"/>
     </row>
-    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="89" t="s">
         <v>156</v>
       </c>
@@ -22525,7 +22528,7 @@
       <c r="R49" s="90"/>
       <c r="S49" s="90"/>
     </row>
-    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="89" t="s">
         <v>157</v>
       </c>
@@ -22557,7 +22560,7 @@
       <c r="R50" s="90"/>
       <c r="S50" s="90"/>
     </row>
-    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="89"/>
       <c r="B51" s="89"/>
       <c r="C51" s="89"/>
@@ -22578,7 +22581,7 @@
       <c r="R51" s="92"/>
       <c r="S51" s="92"/>
     </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>61</v>
       </c>
@@ -22601,7 +22604,7 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>62</v>
@@ -22652,7 +22655,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>63</v>
@@ -22703,7 +22706,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>64</v>
@@ -22754,7 +22757,7 @@
         <v>179.15</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>65</v>
@@ -22805,7 +22808,7 @@
         <v>-42.021999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>66</v>
@@ -22856,7 +22859,7 @@
         <v>140.99100000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="28" t="s">
         <v>67</v>
@@ -22907,7 +22910,7 @@
         <v>51.79</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>68</v>
@@ -22958,7 +22961,7 @@
         <v>29.829000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>58</v>
@@ -23009,7 +23012,7 @@
         <v>697.76099999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -23058,7 +23061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -23109,7 +23112,7 @@
         <v>1057.6969999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -23130,7 +23133,7 @@
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>69</v>
       </c>
@@ -23153,7 +23156,7 @@
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
     </row>
-    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>70</v>
       </c>
@@ -23204,7 +23207,7 @@
         <v>41712.921000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -23225,7 +23228,7 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>71</v>
       </c>
@@ -23248,7 +23251,7 @@
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>72</v>
@@ -23299,7 +23302,7 @@
         <v>-2166.04</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>73</v>
@@ -23322,7 +23325,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>74</v>
@@ -23345,7 +23348,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="28" t="s">
@@ -23396,7 +23399,7 @@
         <v>-537.75800000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="28" t="s">
@@ -23447,7 +23450,7 @@
         <v>-265.04899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="28" t="s">
@@ -23498,7 +23501,7 @@
         <v>-210.17099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -23547,7 +23550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -23598,7 +23601,7 @@
         <v>-1012.978</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
       <c r="B76" s="28"/>
       <c r="C76" s="10"/>
@@ -23619,7 +23622,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="10"/>
       <c r="B77" s="28" t="s">
         <v>77</v>
@@ -23670,7 +23673,7 @@
         <v>-120.02500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10"/>
       <c r="B78" s="28" t="s">
         <v>66</v>
@@ -23721,7 +23724,7 @@
         <v>-108.732</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
       <c r="B79" s="28" t="s">
         <v>67</v>
@@ -23772,7 +23775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
       <c r="B80" s="28" t="s">
         <v>58</v>
@@ -23823,7 +23826,7 @@
         <v>-326.91500000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -23872,7 +23875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="28"/>
       <c r="C82" s="10"/>
@@ -23923,7 +23926,7 @@
         <v>-3734.69</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -23944,7 +23947,7 @@
       <c r="R83" s="24"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -23967,7 +23970,7 @@
       <c r="R84" s="24"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -24019,7 +24022,7 @@
       </c>
       <c r="T85" s="25"/>
     </row>
-    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -24041,7 +24044,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
     </row>
-    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="30" t="s">
         <v>80</v>
       </c>
@@ -24065,7 +24068,7 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
     </row>
-    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>81</v>
       </c>
@@ -24088,7 +24091,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>82</v>
@@ -24139,7 +24142,7 @@
         <v>9943.8029999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="19"/>
       <c r="B90" s="19" t="s">
         <v>83</v>
@@ -24190,7 +24193,7 @@
         <v>16518.938999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="31"/>
@@ -24235,12 +24238,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -24457,6 +24454,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
@@ -24466,23 +24469,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24499,4 +24485,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v4.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6194A1-8BCD-D44D-9F0B-237A55F87CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC4B793-D05D-0842-93F1-3B27AD046C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="15260" yWindow="2980" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3144,21 +3144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3180,14 +3165,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13867,8 +13867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17524,68 +17524,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="322" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="322"/>
+      <c r="G2" s="322"/>
+      <c r="H2" s="322"/>
+      <c r="I2" s="322"/>
+      <c r="J2" s="322"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="322" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="328"/>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="328"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
-      <c r="K4" s="333" t="s">
+      <c r="A4" s="323"/>
+      <c r="B4" s="323"/>
+      <c r="C4" s="323"/>
+      <c r="D4" s="323"/>
+      <c r="E4" s="323"/>
+      <c r="F4" s="323"/>
+      <c r="G4" s="323"/>
+      <c r="H4" s="323"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="328" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="333"/>
-      <c r="M4" s="333"/>
-      <c r="N4" s="333"/>
+      <c r="L4" s="328"/>
+      <c r="M4" s="328"/>
+      <c r="N4" s="328"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="329" t="s">
+      <c r="C5" s="324" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="331"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="H5" s="325"/>
+      <c r="I5" s="325"/>
+      <c r="J5" s="326"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="332" t="s">
+      <c r="L5" s="327" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="301"/>
@@ -17596,16 +17596,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="323">
+      <c r="C6" s="330">
         <v>2020</v>
       </c>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="325"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
+      <c r="H6" s="331"/>
+      <c r="I6" s="331"/>
+      <c r="J6" s="332"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -18076,12 +18076,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="326" t="s">
+      <c r="K23" s="333" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="326"/>
-      <c r="M23" s="326"/>
-      <c r="N23" s="326"/>
+      <c r="L23" s="333"/>
+      <c r="M23" s="333"/>
+      <c r="N23" s="333"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -18250,7 +18250,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="322" t="s">
+      <c r="I28" s="329" t="s">
         <v>261</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -18301,7 +18301,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="322"/>
+      <c r="I29" s="329"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -18350,7 +18350,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="322"/>
+      <c r="I30" s="329"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -18399,7 +18399,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="322"/>
+      <c r="I31" s="329"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -18461,7 +18461,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="322" t="s">
+      <c r="I33" s="329" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -18509,7 +18509,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="322"/>
+      <c r="I34" s="329"/>
       <c r="J34" t="s">
         <v>262</v>
       </c>
@@ -18688,12 +18688,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -18701,6 +18695,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18808,22 +18808,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="335" t="s">
+      <c r="E6" s="337" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="335"/>
-      <c r="G6" s="335"/>
-      <c r="H6" s="335"/>
-      <c r="I6" s="335"/>
-      <c r="J6" s="335"/>
-      <c r="K6" s="335"/>
-      <c r="L6" s="335"/>
-      <c r="M6" s="335"/>
-      <c r="N6" s="335"/>
-      <c r="O6" s="335"/>
-      <c r="P6" s="335"/>
-      <c r="Q6" s="335"/>
-      <c r="R6" s="335"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
+      <c r="H6" s="337"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="337"/>
+      <c r="L6" s="337"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="337"/>
+      <c r="O6" s="337"/>
+      <c r="P6" s="337"/>
+      <c r="Q6" s="337"/>
+      <c r="R6" s="337"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="334" t="s">
@@ -19559,21 +19559,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="336" t="s">
+      <c r="H27" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="336"/>
-      <c r="J27" s="336"/>
-      <c r="K27" s="336"/>
-      <c r="L27" s="336"/>
-      <c r="M27" s="336"/>
-      <c r="N27" s="336"/>
-      <c r="O27" s="336"/>
-      <c r="P27" s="336"/>
-      <c r="Q27" s="336"/>
-      <c r="R27" s="336"/>
-      <c r="S27" s="336"/>
-      <c r="T27" s="336"/>
+      <c r="I27" s="335"/>
+      <c r="J27" s="335"/>
+      <c r="K27" s="335"/>
+      <c r="L27" s="335"/>
+      <c r="M27" s="335"/>
+      <c r="N27" s="335"/>
+      <c r="O27" s="335"/>
+      <c r="P27" s="335"/>
+      <c r="Q27" s="335"/>
+      <c r="R27" s="335"/>
+      <c r="S27" s="335"/>
+      <c r="T27" s="335"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -19889,21 +19889,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="337" t="s">
+      <c r="F37" s="336" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="337"/>
-      <c r="H37" s="337"/>
-      <c r="I37" s="337"/>
-      <c r="J37" s="337"/>
-      <c r="K37" s="337"/>
-      <c r="L37" s="337"/>
-      <c r="M37" s="337"/>
-      <c r="N37" s="337"/>
-      <c r="O37" s="337"/>
-      <c r="P37" s="337"/>
-      <c r="Q37" s="337"/>
-      <c r="R37" s="337"/>
+      <c r="G37" s="336"/>
+      <c r="H37" s="336"/>
+      <c r="I37" s="336"/>
+      <c r="J37" s="336"/>
+      <c r="K37" s="336"/>
+      <c r="L37" s="336"/>
+      <c r="M37" s="336"/>
+      <c r="N37" s="336"/>
+      <c r="O37" s="336"/>
+      <c r="P37" s="336"/>
+      <c r="Q37" s="336"/>
+      <c r="R37" s="336"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -20219,21 +20219,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="336" t="s">
+      <c r="F48" s="335" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="336"/>
-      <c r="H48" s="336"/>
-      <c r="I48" s="336"/>
-      <c r="J48" s="336"/>
-      <c r="K48" s="336"/>
-      <c r="L48" s="336"/>
-      <c r="M48" s="336"/>
-      <c r="N48" s="336"/>
-      <c r="O48" s="336"/>
-      <c r="P48" s="336"/>
-      <c r="Q48" s="336"/>
-      <c r="R48" s="336"/>
+      <c r="G48" s="335"/>
+      <c r="H48" s="335"/>
+      <c r="I48" s="335"/>
+      <c r="J48" s="335"/>
+      <c r="K48" s="335"/>
+      <c r="L48" s="335"/>
+      <c r="M48" s="335"/>
+      <c r="N48" s="335"/>
+      <c r="O48" s="335"/>
+      <c r="P48" s="335"/>
+      <c r="Q48" s="335"/>
+      <c r="R48" s="335"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -20545,6 +20545,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -20553,12 +20559,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24238,6 +24238,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -24454,12 +24460,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
@@ -24469,6 +24469,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24485,21 +24502,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v4.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC4B793-D05D-0842-93F1-3B27AD046C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D55A712-DDC2-D448-A6B9-D2D3C56B7FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="2980" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3144,6 +3144,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3165,29 +3180,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17524,68 +17524,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="327" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="322"/>
-      <c r="G2" s="322"/>
-      <c r="H2" s="322"/>
-      <c r="I2" s="322"/>
-      <c r="J2" s="322"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="322" t="s">
+      <c r="A3" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
+      <c r="B3" s="327"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="323"/>
-      <c r="B4" s="323"/>
-      <c r="C4" s="323"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="323"/>
-      <c r="G4" s="323"/>
-      <c r="H4" s="323"/>
-      <c r="I4" s="323"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="328" t="s">
+      <c r="A4" s="328"/>
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="328"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="328"/>
+      <c r="I4" s="328"/>
+      <c r="J4" s="328"/>
+      <c r="K4" s="333" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="328"/>
-      <c r="M4" s="328"/>
-      <c r="N4" s="328"/>
+      <c r="L4" s="333"/>
+      <c r="M4" s="333"/>
+      <c r="N4" s="333"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="324" t="s">
+      <c r="C5" s="329" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="326"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="331"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="327" t="s">
+      <c r="L5" s="332" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="301"/>
@@ -17596,16 +17596,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="330">
+      <c r="C6" s="323">
         <v>2020</v>
       </c>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="331"/>
-      <c r="G6" s="331"/>
-      <c r="H6" s="331"/>
-      <c r="I6" s="331"/>
-      <c r="J6" s="332"/>
+      <c r="D6" s="324"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="325"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -18076,12 +18076,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="333" t="s">
+      <c r="K23" s="326" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="333"/>
-      <c r="M23" s="333"/>
-      <c r="N23" s="333"/>
+      <c r="L23" s="326"/>
+      <c r="M23" s="326"/>
+      <c r="N23" s="326"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -18250,7 +18250,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="329" t="s">
+      <c r="I28" s="322" t="s">
         <v>261</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -18301,7 +18301,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="329"/>
+      <c r="I29" s="322"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -18350,7 +18350,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="329"/>
+      <c r="I30" s="322"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -18399,7 +18399,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="329"/>
+      <c r="I31" s="322"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -18461,7 +18461,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="329" t="s">
+      <c r="I33" s="322" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -18509,7 +18509,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="329"/>
+      <c r="I34" s="322"/>
       <c r="J34" t="s">
         <v>262</v>
       </c>
@@ -18688,6 +18688,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -18695,12 +18701,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18808,22 +18808,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="337" t="s">
+      <c r="E6" s="335" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="337"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="337"/>
-      <c r="P6" s="337"/>
-      <c r="Q6" s="337"/>
-      <c r="R6" s="337"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="335"/>
+      <c r="H6" s="335"/>
+      <c r="I6" s="335"/>
+      <c r="J6" s="335"/>
+      <c r="K6" s="335"/>
+      <c r="L6" s="335"/>
+      <c r="M6" s="335"/>
+      <c r="N6" s="335"/>
+      <c r="O6" s="335"/>
+      <c r="P6" s="335"/>
+      <c r="Q6" s="335"/>
+      <c r="R6" s="335"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="334" t="s">
@@ -19559,21 +19559,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="335" t="s">
+      <c r="H27" s="336" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="335"/>
-      <c r="J27" s="335"/>
-      <c r="K27" s="335"/>
-      <c r="L27" s="335"/>
-      <c r="M27" s="335"/>
-      <c r="N27" s="335"/>
-      <c r="O27" s="335"/>
-      <c r="P27" s="335"/>
-      <c r="Q27" s="335"/>
-      <c r="R27" s="335"/>
-      <c r="S27" s="335"/>
-      <c r="T27" s="335"/>
+      <c r="I27" s="336"/>
+      <c r="J27" s="336"/>
+      <c r="K27" s="336"/>
+      <c r="L27" s="336"/>
+      <c r="M27" s="336"/>
+      <c r="N27" s="336"/>
+      <c r="O27" s="336"/>
+      <c r="P27" s="336"/>
+      <c r="Q27" s="336"/>
+      <c r="R27" s="336"/>
+      <c r="S27" s="336"/>
+      <c r="T27" s="336"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -19889,21 +19889,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="336" t="s">
+      <c r="F37" s="337" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="336"/>
-      <c r="H37" s="336"/>
-      <c r="I37" s="336"/>
-      <c r="J37" s="336"/>
-      <c r="K37" s="336"/>
-      <c r="L37" s="336"/>
-      <c r="M37" s="336"/>
-      <c r="N37" s="336"/>
-      <c r="O37" s="336"/>
-      <c r="P37" s="336"/>
-      <c r="Q37" s="336"/>
-      <c r="R37" s="336"/>
+      <c r="G37" s="337"/>
+      <c r="H37" s="337"/>
+      <c r="I37" s="337"/>
+      <c r="J37" s="337"/>
+      <c r="K37" s="337"/>
+      <c r="L37" s="337"/>
+      <c r="M37" s="337"/>
+      <c r="N37" s="337"/>
+      <c r="O37" s="337"/>
+      <c r="P37" s="337"/>
+      <c r="Q37" s="337"/>
+      <c r="R37" s="337"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -20219,21 +20219,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="335" t="s">
+      <c r="F48" s="336" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="335"/>
-      <c r="H48" s="335"/>
-      <c r="I48" s="335"/>
-      <c r="J48" s="335"/>
-      <c r="K48" s="335"/>
-      <c r="L48" s="335"/>
-      <c r="M48" s="335"/>
-      <c r="N48" s="335"/>
-      <c r="O48" s="335"/>
-      <c r="P48" s="335"/>
-      <c r="Q48" s="335"/>
-      <c r="R48" s="335"/>
+      <c r="G48" s="336"/>
+      <c r="H48" s="336"/>
+      <c r="I48" s="336"/>
+      <c r="J48" s="336"/>
+      <c r="K48" s="336"/>
+      <c r="L48" s="336"/>
+      <c r="M48" s="336"/>
+      <c r="N48" s="336"/>
+      <c r="O48" s="336"/>
+      <c r="P48" s="336"/>
+      <c r="Q48" s="336"/>
+      <c r="R48" s="336"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -20545,12 +20545,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -20559,6 +20553,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24238,12 +24238,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -24460,6 +24454,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
@@ -24469,23 +24469,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24502,4 +24485,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>